--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr date1904="1" showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CaptorBoard.csv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
   <si>
     <t>Reference</t>
   </si>
@@ -376,9 +376,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>Gide lumiere</t>
-  </si>
-  <si>
     <t>Foot print</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
     <t>Diode-MiniMELF_Standard</t>
   </si>
   <si>
-    <t>LED-1206</t>
-  </si>
-  <si>
     <t>Fuseholder5x20_horiz_SemiClosed_Casing10x25mm</t>
   </si>
   <si>
@@ -443,6 +437,9 @@
   </si>
   <si>
     <t>For 2 board</t>
+  </si>
+  <si>
+    <t>LED-3mm</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1202,7 @@
         <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1216,7 +1213,7 @@
         <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1502,7 +1499,7 @@
         <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
         <v>95</v>
@@ -1529,10 +1526,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1557,11 +1557,11 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1571,7 +1571,7 @@
         <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>114</v>
@@ -1583,7 +1583,7 @@
         <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>114</v>
@@ -1592,7 +1592,7 @@
         <v>116</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>114</v>
@@ -1606,7 +1606,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1660,22 +1660,22 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G35" si="0">ROUNDUP(C4/F4,0)*F4</f>
+        <f t="shared" ref="G4:G34" si="0">ROUNDUP(C4/F4,0)*F4</f>
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H35" si="1">G4*E4</f>
+        <f t="shared" ref="H4:H34" si="1">G4*E4</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J35" si="2">ROUNDUP(($C4*I4)/$F4,0)*$F4</f>
+        <f t="shared" ref="J4:J34" si="2">ROUNDUP(($C4*I4)/$F4,0)*$F4</f>
         <v>2</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K35" si="3">$E4*J4</f>
+        <f t="shared" ref="K4:K34" si="3">$E4*J4</f>
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1762,7 +1762,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1801,7 +1801,7 @@
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1918,7 +1918,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1954,10 +1954,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1996,7 +1996,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -2113,16 +2113,16 @@
         <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C16" s="1">
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>2099247</v>
+        <v>1142502</v>
       </c>
       <c r="E16" s="1">
-        <v>9.2100000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>0.46050000000000002</v>
+        <v>0.53</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -2144,121 +2144,123 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>0.92100000000000004</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3245147</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.28100000000000003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>1.4050000000000002</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>2.8100000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1">
+        <v>1022251</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.106</v>
+      </c>
       <c r="F18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1022251</v>
+        <v>2471682</v>
       </c>
       <c r="E19" s="1">
-        <v>0.106</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>1.06</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>1.06</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>131</v>
@@ -2267,87 +2269,81 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>2471682</v>
+        <v>1123121</v>
       </c>
       <c r="E20" s="1">
-        <v>0.64800000000000002</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>0.64800000000000002</v>
+        <v>2.2800000000000002</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>0.64800000000000002</v>
+        <v>2.2800000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>1123121</v>
+        <v>2058064</v>
       </c>
       <c r="E21" s="1">
-        <v>0.22800000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>2.2800000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>2.2800000000000002</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
-        <v>2058064</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.3</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22">
         <v>1</v>
       </c>
@@ -2357,7 +2353,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
@@ -2368,106 +2364,110 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>9103503</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.51400000000000001</v>
+      </c>
       <c r="F23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="I23" s="1">
         <v>2</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5700000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>9103503</v>
+        <v>1654060</v>
       </c>
       <c r="E24" s="1">
-        <v>0.51400000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>2.5700000000000003</v>
+        <v>0.96</v>
       </c>
       <c r="I24" s="1">
         <v>2</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>2.5700000000000003</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
-        <v>1654060</v>
+        <v>1021368</v>
       </c>
       <c r="E25" s="1">
-        <v>0.96</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>0.96</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="2"/>
@@ -2475,96 +2475,96 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>1.92</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>1021368</v>
+        <v>2445619</v>
       </c>
       <c r="E26" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>2.04</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>2445619</v>
+        <v>2102577</v>
       </c>
       <c r="E27" s="1">
-        <v>0.20399999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>2.04</v>
+        <v>2.77</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>2.04</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>2102577</v>
+        <v>1630202</v>
       </c>
       <c r="E28" s="1">
-        <v>2.77</v>
+        <v>5.61</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>2.77</v>
+        <v>5.61</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
@@ -2586,22 +2586,22 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>5.54</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>1630202</v>
+        <v>1778989</v>
       </c>
       <c r="E29" s="1">
-        <v>5.61</v>
+        <v>9.67</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>5.61</v>
+        <v>9.67</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
@@ -2623,22 +2623,24 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>11.22</v>
+        <v>19.34</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>1778989</v>
+        <v>3041475</v>
       </c>
       <c r="E30" s="1">
-        <v>9.67</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2649,217 +2651,178 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>9.67</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="I30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>19.34</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>3041475</v>
+        <v>1022255</v>
       </c>
       <c r="E31" s="1">
-        <v>1.0900000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>1.0900000000000001</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>1.0900000000000001</v>
+        <v>1.3800000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>1022255</v>
+        <v>1852183</v>
       </c>
       <c r="E32" s="1">
-        <v>0.13800000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>1.3800000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>1.3800000000000001</v>
+        <v>1.036</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>1852183</v>
+        <v>1432565</v>
       </c>
       <c r="E33" s="1">
-        <v>0.51800000000000002</v>
+        <v>0.754</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>0.51800000000000002</v>
+        <v>3.77</v>
       </c>
       <c r="I33" s="1">
         <v>2</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>1.036</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>1432565</v>
+        <v>2464666</v>
       </c>
       <c r="E34" s="1">
-        <v>0.754</v>
+        <v>11.92</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>3.77</v>
+        <v>11.92</v>
       </c>
       <c r="I34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>3.77</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2464666</v>
-      </c>
-      <c r="E35" s="1">
-        <v>11.92</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
-        <v>11.92</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(H3:H34)</f>
+        <v>63.407000000000018</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
-        <v>11.92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="H36" s="1">
-        <f>SUM(H3:H35)</f>
-        <v>64.742500000000007</v>
-      </c>
-      <c r="K36" s="1">
-        <f>SUM(K3:K35)</f>
-        <v>87.99</v>
+        <f>SUM(K3:K34)</f>
+        <v>85.319000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
   <si>
     <t>Reference</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>LED-3mm</t>
+  </si>
+  <si>
+    <t>SHT21</t>
   </si>
 </sst>
 </file>
@@ -1529,10 +1532,10 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2336,14 +2339,18 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1">
+        <v>1855468</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.79</v>
+      </c>
       <c r="F22">
         <v>1</v>
       </c>
@@ -2353,7 +2360,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
@@ -2364,7 +2371,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2818,11 +2825,11 @@
     <row r="35" spans="1:11">
       <c r="H35" s="1">
         <f>SUM(H3:H34)</f>
-        <v>63.407000000000018</v>
+        <v>67.197000000000017</v>
       </c>
       <c r="K35" s="1">
         <f>SUM(K3:K34)</f>
-        <v>85.319000000000003</v>
+        <v>92.899000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
   <si>
     <t>Reference</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>SHT21</t>
+  </si>
+  <si>
+    <t>SKHHLVA010</t>
   </si>
 </sst>
 </file>
@@ -1532,10 +1535,10 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2152,14 +2155,18 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1">
+        <v>2056831</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.151</v>
+      </c>
       <c r="F17">
         <v>1</v>
       </c>
@@ -2169,7 +2176,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.151</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -2180,7 +2187,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2825,11 +2832,11 @@
     <row r="35" spans="1:11">
       <c r="H35" s="1">
         <f>SUM(H3:H34)</f>
-        <v>67.197000000000017</v>
+        <v>67.348000000000013</v>
       </c>
       <c r="K35" s="1">
         <f>SUM(K3:K34)</f>
-        <v>92.899000000000001</v>
+        <v>93.201000000000008</v>
       </c>
     </row>
   </sheetData>

--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CaptorBoard.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="command" sheetId="6" r:id="rId2"/>
+    <sheet name="command Farnell" sheetId="6" r:id="rId2"/>
+    <sheet name="command RS Particulier" sheetId="7" r:id="rId3"/>
+    <sheet name="Yum" sheetId="8" r:id="rId4"/>
+    <sheet name="CPL" sheetId="9" r:id="rId5"/>
+    <sheet name="Robotshot" sheetId="10" r:id="rId6"/>
+    <sheet name="cliker" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="194">
   <si>
     <t>Reference</t>
   </si>
@@ -446,13 +451,181 @@
   </si>
   <si>
     <t>SKHHLVA010</t>
+  </si>
+  <si>
+    <t>For 3 board</t>
+  </si>
+  <si>
+    <t>RS ref</t>
+  </si>
+  <si>
+    <t>Code RS</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Arduino Yun Mini</t>
+  </si>
+  <si>
+    <t>Alimentation à découpage intégrable TRACOPOWER 15W monosortie, tension : 12V dc, courant : 1.3A</t>
+  </si>
+  <si>
+    <t>Alimentation à découpage intégrable RS 3W monosortie, tension : 5V dc, courant : 500mA</t>
+  </si>
+  <si>
+    <t>PRU TTC</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>OFDMA Power Line Communication Module</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>7RB-Lin-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Leonardo Microcontroller </t>
+  </si>
+  <si>
+    <t>RB-Ard-36</t>
+  </si>
+  <si>
+    <t>BMP180 Barometer Module</t>
+  </si>
+  <si>
+    <t>RB-Dfr-611</t>
+  </si>
+  <si>
+    <t>Electronic Brick DHT11 Humidity</t>
+  </si>
+  <si>
+    <t>RB-Ite-59</t>
+  </si>
+  <si>
+    <t>'Mamba'' Narrow Band Power Communication Shield for Arduino</t>
+  </si>
+  <si>
+    <t>Alimentation A découpage 24W monosortie, 12V, 2A</t>
+  </si>
+  <si>
+    <t>765-4629</t>
+  </si>
+  <si>
+    <t>Émetteur-récepteur RF MRF89XAM9A-I/RM, FSK, OOK, Module 12 broches 902 → 928MHz, 2,1 → 3,6 V</t>
+  </si>
+  <si>
+    <t>798-5264</t>
+  </si>
+  <si>
+    <t>PIC32 MX Clicker</t>
+  </si>
+  <si>
+    <t>862-4859</t>
+  </si>
+  <si>
+    <t>Alimentation à découpage intégrable 4W 2 sorties, tension : +3.3 V dc, +5 V dc, courant : 150 mA, 600 mA</t>
+  </si>
+  <si>
+    <t>754-1393</t>
+  </si>
+  <si>
+    <t>Diode traversante, 1A, 400V, 1N4004-E3/54, Simple</t>
+  </si>
+  <si>
+    <t>628-9029</t>
+  </si>
+  <si>
+    <t>Support DIL ASSMANN WSW, Entraxe de 2.54mm, largeur de rangée 7.62mm, 6 voies, Traversant, broches Tulipe, 3A Vertical</t>
+  </si>
+  <si>
+    <t>674-2460</t>
+  </si>
+  <si>
+    <t>BORNIER CI 5MM - 3CTS</t>
+  </si>
+  <si>
+    <t>361-7673</t>
+  </si>
+  <si>
+    <t>Résistance à film métallique 560Ω, ±1%, 0,6W, Dimensions 2.3 Dia. x 6.2mm</t>
+  </si>
+  <si>
+    <t>148-449</t>
+  </si>
+  <si>
+    <t>NouveauConnecteur Mâle, Traversant, 2 Contacts, 1 rangée, Verticale, au pas de 2.54mm</t>
+  </si>
+  <si>
+    <t>896-7620</t>
+  </si>
+  <si>
+    <t>NouveauCarte à matrice Simple face au pas de 2.54mm, 100 x 50 x 1.5mm, 35μm, FR2</t>
+  </si>
+  <si>
+    <t>890-3575</t>
+  </si>
+  <si>
+    <t>Optocoupleur Traversant, Isocom, MOC3042X, sortie Phototriac</t>
+  </si>
+  <si>
+    <t>453-1097</t>
+  </si>
+  <si>
+    <t>Hi-Speed USB 2.0 to UART cable, +3.3V</t>
+  </si>
+  <si>
+    <t>751-1172</t>
+  </si>
+  <si>
+    <t>Connecteur port Mini USB 2.0 Type B Droit Hirose, montage Montage sur câble Mâle, 5 V c.a., 1A série UX</t>
+  </si>
+  <si>
+    <t>764-4578</t>
+  </si>
+  <si>
+    <t>2 way 5.08mm terminal block Plug</t>
+  </si>
+  <si>
+    <t>790-0695</t>
+  </si>
+  <si>
+    <t>Embase de bornier droite 2 pôles</t>
+  </si>
+  <si>
+    <t>707-5307</t>
+  </si>
+  <si>
+    <t>CONNECTOR 30 POS IDC SOCKET GOLD</t>
+  </si>
+  <si>
+    <t>828-0434</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -501,37 +674,108 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="88">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -542,6 +786,39 @@
     <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -552,6 +829,40 @@
     <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Monétaire" xfId="25" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -883,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -1532,13 +1843,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1555,24 +1866,29 @@
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
@@ -1606,8 +1922,17 @@
       <c r="K2" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1940,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>1759265</v>
@@ -1639,14 +1964,25 @@
       </c>
       <c r="J3" s="1">
         <f>ROUNDUP(($C3*I3)/$F3,0)*$F3</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1">
         <f>$E3*J3</f>
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.27</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <f>ROUNDUP(($C3*L3)/$F3,0)*$F3</f>
+        <v>30</v>
+      </c>
+      <c r="N3" s="1">
+        <f>$E3*M3</f>
+        <v>0.40499999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1684,8 +2020,19 @@
         <f t="shared" ref="K4:K34" si="3">$E4*J4</f>
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M34" si="4">ROUNDUP(($C4*L4)/$F4,0)*$F4</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N34" si="5">$E4*M4</f>
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1723,8 +2070,19 @@
         <f t="shared" si="3"/>
         <v>2.7600000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7600000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1762,8 +2120,19 @@
         <f t="shared" si="3"/>
         <v>1.2149999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2149999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
@@ -1801,8 +2170,19 @@
         <f t="shared" si="3"/>
         <v>0.26800000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1840,8 +2220,19 @@
         <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1879,8 +2270,19 @@
         <f t="shared" si="3"/>
         <v>3.375</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="5"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1918,8 +2320,19 @@
         <f t="shared" si="3"/>
         <v>0.184</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1957,8 +2370,19 @@
         <f t="shared" si="3"/>
         <v>2.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="5"/>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>126</v>
       </c>
@@ -1996,8 +2420,19 @@
         <f t="shared" si="3"/>
         <v>0.19699999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.19699999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2035,8 +2470,19 @@
         <f t="shared" si="3"/>
         <v>0.19699999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.19699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>87</v>
       </c>
@@ -2074,8 +2520,19 @@
         <f t="shared" si="3"/>
         <v>0.83199999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="5"/>
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2113,8 +2570,19 @@
         <f t="shared" si="3"/>
         <v>1.73</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="5"/>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
@@ -2152,8 +2620,19 @@
         <f t="shared" si="3"/>
         <v>1.06</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>141</v>
       </c>
@@ -2189,8 +2668,19 @@
         <f t="shared" si="3"/>
         <v>0.30199999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45299999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>110</v>
       </c>
@@ -2228,8 +2718,19 @@
         <f t="shared" si="3"/>
         <v>1.06</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="5"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
@@ -2267,8 +2768,19 @@
         <f t="shared" si="3"/>
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="5"/>
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>130</v>
       </c>
@@ -2306,8 +2818,19 @@
         <f t="shared" si="3"/>
         <v>2.2800000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2800000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -2343,8 +2866,19 @@
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>140</v>
       </c>
@@ -2380,8 +2914,19 @@
         <f t="shared" si="3"/>
         <v>7.58</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="5"/>
+        <v>11.370000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
@@ -2417,8 +2962,19 @@
         <f t="shared" si="3"/>
         <v>2.5700000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5700000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2454,8 +3010,19 @@
         <f t="shared" si="3"/>
         <v>1.92</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="5"/>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
@@ -2491,8 +3058,19 @@
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>132</v>
       </c>
@@ -2528,8 +3106,19 @@
         <f t="shared" si="3"/>
         <v>2.04</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2565,8 +3154,19 @@
         <f t="shared" si="3"/>
         <v>5.54</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="5"/>
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +3202,19 @@
         <f t="shared" si="3"/>
         <v>11.22</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="1">
+        <v>3</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="5"/>
+        <v>16.830000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -2639,8 +3250,19 @@
         <f t="shared" si="3"/>
         <v>19.34</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="5"/>
+        <v>29.009999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -2678,8 +3300,19 @@
         <f t="shared" si="3"/>
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2707,7 +3340,7 @@
         <v>1.3800000000000001</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="2"/>
@@ -2717,8 +3350,19 @@
         <f t="shared" si="3"/>
         <v>1.3800000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3800000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2754,8 +3398,19 @@
         <f t="shared" si="3"/>
         <v>1.036</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="5"/>
+        <v>1.554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -2791,8 +3446,19 @@
         <f t="shared" si="3"/>
         <v>3.77</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="1">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="5"/>
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -2828,22 +3494,38 @@
         <f t="shared" si="3"/>
         <v>11.92</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="5"/>
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="H35" s="1">
         <f>SUM(H3:H34)</f>
         <v>67.348000000000013</v>
       </c>
       <c r="K35" s="1">
         <f>SUM(K3:K34)</f>
-        <v>93.201000000000008</v>
+        <v>93.335999999999999</v>
+      </c>
+      <c r="N35" s="1">
+        <f>SUM(N3:N34)</f>
+        <v>135.44999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2853,4 +3535,2147 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="e">
+        <f>ROUNDUP(C3/F3,0)*F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" s="1" t="e">
+        <f>G3*E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="e">
+        <f>ROUNDUP(($C3*I3)/$F3,0)*$F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="1" t="e">
+        <f>$E3*J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="e">
+        <f>ROUNDUP(($C3*L3)/$F3,0)*$F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="1" t="e">
+        <f>$E3*M3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1" t="e">
+        <f t="shared" ref="G4:G34" si="0">ROUNDUP(C4/F4,0)*F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="1" t="e">
+        <f t="shared" ref="H4:H34" si="1">G4*E4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="e">
+        <f t="shared" ref="J4:J34" si="2">ROUNDUP(($C4*I4)/$F4,0)*$F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="1" t="e">
+        <f t="shared" ref="K4:K34" si="3">$E4*J4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="e">
+        <f t="shared" ref="M4:M34" si="4">ROUNDUP(($C4*L4)/$F4,0)*$F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="1" t="e">
+        <f t="shared" ref="N4:N34" si="5">$E4*M4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="1">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="1">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" s="1">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="1">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="1">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3</v>
+      </c>
+      <c r="M28" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="G31" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2</v>
+      </c>
+      <c r="J31" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="1">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="G34" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="H35" s="1" t="e">
+        <f>SUM(H3:H34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="1" t="e">
+        <f>SUM(K3:K34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="1" t="e">
+        <f>SUM(N3:N34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="F2" s="2">
+        <f>SUM(F3:F5)</f>
+        <v>175.88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3">
+        <v>8659007</v>
+      </c>
+      <c r="D3" s="2">
+        <v>68.72</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3*E3</f>
+        <v>137.44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4">
+        <v>7703242</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18.48</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>7719379</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>19.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="F2" s="2">
+        <f>SUM(F3:F5)</f>
+        <v>175.64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>7703242</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18.48</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F5" si="0">D3*E3</f>
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>7719379</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9.98</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>8700792</v>
+      </c>
+      <c r="D5">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>137.19999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="F2" s="2">
+        <f>SUM(F3:F5)</f>
+        <v>166.44000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="3">
+        <v>55.04</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F6" si="0">D3*E3</f>
+        <v>110.08</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="3">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>39.840000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="102.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="F2" s="2">
+        <f>SUM(F3:F18)</f>
+        <v>243.64000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F18" si="0">D3*E3</f>
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>27.78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="3">
+        <v>29.81</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>89.429999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="3">
+        <v>19.38</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>11.399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="3">
+        <v>29.11</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>29.11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1499999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3500000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.fouquet\Documents\sources\perso\CaptorBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E90F59-43DB-4065-AEB2-B34444A0707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2847D99-78E9-478E-85E4-1D158001E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2070" windowWidth="21585" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31980" yWindow="2085" windowWidth="21585" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaptorBoard" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +555,12 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -899,7 +905,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -907,6 +913,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="8" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1849,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,7 +1866,7 @@
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1970,7 +1978,7 @@
         <f>C6*B$1</f>
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F6" s="2">
@@ -1998,7 +2006,7 @@
         <f t="shared" ref="D7:D29" si="0">C7*B$1</f>
         <v>40</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="2">
@@ -2026,7 +2034,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F8" s="2">
@@ -2054,7 +2062,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F9" s="2">
@@ -2082,7 +2090,7 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="2">
@@ -2110,7 +2118,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="2">
@@ -2138,7 +2146,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="2">
@@ -2166,7 +2174,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>115</v>
       </c>
       <c r="F13" s="5">
@@ -2216,7 +2224,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>113</v>
       </c>
       <c r="F15" s="2">
@@ -2290,7 +2298,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="2">
@@ -2318,7 +2326,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="2">
@@ -2346,7 +2354,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F20" s="2">
@@ -2374,7 +2382,7 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="8" t="s">
         <v>106</v>
       </c>
       <c r="F21" s="2">
@@ -2402,7 +2410,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F22" s="2">
@@ -2430,7 +2438,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F23" s="6">
@@ -2458,7 +2466,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="8" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="2">
@@ -2486,7 +2494,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="2">
@@ -2514,7 +2522,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F26" s="5">
@@ -2542,7 +2550,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="2">
@@ -2570,7 +2578,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="2">
@@ -2598,7 +2606,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="2">
@@ -2636,21 +2644,7 @@
       <c r="G37" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="https://www.mouser.fr/ProductDetail/KEMET/C1210C120J1HACTU?qs=W0yvOO0ixfEmRrcetHqPgA%3D%3D" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E8" r:id="rId2" display="https://www.mouser.fr/ProductDetail/Samsung-Electro-Mechanics/CL32A226MOJNNNE?qs=X6jEic%2FHinDrCPX6SLC7PA%3D%3D" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E9" r:id="rId3" display="https://www.mouser.fr/ProductDetail/Samsung-Electro-Mechanics/CL32B105KBHNNNE?qs=349EhDEZ59rXY4nCVEMdbA%3D%3D" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E10" r:id="rId4" display="https://www.mouser.fr/ProductDetail/Lite-On/LTST-C930KGKT?qs=qxhnwC4CwxkfAQj1wZIfSQ%3D%3D" xr:uid="{BAF6ED0D-6B67-4CB9-A15A-57C17B730A7D}"/>
-    <hyperlink ref="E11" r:id="rId5" display="https://www.mouser.fr/ProductDetail/onsemi/MRA4007T3G?qs=ZpPixqFcBtze9zNLkB8kog%3D%3D" xr:uid="{3C12269F-D067-44D8-BF0E-E945324B2D59}"/>
-    <hyperlink ref="E12" r:id="rId6" display="https://www.mouser.fr/ProductDetail/Comchip-Technology/1N4004T-G?qs=tw%252BuQ%2FB6PO3qoBZGQQOUiQ%3D%3D" xr:uid="{46C0D30D-8C70-445D-AC26-09F3459FE687}"/>
-    <hyperlink ref="E15" r:id="rId7" display="https://www.mouser.fr/ProductDetail/CUI-Devices/TB007-508-03BE?qs=sGAEpiMZZMvPvGwLNS671%2FDanv8Jav06cNprADDV8o%252BpBxzbBkYX8w%3D%3D" xr:uid="{A7C4017B-06A2-4C82-8958-B1BD625099E8}"/>
-    <hyperlink ref="E20" r:id="rId8" display="https://www.mouser.fr/ProductDetail/CUI-Devices/TB007-508-03BE?qs=sGAEpiMZZMvPvGwLNS671%2FDanv8Jav06cNprADDV8o%252BpBxzbBkYX8w%3D%3D" xr:uid="{C382A474-1EA4-4704-B536-3E0B482B9DB0}"/>
-    <hyperlink ref="E13" r:id="rId9" display="https://www.mouser.fr/ProductDetail/Littelfuse/0443001.DR?qs=PalBzRKzfntIMFnMK4x4WA%3D%3D" xr:uid="{D74FE405-09B9-43B0-A239-5B50E30DFAF9}"/>
-    <hyperlink ref="E6" r:id="rId10" display="https://www.mouser.fr/ProductDetail/KYOCERA-AVX/12101C104K4T2A?qs=46Fswce4YXnjVHFdHduUPA%3D%3D" xr:uid="{83E5B84C-90A6-4CA7-B636-ECB590866C53}"/>
-    <hyperlink ref="E18" r:id="rId11" display="https://www.mouser.fr/ProductDetail/Omron-Electronics/G5LE-1-DC5?qs=ImaqFqjHA4nKN7ETIjn3Lg%3D%3D" xr:uid="{FDE5AD49-7BE9-4F0B-BB1A-F37752447A47}"/>
-    <hyperlink ref="E19" r:id="rId12" display="https://www.mouser.fr/ProductDetail/MEAN-WELL/IRM-05-5?qs=WkdRfq4wf1OdYoHS8Am9VA%3D%3D" xr:uid="{1A607E26-14F6-4F81-B0A4-597AAB354767}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.fouquet\Documents\sources\perso\CaptorBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2847D99-78E9-478E-85E4-1D158001E4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A90C1D-7297-4D83-941F-E6371841E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31980" yWindow="2085" windowWidth="21585" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="3885" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaptorBoard" sheetId="1" r:id="rId1"/>
@@ -905,7 +905,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -913,7 +913,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="8" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1857,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,7 +1977,7 @@
         <f>C6*B$1</f>
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" t="s">
         <v>118</v>
       </c>
       <c r="F6" s="2">
@@ -2006,7 +2005,7 @@
         <f t="shared" ref="D7:D29" si="0">C7*B$1</f>
         <v>40</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="2">
@@ -2034,7 +2033,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>97</v>
       </c>
       <c r="F8" s="2">
@@ -2062,7 +2061,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>98</v>
       </c>
       <c r="F9" s="2">
@@ -2090,7 +2089,7 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="2">
@@ -2118,7 +2117,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="2">
@@ -2146,7 +2145,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="2">
@@ -2174,7 +2173,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" t="s">
         <v>115</v>
       </c>
       <c r="F13" s="5">
@@ -2195,12 +2194,11 @@
         <v>Conn_01x06</v>
       </c>
       <c r="C14">
-        <f>CaptorBoard!B10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -2224,7 +2222,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" t="s">
         <v>113</v>
       </c>
       <c r="F15" s="2">
@@ -2245,12 +2243,11 @@
         <v>Conn_01x07</v>
       </c>
       <c r="C16">
-        <f>CaptorBoard!B12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
@@ -2269,12 +2266,11 @@
         <v>Conn_01x04</v>
       </c>
       <c r="C17">
-        <f>CaptorBoard!B13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
@@ -2298,7 +2294,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="2">
@@ -2326,7 +2322,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="2">
@@ -2354,7 +2350,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" t="s">
         <v>102</v>
       </c>
       <c r="F20" s="2">
@@ -2382,7 +2378,7 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F21" s="2">
@@ -2410,7 +2406,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F22" s="2">
@@ -2438,7 +2434,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F23" s="6">
@@ -2466,7 +2462,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>110</v>
       </c>
       <c r="F24" s="2">
@@ -2494,7 +2490,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="2">
@@ -2522,7 +2518,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F26" s="5">
@@ -2550,7 +2546,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="2">
@@ -2578,7 +2574,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="2">
@@ -2606,7 +2602,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="2">

--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippefouquet/Documents/Developpement/Electronique/CaptorBoard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3841B19F-1708-7543-A0CC-3113F367A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294FF1EA-B366-184A-8321-C293AB84A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="30280" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="33180" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaptorBoard" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>31354 En stock</t>
+          <t>31229 En stock</t>
         </r>
       </text>
     </comment>
@@ -307,7 +307,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>7870 En stock</t>
+          <t>7370 En stock</t>
         </r>
       </text>
     </comment>
@@ -323,14 +323,14 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €0.28      €0.28
-    10   €0.19      €1.94
-   100   €0.10      €9.90
-   500   €0.07     €34.00
-  1000   €0.06     €60.00
-  2000   €0.06    €114.00
-  4000   €0.05    €204.00
-  8000   €0.05    €392.00</t>
+     1   €0.25      €0.25
+    10   €0.17      €1.71
+   100   €0.09      €8.60
+  1000   €0.05     €53.00
+  4000   €0.05    €200.00
+  8000   €0.04    €320.00
+ 24000   €0.04    €936.00
+100000   €0.04  €3,500.00</t>
         </r>
       </text>
     </comment>
@@ -356,7 +356,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>71647 En stock</t>
+          <t>66327 En stock</t>
         </r>
       </text>
     </comment>
@@ -406,7 +406,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>375502 En stock</t>
+          <t>363274 En stock</t>
         </r>
       </text>
     </comment>
@@ -451,11 +451,11 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>80579 En stock</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>67499 En stock</t>
         </r>
       </text>
     </comment>
@@ -464,22 +464,121 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (EUR):
-  Qty  -  Unit€  -  Ext€
-================
-     1   €0.34      €0.34
-    10   €0.18      €1.85
-   100   €0.09      €8.60
-   500   €0.08     €39.50
-  1000   €0.06     €62.00
-  1500   €0.06     €90.00
-  9000   €0.05    €423.00
- 24000   €0.04    €984.00
- 49500   €0.04  €1,881.00</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Qty/Price Breaks (EUR):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">================
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     1   €0.34      €0.34
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    10   €0.18      €1.85
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   100   €0.09      €8.60
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   500   €0.08     €39.50
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  1000   €0.06     €62.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  1500   €0.06     €90.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  9000   €0.05    €423.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 24000   €0.04    €984.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 49500   €0.04  €1,881.00</t>
         </r>
       </text>
     </comment>
@@ -505,7 +604,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>157760 En stock</t>
+          <t>146524 En stock</t>
         </r>
       </text>
     </comment>
@@ -555,7 +654,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>60400 En stock</t>
+          <t>61636 En stock</t>
         </r>
       </text>
     </comment>
@@ -601,11 +700,11 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2293 En stock</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2243 En stock</t>
         </r>
       </text>
     </comment>
@@ -614,16 +713,81 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (EUR):
-  Qty  -  Unit€  -  Ext€
-================
-     1   €1.14      €1.14
-    10   €0.99      €9.90
-  1500   €0.99  €1,485.00</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Qty/Price Breaks (EUR):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">================
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     1   €1.13      €1.13
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    10   €0.92      €9.15
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   100   €0.84     €84.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  1500   €0.84  €1,260.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  3000   €0.84  €2,508.00</t>
         </r>
       </text>
     </comment>
@@ -649,7 +813,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>14594 En stock</t>
+          <t>12242 En stock</t>
         </r>
       </text>
     </comment>
@@ -699,11 +863,289 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>5523 En stock</t>
+          <t>4434 En stock</t>
         </r>
       </text>
     </comment>
     <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Qty/Price Breaks (EUR):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">================
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     1   €1.55      €1.55
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    10   €1.45     €14.50
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    25   €1.29     €32.25
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    50   €1.22     €61.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   100   €1.16    €116.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   250   €1.13    €282.50
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   500   €1.06    €530.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Relais universels SPDT 5VDC Flux Protected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>479 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Qty/Price Breaks (EUR):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">================
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     1   €6.67      €6.67
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     5   €6.59     €32.95
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    10   €6.50     €65.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    25   €6.32    €158.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    60   €5.94    €356.40
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   120   €5.75    €690.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   300   €5.56  €1,668.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   540   €5.49  €2,964.60
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  1020   €5.24  €5,344.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Modules d'alimentation CA/CC ac-dc, 5 W, 5 Vdc, single output, encapsulated PCB, 85~305 Vac</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>80273 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
         <r>
           <rPr>
@@ -715,108 +1157,13 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €1.55      €1.55
-    10   €1.45     €14.50
-    25   €1.29     €32.25
-    50   €1.22     €61.00
-   100   €1.19    €119.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Desc: Relais universels SPDT 5VDC Flux Protected</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>463 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (EUR):
-  Qty  -  Unit€  -  Ext€
-================
-     1   €6.67      €6.67
-     5   €6.59     €32.95
-    10   €6.50     €65.00
-    25   €6.32    €158.00
-    60   €5.94    €356.40
-   120   €5.75    €690.00
-   300   €5.56  €1,668.00
-   540   €5.49  €2,964.60
-  1020   €5.24  €5,344.80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Desc: Modules d'alimentation CA/CC ac-dc, 5 W, 5 Vdc, single output, encapsulated PCB, 85~305 Vac</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>561 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (EUR):
-  Qty  -  Unit€  -  Ext€
-================
-     1   €0.22      €0.22
-    10   €0.17      €1.75
-   100   €0.09      €9.30
-   500   €0.06     €30.50
-  1000   €0.04     €42.00
-  3000   €0.04    €114.00</t>
+     1   €0.27      €0.27
+    10   €0.22      €2.24
+   100   €0.12     €11.80
+   500   €0.08     €39.00
+  1000   €0.05     €54.00
+  3000   €0.05    €141.00
+  6000   €0.04    €270.00</t>
         </r>
       </text>
     </comment>
@@ -829,7 +1176,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Desc: MOSFET NFET SOT23 60V 380mA 2.5Ohms</t>
+          <t>Desc: MOSFET N-Channel</t>
         </r>
       </text>
     </comment>
@@ -898,18 +1245,81 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (EUR):
-  Qty  -  Unit€  -  Ext€
-================
-     1   €0.72      €0.72
-    10   €0.54      €5.43
-   100   €0.32     €31.50
-  1000   €0.22    €223.00
-  4000   €0.22    €892.00</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Qty/Price Breaks (EUR):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">================
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     1   €0.72      €0.72
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    10   €0.54      €5.43
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   100   €0.32     €31.50
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  1000   €0.22    €223.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  4000   €0.22    €892.00</t>
         </r>
       </text>
     </comment>
@@ -935,7 +1345,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>22055 En stock</t>
+          <t>21928 En stock</t>
         </r>
       </text>
     </comment>
@@ -978,11 +1388,11 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>8857 En stock</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8407 En stock</t>
         </r>
       </text>
     </comment>
@@ -1030,7 +1440,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>4641 En stock</t>
+          <t>3439 En stock</t>
         </r>
       </text>
     </comment>
@@ -1080,7 +1490,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>40832 En stock</t>
+          <t>37679 En stock</t>
         </r>
       </text>
     </comment>
@@ -1169,7 +1579,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>273 En stock</t>
+          <t>15584 En stock</t>
         </r>
       </text>
     </comment>
@@ -1185,15 +1595,15 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €1.03      €1.03
-    10   €0.65      €6.51
-   100   €0.48     €48.00
-   500   €0.46    €229.00
-  1000   €0.37    €368.00
-  2000   €0.35    €700.00
-  5000   €0.34  €1,710.00
- 10000   €0.34  €3,350.00
- 25000   €0.33  €8,250.00</t>
+     1   €1.00      €1.00
+    10   €0.65      €6.47
+   100   €0.42     €42.50
+   500   €0.41    €207.00
+  1000   €0.33    €326.00
+  3000   €0.32    €960.00
+  5000   €0.31  €1,540.00
+ 10000   €0.30  €3,040.00
+ 25000   €0.29  €7,250.00</t>
         </r>
       </text>
     </comment>
@@ -1206,7 +1616,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Desc: Optocoupleurs de sortie triac et SCR 6Pin400V Optocoupler Zero Cross Triac Dr</t>
+          <t>Desc: Optocoupleurs de sortie triac et SCR DIP-6 ZERO TRIAC</t>
         </r>
       </text>
     </comment>
@@ -1219,7 +1629,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>28268 En stock</t>
+          <t>25407 En stock</t>
         </r>
       </text>
     </comment>
@@ -1453,7 +1863,7 @@
     <t>SOT-23</t>
   </si>
   <si>
-    <t>2N7002KT1G</t>
+    <t>2N7002E-7-F</t>
   </si>
   <si>
     <t>R1,R5,R7-R11,R14</t>
@@ -1534,7 +1944,7 @@
     <t>DIP-6_W7.62mm</t>
   </si>
   <si>
-    <t>MOC3041VM</t>
+    <t>MOC3041M</t>
   </si>
   <si>
     <t>Y1</t>
@@ -1594,7 +2004,7 @@
     <t>490-PSK-5D-5</t>
   </si>
   <si>
-    <t>863-2N7002KT1G</t>
+    <t>621-2N7002E-7-F</t>
   </si>
   <si>
     <t>791-RMC1/4-102JTE</t>
@@ -1618,7 +2028,7 @@
     <t>579-TC1264-3.3VDBTR</t>
   </si>
   <si>
-    <t>512-MOC3041VM</t>
+    <t>512-MOC3041-M</t>
   </si>
   <si>
     <t>428-201494-MC01</t>
@@ -1645,7 +2055,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>2023 April 02, Sunday 15:11:16</t>
+    <t>2023 May 01, Monday 16:40:26</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -1660,7 +2070,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2023-04-02 15:11:22</t>
+    <t>2023-05-01 16:40:50</t>
   </si>
   <si>
     <t>KiCost® v1.1.15</t>
@@ -1674,7 +2084,7 @@
     <numFmt numFmtId="164" formatCode="\€#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\€#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,6 +2158,12 @@
     <font>
       <sz val="8"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -3314,7 +3730,7 @@
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="3" x14ac:dyDescent="0.2"/>
@@ -3345,7 +3761,7 @@
         <v>114</v>
       </c>
       <c r="G1" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -3358,7 +3774,7 @@
       </c>
       <c r="G2" s="4">
         <f>TotalCost/BoardQty</f>
-        <v>21.406000000000002</v>
+        <v>21.833999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -3373,11 +3789,11 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(G7:G27)</f>
-        <v>642.18000000000006</v>
+        <v>436.67999999999995</v>
       </c>
       <c r="L3" s="5">
         <f>SUM(L7:L27)</f>
-        <v>642.18000000000006</v>
+        <v>436.67999999999995</v>
       </c>
       <c r="M3" s="6" t="str">
         <f>(COUNTA(L7:L27)&amp;" of "&amp;ROWS(L7:L27)&amp;" parts found")</f>
@@ -3467,7 +3883,7 @@
       </c>
       <c r="E7" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" ref="F7:F27" si="0">IF(MIN(J7)&lt;&gt;0,MIN(J7),"")</f>
@@ -3475,10 +3891,10 @@
       </c>
       <c r="G7" s="10">
         <f t="shared" ref="G7:G27" si="1">IF(AND(ISNUMBER(E7),ISNUMBER(F7)),E7*F7,"")</f>
-        <v>6.72</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H7" s="8">
-        <v>31354</v>
+        <v>31229</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9">
@@ -3490,7 +3906,7 @@
       </c>
       <c r="L7" s="10">
         <f t="shared" ref="L7:L27" si="2">IFERROR(IF(I7="",E7,I7)*J7,"")</f>
-        <v>6.72</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>85</v>
@@ -3511,30 +3927,30 @@
       </c>
       <c r="E8" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>0.19400000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>11.64</v>
+        <v>6.8400000000000007</v>
       </c>
       <c r="H8" s="8">
-        <v>7870</v>
+        <v>7370</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="9">
-        <f>IFERROR(IF(OR(I8&gt;=K8,E8&gt;=K8),LOOKUP(IF(I8="",E8,I8),{0,1,10,100,500,1000,2000,4000,8000},{0,0.282,0.194,0.099,0.068,0.06,0.057,0.051,0.049}),"MOQ="&amp;K8),"")</f>
-        <v>0.19400000000000001</v>
+        <f>IFERROR(IF(OR(I8&gt;=K8,E8&gt;=K8),LOOKUP(IF(I8="",E8,I8),{0,1,10,100,1000,4000,8000,24000,100000},{0,0.254,0.171,0.086,0.053,0.05,0.04,0.039,0.035}),"MOQ="&amp;K8),"")</f>
+        <v>0.17100000000000001</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>11.64</v>
+        <v>6.8400000000000007</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>86</v>
@@ -3555,7 +3971,7 @@
       </c>
       <c r="E9" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
@@ -3563,10 +3979,10 @@
       </c>
       <c r="G9" s="10">
         <f t="shared" si="1"/>
-        <v>6.9</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="H9" s="8">
-        <v>71647</v>
+        <v>66327</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="9">
@@ -3578,7 +3994,7 @@
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>6.9</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>87</v>
@@ -3599,7 +4015,7 @@
       </c>
       <c r="E10" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
@@ -3607,10 +4023,10 @@
       </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>4.53</v>
+        <v>3.02</v>
       </c>
       <c r="H10" s="8">
-        <v>375502</v>
+        <v>363274</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9">
@@ -3622,7 +4038,7 @@
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>4.53</v>
+        <v>3.02</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>88</v>
@@ -3643,7 +4059,7 @@
       </c>
       <c r="E11" s="8">
         <f>CEILING(BoardQty*7,1)</f>
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
@@ -3651,10 +4067,10 @@
       </c>
       <c r="G11" s="10">
         <f t="shared" si="1"/>
-        <v>18.059999999999999</v>
+        <v>12.04</v>
       </c>
       <c r="H11" s="8">
-        <v>80579</v>
+        <v>67499</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="9">
@@ -3666,7 +4082,7 @@
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>18.059999999999999</v>
+        <v>12.04</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>89</v>
@@ -3687,7 +4103,7 @@
       </c>
       <c r="E12" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
@@ -3695,10 +4111,10 @@
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>10.379999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="H12" s="8">
-        <v>157760</v>
+        <v>146524</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="9">
@@ -3710,7 +4126,7 @@
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>10.379999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>90</v>
@@ -3731,7 +4147,7 @@
       </c>
       <c r="E13" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
@@ -3739,10 +4155,10 @@
       </c>
       <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>6.18</v>
+        <v>4.12</v>
       </c>
       <c r="H13" s="8">
-        <v>60400</v>
+        <v>61636</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="9">
@@ -3754,7 +4170,7 @@
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>6.18</v>
+        <v>4.12</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>91</v>
@@ -3775,30 +4191,30 @@
       </c>
       <c r="E14" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>0.99</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>29.7</v>
+        <v>18.3</v>
       </c>
       <c r="H14" s="8">
-        <v>2293</v>
+        <v>2243</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="9">
-        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),LOOKUP(IF(I14="",E14,I14),{0,1,10,1500},{0,1.14,0.99,0.99}),"MOQ="&amp;K14),"")</f>
-        <v>0.99</v>
+        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),LOOKUP(IF(I14="",E14,I14),{0,1,10,100,1500,3000},{0,1.13,0.915,0.84,0.84,0.836}),"MOQ="&amp;K14),"")</f>
+        <v>0.91500000000000004</v>
       </c>
       <c r="K14" s="8">
         <v>1</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="2"/>
-        <v>29.7</v>
+        <v>18.3</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>92</v>
@@ -3819,7 +4235,7 @@
       </c>
       <c r="E15" s="8">
         <f>CEILING(BoardQty*3,1)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
@@ -3827,10 +4243,10 @@
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>39.78</v>
+        <v>26.52</v>
       </c>
       <c r="H15" s="8">
-        <v>14594</v>
+        <v>12242</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9">
@@ -3842,7 +4258,7 @@
       </c>
       <c r="L15" s="10">
         <f t="shared" si="2"/>
-        <v>39.78</v>
+        <v>26.52</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>93</v>
@@ -3863,30 +4279,30 @@
       </c>
       <c r="E16" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="1"/>
-        <v>73.2</v>
+        <v>51.6</v>
       </c>
       <c r="H16" s="8">
-        <v>5523</v>
+        <v>4434</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9">
-        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),LOOKUP(IF(I16="",E16,I16),{0,1,10,25,50,100},{0,1.55,1.45,1.29,1.22,1.19}),"MOQ="&amp;K16),"")</f>
-        <v>1.22</v>
+        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),LOOKUP(IF(I16="",E16,I16),{0,1,10,25,50,100,250,500},{0,1.55,1.45,1.29,1.22,1.16,1.13,1.06}),"MOQ="&amp;K16),"")</f>
+        <v>1.29</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="2"/>
-        <v>73.2</v>
+        <v>51.6</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>94</v>
@@ -3907,30 +4323,30 @@
       </c>
       <c r="E17" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>6.32</v>
+        <v>6.5</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>189.60000000000002</v>
+        <v>130</v>
       </c>
       <c r="H17" s="8">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9">
         <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),LOOKUP(IF(I17="",E17,I17),{0,1,5,10,25,60,120,300,540,1020},{0,6.67,6.59,6.5,6.32,5.94,5.75,5.56,5.49,5.24}),"MOQ="&amp;K17),"")</f>
-        <v>6.32</v>
+        <v>6.5</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="2"/>
-        <v>189.60000000000002</v>
+        <v>130</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>95</v>
@@ -3951,30 +4367,30 @@
       </c>
       <c r="E18" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>0.17499999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="H18" s="8">
-        <v>561</v>
+        <v>80273</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9">
-        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),LOOKUP(IF(I18="",E18,I18),{0,1,10,100,500,1000,3000},{0,0.216,0.175,0.093,0.061,0.042,0.038}),"MOQ="&amp;K18),"")</f>
-        <v>0.17499999999999999</v>
+        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),LOOKUP(IF(I18="",E18,I18),{0,1,10,100,500,1000,3000,6000},{0,0.273,0.224,0.118,0.078,0.054,0.047,0.045}),"MOQ="&amp;K18),"")</f>
+        <v>0.224</v>
       </c>
       <c r="K18" s="8">
         <v>1</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="2"/>
-        <v>10.5</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>96</v>
@@ -3995,7 +4411,7 @@
       </c>
       <c r="E19" s="8">
         <f>CEILING(BoardQty*8,1)</f>
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
@@ -4003,7 +4419,7 @@
       </c>
       <c r="G19" s="10">
         <f t="shared" si="1"/>
-        <v>7.68</v>
+        <v>5.12</v>
       </c>
       <c r="H19" s="8">
         <v>7800</v>
@@ -4018,7 +4434,7 @@
       </c>
       <c r="L19" s="10">
         <f t="shared" si="2"/>
-        <v>7.68</v>
+        <v>5.12</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>97</v>
@@ -4039,7 +4455,7 @@
       </c>
       <c r="E20" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
@@ -4047,7 +4463,7 @@
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>16.290000000000003</v>
+        <v>10.860000000000001</v>
       </c>
       <c r="H20" s="8">
         <v>7700</v>
@@ -4062,7 +4478,7 @@
       </c>
       <c r="L20" s="10">
         <f t="shared" si="2"/>
-        <v>16.290000000000003</v>
+        <v>10.860000000000001</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>98</v>
@@ -4083,7 +4499,7 @@
       </c>
       <c r="E21" s="8">
         <f>CEILING(BoardQty*3,1)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
@@ -4091,10 +4507,10 @@
       </c>
       <c r="G21" s="10">
         <f t="shared" si="1"/>
-        <v>9.5399999999999991</v>
+        <v>6.3599999999999994</v>
       </c>
       <c r="H21" s="8">
-        <v>22055</v>
+        <v>21928</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="9">
@@ -4106,7 +4522,7 @@
       </c>
       <c r="L21" s="10">
         <f t="shared" si="2"/>
-        <v>9.5399999999999991</v>
+        <v>6.3599999999999994</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>99</v>
@@ -4127,7 +4543,7 @@
       </c>
       <c r="E22" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
@@ -4135,10 +4551,10 @@
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
-        <v>8.16</v>
+        <v>5.44</v>
       </c>
       <c r="H22" s="8">
-        <v>8857</v>
+        <v>8407</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="9">
@@ -4150,7 +4566,7 @@
       </c>
       <c r="L22" s="10">
         <f t="shared" si="2"/>
-        <v>8.16</v>
+        <v>5.44</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>100</v>
@@ -4171,7 +4587,7 @@
       </c>
       <c r="E23" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="0"/>
@@ -4179,10 +4595,10 @@
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>32.1</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="H23" s="8">
-        <v>4641</v>
+        <v>3439</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="9">
@@ -4194,7 +4610,7 @@
       </c>
       <c r="L23" s="10">
         <f t="shared" si="2"/>
-        <v>32.1</v>
+        <v>21.400000000000002</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>101</v>
@@ -4215,7 +4631,7 @@
       </c>
       <c r="E24" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
@@ -4223,10 +4639,10 @@
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>84.6</v>
+        <v>56.4</v>
       </c>
       <c r="H24" s="8">
-        <v>40832</v>
+        <v>37679</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="9">
@@ -4238,7 +4654,7 @@
       </c>
       <c r="L24" s="10">
         <f t="shared" si="2"/>
-        <v>84.6</v>
+        <v>56.4</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>102</v>
@@ -4259,15 +4675,15 @@
       </c>
       <c r="E25" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="0"/>
-        <v>0.76800000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="1"/>
-        <v>23.04</v>
+        <v>18.14</v>
       </c>
       <c r="H25" s="8">
         <v>3000</v>
@@ -4275,14 +4691,14 @@
       <c r="I25" s="8"/>
       <c r="J25" s="9">
         <f>IFERROR(IF(OR(I25&gt;=K25,E25&gt;=K25),LOOKUP(IF(I25="",E25,I25),{0,1,10,25,100,4000},{0,0.912,0.907,0.768,0.708,0.708}),"MOQ="&amp;K25),"")</f>
-        <v>0.76800000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="K25" s="8">
         <v>1</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" si="2"/>
-        <v>23.04</v>
+        <v>18.14</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>103</v>
@@ -4303,30 +4719,30 @@
       </c>
       <c r="E26" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" si="0"/>
-        <v>0.65100000000000002</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>39.06</v>
+        <v>25.880000000000003</v>
       </c>
       <c r="H26" s="8">
-        <v>273</v>
+        <v>15584</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="9">
-        <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),LOOKUP(IF(I26="",E26,I26),{0,1,10,100,500,1000,2000,5000,10000,25000},{0,1.03,0.651,0.48,0.458,0.368,0.35,0.342,0.335,0.33}),"MOQ="&amp;K26),"")</f>
-        <v>0.65100000000000002</v>
+        <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),LOOKUP(IF(I26="",E26,I26),{0,1,10,100,500,1000,3000,5000,10000,25000},{0,0.996,0.647,0.425,0.414,0.326,0.32,0.308,0.304,0.29}),"MOQ="&amp;K26),"")</f>
+        <v>0.64700000000000002</v>
       </c>
       <c r="K26" s="8">
         <v>1</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="2"/>
-        <v>39.06</v>
+        <v>25.880000000000003</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>104</v>
@@ -4347,7 +4763,7 @@
       </c>
       <c r="E27" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
@@ -4355,10 +4771,10 @@
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>14.52</v>
+        <v>9.68</v>
       </c>
       <c r="H27" s="8">
-        <v>28268</v>
+        <v>25407</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="9">
@@ -4370,7 +4786,7 @@
       </c>
       <c r="L27" s="10">
         <f t="shared" si="2"/>
-        <v>14.52</v>
+        <v>9.68</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>105</v>

--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippefouquet/Documents/Developpement/Electronique/CaptorBoard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.fouquet\Documents\sources\perso\CaptorBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294FF1EA-B366-184A-8321-C293AB84A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A99FC-E81A-438A-AF62-1B14CB2FF4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="33180" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30315" yWindow="405" windowWidth="24915" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaptorBoard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="BoardQty" localSheetId="0">CaptorBoard!$G$1</definedName>
-    <definedName name="PURCHASE_DESCRIPTION" localSheetId="0">CaptorBoard!$G$30</definedName>
+    <definedName name="PURCHASE_DESCRIPTION" localSheetId="0">CaptorBoard!$G$31</definedName>
     <definedName name="TotalCost" localSheetId="0">CaptorBoard!$G$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -259,7 +259,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>31229 En stock</t>
+          <t>361684 En stock</t>
         </r>
       </text>
     </comment>
@@ -275,13 +275,14 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €0.24      €0.24
-    10   €0.11      €1.12
-   100   €0.07      €6.70
-  1000   €0.06     €59.00
-  4000   €0.06    €224.00
-  8000   €0.06    €440.00
- 24000   €0.05  €1,272.00</t>
+     1   €0.23      €0.23
+    10   €0.15      €1.51
+   100   €0.09      €8.60
+  1000   €0.05     €53.00
+  2000   €0.05    €100.00
+ 10000   €0.04    €410.00
+ 24000   €0.04    €936.00
+ 50000   €0.04  €1,900.00</t>
         </r>
       </text>
     </comment>
@@ -294,7 +295,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Desc: Condensateurs céramique multicouches MLCC - CMS 100V 0.1uF X7R 1210 10% AEC-Q200</t>
+          <t>Desc: Condensateurs céramique multicouches MLCC - CMS 1uF+/-10% 50V X7R 32 1210</t>
         </r>
       </text>
     </comment>
@@ -356,7 +357,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>66327 En stock</t>
+          <t>61525 En stock</t>
         </r>
       </text>
     </comment>
@@ -406,7 +407,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>363274 En stock</t>
+          <t>29976 En stock</t>
         </r>
       </text>
     </comment>
@@ -422,163 +423,63 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €0.23      €0.23
-    10   €0.15      €1.51
+     1   €0.24      €0.24
+    10   €0.17      €1.67
+   100   €0.10      €9.50
+  1000   €0.06     €59.00
+  4000   €0.06    €224.00
+  8000   €0.06    €440.00
+ 24000   €0.05  €1,272.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Condensateurs céramique multicouches MLCC - CMS 100V 0.1uF X7R 1210 10% AEC-Q200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>65374 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.34      €0.34
+    10   €0.18      €1.85
    100   €0.09      €8.60
-  1000   €0.05     €53.00
-  2000   €0.05    €100.00
- 10000   €0.04    €410.00
- 24000   €0.04    €936.00
- 50000   €0.04  €1,900.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Desc: Condensateurs céramique multicouches MLCC - CMS 1uF+/-10% 50V X7R 32 1210</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>67499 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Qty/Price Breaks (EUR):
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">================
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">     1   €0.34      €0.34
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    10   €0.18      €1.85
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   100   €0.09      €8.60
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   500   €0.08     €39.50
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  1000   €0.06     €62.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  1500   €0.06     €90.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  9000   €0.05    €423.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 24000   €0.04    €984.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 49500   €0.04  €1,881.00</t>
+   500   €0.08     €39.50
+  1000   €0.06     €62.00
+  1500   €0.06     €90.00
+  9000   €0.05    €423.00
+ 24000   €0.04    €984.00
+ 49500   €0.04  €1,881.00</t>
         </r>
       </text>
     </comment>
@@ -604,7 +505,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>146524 En stock</t>
+          <t>128290 En stock</t>
         </r>
       </text>
     </comment>
@@ -654,7 +555,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>61636 En stock</t>
+          <t>53536 En stock</t>
         </r>
       </text>
     </comment>
@@ -700,11 +601,11 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2243 En stock</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7916 En stock</t>
         </r>
       </text>
     </comment>
@@ -713,81 +614,22 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Qty/Price Breaks (EUR):
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">================
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">     1   €1.13      €1.13
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    10   €0.92      €9.15
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   100   €0.84     €84.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  1500   €0.84  €1,260.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  3000   €0.84  €2,508.00</t>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.14      €0.14
+    10   €0.13      €1.33
+   100   €0.07      €7.20
+   500   €0.04     €22.50
+  1000   €0.03     €31.00
+  3000   €0.02     €69.00
+  9000   €0.02    €180.00
+ 24000   €0.02    €432.00
+ 45000   €0.02    €720.00</t>
         </r>
       </text>
     </comment>
@@ -800,24 +642,69 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Desc: Diodes Zener 410mW ZENER 3.3V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1892 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €1.21      €1.21
+    10   €0.92      €9.15
+   100   €0.84     €83.60
+  1500   €0.84  €1,254.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Desc: Fusibles pour montage en surface 250VAC 1A .18ohms 443 NANO2</t>
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>12242 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10911 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -841,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -854,123 +741,43 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4434 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Qty/Price Breaks (EUR):
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">================
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">     1   €1.55      €1.55
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    10   €1.45     €14.50
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    25   €1.29     €32.25
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    50   €1.22     €61.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   100   €1.16    €116.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   250   €1.13    €282.50
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   500   €1.06    €530.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4088 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €1.63      €1.63
+    10   €1.52     €15.20
+    25   €1.29     €32.25
+    50   €1.22     €61.00
+   100   €1.09    €109.00
+   500   €1.02    €510.00
+  1000   €0.94    €940.00
+  2500   €0.91  €2,285.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -983,143 +790,44 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>479 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Qty/Price Breaks (EUR):
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">================
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">     1   €6.67      €6.67
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">     5   €6.59     €32.95
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    10   €6.50     €65.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    25   €6.32    €158.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    60   €5.94    €356.40
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   120   €5.75    €690.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   300   €5.56  €1,668.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   540   €5.49  €2,964.60
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  1020   €5.24  €5,344.80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>964 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €6.67      €6.67
+     5   €6.59     €32.95
+    10   €6.50     €65.00
+    25   €6.32    €158.00
+    60   €5.94    €356.40
+   120   €5.75    €690.00
+   300   €5.56  €1,668.00
+   540   €5.49  €2,964.60
+  1020   €5.24  €5,344.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -1132,20 +840,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>80273 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>78924 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -1167,7 +875,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -1180,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -1193,7 +901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1214,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1227,7 +935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1240,90 +948,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Qty/Price Breaks (EUR):
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">================
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">     1   €0.72      €0.72
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    10   €0.54      €5.43
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   100   €0.32     €31.50
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  1000   €0.22    €223.00
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">  4000   €0.22    €892.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+     1   €0.72      €0.72
+    10   €0.54      €5.43
+   100   €0.32     €31.50
+  1000   €0.22    €223.00
+  4000   €0.22    €892.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1336,20 +981,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>21928 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>21308 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1370,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1383,20 +1028,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>8407 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8107 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
       <text>
         <r>
           <rPr>
@@ -1408,17 +1053,17 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €0.16      €0.16
-    10   €0.14      €1.36
-   100   €0.05      €5.30
-   500   €0.04     €22.50
-  1000   €0.02     €23.00
-  2500   €0.02     €52.50
-  5000   €0.02    €100.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+     1   €0.15      €0.15
+    10   €0.13      €1.28
+   100   €0.05      €5.00
+  1000   €0.02     €19.00
+  5000   €0.02     €90.00
+ 10000   €0.02    €170.00
+ 25000   €0.02    €400.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -1431,20 +1076,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3439 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2989 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
       <text>
         <r>
           <rPr>
@@ -1468,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+    <comment ref="M24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
       <text>
         <r>
           <rPr>
@@ -1481,20 +1126,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>37679 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>25845 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
       <text>
         <r>
           <rPr>
@@ -1511,7 +1156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+    <comment ref="M25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
       <text>
         <r>
           <rPr>
@@ -1524,20 +1169,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3000 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1376 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -1549,15 +1194,14 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €0.91      €0.91
-    10   €0.91      €9.07
-    25   €0.77     €19.20
-   100   €0.71     €70.80
-  4000   €0.71  €2,832.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
+     1   €0.85      €0.85
+    25   €0.72     €18.10
+   100   €0.67     €66.70
+  4000   €0.67  €2,668.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -1570,20 +1214,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>15584 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
+    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>13712 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -1607,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
+    <comment ref="M27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
       <text>
         <r>
           <rPr>
@@ -1620,20 +1264,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>25407 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>11471 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
       <text>
         <r>
           <rPr>
@@ -1657,7 +1301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
+    <comment ref="M28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
       <text>
         <r>
           <rPr>
@@ -1670,7 +1314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
+    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
       <text>
         <r>
           <rPr>
@@ -1683,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
       <text>
         <r>
           <rPr>
@@ -1696,7 +1340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
+    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
       <text>
         <r>
           <rPr>
@@ -1714,7 +1358,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -1740,45 +1384,45 @@
     <t>Ext$</t>
   </si>
   <si>
-    <t>C1,C5</t>
+    <t>C1,C6</t>
+  </si>
+  <si>
+    <t>1µ</t>
+  </si>
+  <si>
+    <t>C_1210_3225Metric_Pad1.33x2.70mm_HandSolder</t>
+  </si>
+  <si>
+    <t>CL32B105KBHNNNE</t>
+  </si>
+  <si>
+    <t>C2,C3</t>
+  </si>
+  <si>
+    <t>12p</t>
+  </si>
+  <si>
+    <t>C1210C120J1HACTU</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>22µ</t>
+  </si>
+  <si>
+    <t>CL32A226MOJNNNE</t>
+  </si>
+  <si>
+    <t>C5</t>
   </si>
   <si>
     <t>0.1µ</t>
   </si>
   <si>
-    <t>C_1210_3225Metric_Pad1.33x2.70mm_HandSolder</t>
-  </si>
-  <si>
     <t>12101C104K4T2A</t>
   </si>
   <si>
-    <t>C2,C3</t>
-  </si>
-  <si>
-    <t>12p</t>
-  </si>
-  <si>
-    <t>C1210C120J1HACTU</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>22µ</t>
-  </si>
-  <si>
-    <t>CL32A226MOJNNNE</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>1µ</t>
-  </si>
-  <si>
-    <t>CL32B105KBHNNNE</t>
-  </si>
-  <si>
     <t>D1,D3-D8</t>
   </si>
   <si>
@@ -1812,6 +1456,18 @@
     <t>1N4004T-G</t>
   </si>
   <si>
+    <t>D12-D14</t>
+  </si>
+  <si>
+    <t>BZT52-C3V3</t>
+  </si>
+  <si>
+    <t>D_SOD-123F</t>
+  </si>
+  <si>
+    <t>BZT52-C3V3_R1_00001</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
@@ -1887,7 +1543,7 @@
     <t>CRMA1210AF4M99FKEF</t>
   </si>
   <si>
-    <t>R3,R4,R6</t>
+    <t>R3,R4,R6,R15-R17</t>
   </si>
   <si>
     <t>10k</t>
@@ -1971,18 +1627,18 @@
     <t>Cat#</t>
   </si>
   <si>
+    <t>187-CL32B105KBHNNNE</t>
+  </si>
+  <si>
+    <t>80-C1210C120J1HACTU</t>
+  </si>
+  <si>
+    <t>187-CL32A226MOJNNNE</t>
+  </si>
+  <si>
     <t>581-12101C104K4</t>
   </si>
   <si>
-    <t>80-C1210C120J1HACTU</t>
-  </si>
-  <si>
-    <t>187-CL32A226MOJNNNE</t>
-  </si>
-  <si>
-    <t>187-CL32B105KBHNNNE</t>
-  </si>
-  <si>
     <t>859-LTST-C930KGKT</t>
   </si>
   <si>
@@ -1992,6 +1648,9 @@
     <t>750-1N4004T-G</t>
   </si>
   <si>
+    <t>241-BZT52C3V3R100001</t>
+  </si>
+  <si>
     <t>576-0443001.DR</t>
   </si>
   <si>
@@ -2055,7 +1714,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>2023 May 01, Monday 16:40:26</t>
+    <t>07/06/2023 16:50:52</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -2070,10 +1729,10 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2023-05-01 16:40:50</t>
-  </si>
-  <si>
-    <t>KiCost® v1.1.15</t>
+    <t>2023-06-07 16:54:44</t>
+  </si>
+  <si>
+    <t>KiCost® v1.1.17</t>
   </si>
 </sst>
 </file>
@@ -2084,7 +1743,7 @@
     <numFmt numFmtId="164" formatCode="\€#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\€#,##0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2158,12 +1817,6 @@
     <font>
       <sz val="8"/>
       <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -2255,7 +1908,7 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="132">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -2468,6 +2121,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -2673,6 +2336,50 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3724,91 +3431,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="3" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9.1640625" outlineLevel="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.1640625" outlineLevel="2"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1" outlineLevel="2"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.140625" outlineLevel="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.140625" outlineLevel="2"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1" outlineLevel="2"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1" outlineLevel="3" collapsed="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G2" s="4">
         <f>TotalCost/BoardQty</f>
-        <v>21.833999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>21.742000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G3" s="5">
-        <f>SUM(G7:G27)</f>
-        <v>436.67999999999995</v>
+        <f>SUM(G7:G28)</f>
+        <v>652.2600000000001</v>
       </c>
       <c r="L3" s="5">
-        <f>SUM(L7:L27)</f>
-        <v>436.67999999999995</v>
+        <f>SUM(L7:L28)</f>
+        <v>652.2600000000001</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f>(COUNTA(L7:L27)&amp;" of "&amp;ROWS(L7:L27)&amp;" parts found")</f>
-        <v>21 of 21 parts found</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <f>(COUNTA(L7:L28)&amp;" of "&amp;ROWS(L7:L28)&amp;" parts found")</f>
+        <v>22 of 22 parts found</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -3819,7 +3526,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -3827,7 +3534,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -3850,25 +3557,25 @@
         <v>7</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3883,36 +3590,36 @@
       </c>
       <c r="E7" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" ref="F7:F27" si="0">IF(MIN(J7)&lt;&gt;0,MIN(J7),"")</f>
-        <v>0.112</v>
+        <f t="shared" ref="F7:F28" si="0">IF(MIN(J7)&lt;&gt;0,MIN(J7),"")</f>
+        <v>0.151</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" ref="G7:G27" si="1">IF(AND(ISNUMBER(E7),ISNUMBER(F7)),E7*F7,"")</f>
-        <v>4.4800000000000004</v>
+        <f t="shared" ref="G7:G28" si="1">IF(AND(ISNUMBER(E7),ISNUMBER(F7)),E7*F7,"")</f>
+        <v>9.06</v>
       </c>
       <c r="H7" s="8">
-        <v>31229</v>
+        <v>361684</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9">
-        <f>IFERROR(IF(OR(I7&gt;=K7,E7&gt;=K7),LOOKUP(IF(I7="",E7,I7),{0,1,10,100,1000,4000,8000,24000},{0,0.244,0.112,0.067,0.059,0.056,0.055,0.053}),"MOQ="&amp;K7),"")</f>
-        <v>0.112</v>
+        <f>IFERROR(IF(OR(I7&gt;=K7,E7&gt;=K7),LOOKUP(IF(I7="",E7,I7),{0,1,10,100,1000,2000,10000,24000,50000},{0,0.226,0.151,0.086,0.053,0.05,0.041,0.039,0.038}),"MOQ="&amp;K7),"")</f>
+        <v>0.151</v>
       </c>
       <c r="K7" s="8">
         <v>1</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" ref="L7:L27" si="2">IFERROR(IF(I7="",E7,I7)*J7,"")</f>
-        <v>4.4800000000000004</v>
+        <f t="shared" ref="L7:L28" si="2">IFERROR(IF(I7="",E7,I7)*J7,"")</f>
+        <v>9.06</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -3927,7 +3634,7 @@
       </c>
       <c r="E8" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
@@ -3935,7 +3642,7 @@
       </c>
       <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>6.8400000000000007</v>
+        <v>10.260000000000002</v>
       </c>
       <c r="H8" s="8">
         <v>7370</v>
@@ -3950,13 +3657,13 @@
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>6.8400000000000007</v>
+        <v>10.260000000000002</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -3971,7 +3678,7 @@
       </c>
       <c r="E9" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
@@ -3979,10 +3686,10 @@
       </c>
       <c r="G9" s="10">
         <f t="shared" si="1"/>
-        <v>4.6000000000000005</v>
+        <v>6.9</v>
       </c>
       <c r="H9" s="8">
-        <v>66327</v>
+        <v>61525</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="9">
@@ -3994,13 +3701,13 @@
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>4.6000000000000005</v>
+        <v>6.9</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -4015,36 +3722,36 @@
       </c>
       <c r="E10" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>0.151</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>3.02</v>
+        <v>5.0100000000000007</v>
       </c>
       <c r="H10" s="8">
-        <v>363274</v>
+        <v>29976</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9">
-        <f>IFERROR(IF(OR(I10&gt;=K10,E10&gt;=K10),LOOKUP(IF(I10="",E10,I10),{0,1,10,100,1000,2000,10000,24000,50000},{0,0.226,0.151,0.086,0.053,0.05,0.041,0.039,0.038}),"MOQ="&amp;K10),"")</f>
-        <v>0.151</v>
+        <f>IFERROR(IF(OR(I10&gt;=K10,E10&gt;=K10),LOOKUP(IF(I10="",E10,I10),{0,1,10,100,1000,4000,8000,24000},{0,0.244,0.167,0.095,0.059,0.056,0.055,0.053}),"MOQ="&amp;K10),"")</f>
+        <v>0.16700000000000001</v>
       </c>
       <c r="K10" s="8">
         <v>1</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>3.02</v>
+        <v>5.0100000000000007</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -4059,7 +3766,7 @@
       </c>
       <c r="E11" s="8">
         <f>CEILING(BoardQty*7,1)</f>
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
@@ -4067,10 +3774,10 @@
       </c>
       <c r="G11" s="10">
         <f t="shared" si="1"/>
-        <v>12.04</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="H11" s="8">
-        <v>67499</v>
+        <v>65374</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="9">
@@ -4082,13 +3789,13 @@
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>12.04</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -4103,7 +3810,7 @@
       </c>
       <c r="E12" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
@@ -4111,10 +3818,10 @@
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>6.92</v>
+        <v>10.379999999999999</v>
       </c>
       <c r="H12" s="8">
-        <v>146524</v>
+        <v>128290</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="9">
@@ -4126,13 +3833,13 @@
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>6.92</v>
+        <v>10.379999999999999</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -4147,7 +3854,7 @@
       </c>
       <c r="E13" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
@@ -4155,10 +3862,10 @@
       </c>
       <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>4.12</v>
+        <v>6.18</v>
       </c>
       <c r="H13" s="8">
-        <v>61636</v>
+        <v>53536</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="9">
@@ -4170,13 +3877,13 @@
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>4.12</v>
+        <v>6.18</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
@@ -4190,37 +3897,37 @@
         <v>35</v>
       </c>
       <c r="E14" s="8">
-        <f>CEILING(BoardQty*1,1)</f>
-        <v>20</v>
+        <f>CEILING(BoardQty*3,1)</f>
+        <v>90</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>18.3</v>
+        <v>11.97</v>
       </c>
       <c r="H14" s="8">
-        <v>2243</v>
+        <v>7916</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="9">
-        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),LOOKUP(IF(I14="",E14,I14),{0,1,10,100,1500,3000},{0,1.13,0.915,0.84,0.84,0.836}),"MOQ="&amp;K14),"")</f>
-        <v>0.91500000000000004</v>
+        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),LOOKUP(IF(I14="",E14,I14),{0,1,10,100,500,1000,3000,9000,24000,45000},{0,0.141,0.133,0.072,0.045,0.031,0.023,0.02,0.018,0.016}),"MOQ="&amp;K14),"")</f>
+        <v>0.13300000000000001</v>
       </c>
       <c r="K14" s="8">
         <v>1</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="2"/>
-        <v>18.3</v>
+        <v>11.97</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
@@ -4234,37 +3941,37 @@
         <v>39</v>
       </c>
       <c r="E15" s="8">
-        <f>CEILING(BoardQty*3,1)</f>
-        <v>60</v>
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>30</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>0.442</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>26.52</v>
+        <v>27.450000000000003</v>
       </c>
       <c r="H15" s="8">
-        <v>12242</v>
+        <v>1892</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9">
-        <f>IFERROR(IF(OR(I15&gt;=K15,E15&gt;=K15),LOOKUP(IF(I15="",E15,I15),{0,1,10,100,250,500,1200,2400,4800,9600},{0,0.771,0.442,0.382,0.329,0.317,0.3,0.29,0.234,0.233}),"MOQ="&amp;K15),"")</f>
-        <v>0.442</v>
+        <f>IFERROR(IF(OR(I15&gt;=K15,E15&gt;=K15),LOOKUP(IF(I15="",E15,I15),{0,1,10,100,1500},{0,1.21,0.915,0.836,0.836}),"MOQ="&amp;K15),"")</f>
+        <v>0.91500000000000004</v>
       </c>
       <c r="K15" s="8">
         <v>1</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="2"/>
-        <v>26.52</v>
+        <v>27.450000000000003</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
@@ -4275,128 +3982,128 @@
         <v>42</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="8">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>40</v>
+        <f>CEILING(BoardQty*3,1)</f>
+        <v>90</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>1.29</v>
+        <v>0.442</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="1"/>
-        <v>51.6</v>
+        <v>39.78</v>
       </c>
       <c r="H16" s="8">
-        <v>4434</v>
+        <v>10911</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9">
-        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),LOOKUP(IF(I16="",E16,I16),{0,1,10,25,50,100,250,500},{0,1.55,1.45,1.29,1.22,1.16,1.13,1.06}),"MOQ="&amp;K16),"")</f>
-        <v>1.29</v>
+        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),LOOKUP(IF(I16="",E16,I16),{0,1,10,100,250,500,1200,2400,4800,9600},{0,0.771,0.442,0.382,0.329,0.317,0.3,0.29,0.234,0.233}),"MOQ="&amp;K16),"")</f>
+        <v>0.442</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="2"/>
-        <v>51.6</v>
+        <v>39.78</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E17" s="8">
-        <f>CEILING(BoardQty*1,1)</f>
-        <v>20</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>60</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>1.22</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>73.2</v>
       </c>
       <c r="H17" s="8">
-        <v>479</v>
+        <v>4088</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9">
-        <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),LOOKUP(IF(I17="",E17,I17),{0,1,5,10,25,60,120,300,540,1020},{0,6.67,6.59,6.5,6.32,5.94,5.75,5.56,5.49,5.24}),"MOQ="&amp;K17),"")</f>
-        <v>6.5</v>
+        <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),LOOKUP(IF(I17="",E17,I17),{0,1,10,25,50,100,500,1000,2500},{0,1.63,1.52,1.29,1.22,1.09,1.02,0.94,0.914}),"MOQ="&amp;K17),"")</f>
+        <v>1.22</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>73.2</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" s="8">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>40</v>
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>30</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>0.224</v>
+        <v>6.32</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>8.9600000000000009</v>
+        <v>189.60000000000002</v>
       </c>
       <c r="H18" s="8">
-        <v>80273</v>
+        <v>964</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9">
-        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),LOOKUP(IF(I18="",E18,I18),{0,1,10,100,500,1000,3000,6000},{0,0.273,0.224,0.118,0.078,0.054,0.047,0.045}),"MOQ="&amp;K18),"")</f>
-        <v>0.224</v>
+        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),LOOKUP(IF(I18="",E18,I18),{0,1,5,10,25,60,120,300,540,1020},{0,6.67,6.59,6.5,6.32,5.94,5.75,5.56,5.49,5.24}),"MOQ="&amp;K18),"")</f>
+        <v>6.32</v>
       </c>
       <c r="K18" s="8">
         <v>1</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="2"/>
-        <v>8.9600000000000009</v>
+        <v>189.60000000000002</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -4410,37 +4117,37 @@
         <v>53</v>
       </c>
       <c r="E19" s="8">
-        <f>CEILING(BoardQty*8,1)</f>
-        <v>160</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>60</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.224</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="1"/>
-        <v>5.12</v>
+        <v>13.44</v>
       </c>
       <c r="H19" s="8">
-        <v>7800</v>
+        <v>78924</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="9">
-        <f>IFERROR(IF(OR(I19&gt;=K19,E19&gt;=K19),LOOKUP(IF(I19="",E19,I19),{0,1,10,100,1000,2500,4000},{0,0.14,0.078,0.032,0.015,0.013,0.01}),"MOQ="&amp;K19),"")</f>
-        <v>3.2000000000000001E-2</v>
+        <f>IFERROR(IF(OR(I19&gt;=K19,E19&gt;=K19),LOOKUP(IF(I19="",E19,I19),{0,1,10,100,500,1000,3000,6000},{0,0.273,0.224,0.118,0.078,0.054,0.047,0.045}),"MOQ="&amp;K19),"")</f>
+        <v>0.224</v>
       </c>
       <c r="K19" s="8">
         <v>1</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="2"/>
-        <v>5.12</v>
+        <v>13.44</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
@@ -4448,175 +4155,175 @@
         <v>55</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="8">
-        <f>CEILING(BoardQty*1,1)</f>
-        <v>20</v>
+        <f>CEILING(BoardQty*8,1)</f>
+        <v>240</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>0.54300000000000004</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>10.860000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="H20" s="8">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="9">
-        <f>IFERROR(IF(OR(I20&gt;=K20,E20&gt;=K20),LOOKUP(IF(I20="",E20,I20),{0,1,10,100,1000,4000},{0,0.724,0.543,0.315,0.223,0.223}),"MOQ="&amp;K20),"")</f>
-        <v>0.54300000000000004</v>
+        <f>IFERROR(IF(OR(I20&gt;=K20,E20&gt;=K20),LOOKUP(IF(I20="",E20,I20),{0,1,10,100,1000,2500,4000},{0,0.14,0.078,0.032,0.015,0.013,0.01}),"MOQ="&amp;K20),"")</f>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="K20" s="8">
         <v>1</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="2"/>
-        <v>10.860000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="8">
-        <f>CEILING(BoardQty*3,1)</f>
-        <v>60</v>
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>30</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
-        <v>0.106</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="1"/>
-        <v>6.3599999999999994</v>
+        <v>16.290000000000003</v>
       </c>
       <c r="H21" s="8">
-        <v>21928</v>
+        <v>7700</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="9">
-        <f>IFERROR(IF(OR(I21&gt;=K21,E21&gt;=K21),LOOKUP(IF(I21="",E21,I21),{0,1,10,100,500,1000,4000},{0,0.132,0.106,0.042,0.035,0.018,0.016}),"MOQ="&amp;K21),"")</f>
-        <v>0.106</v>
+        <f>IFERROR(IF(OR(I21&gt;=K21,E21&gt;=K21),LOOKUP(IF(I21="",E21,I21),{0,1,10,100,1000,4000},{0,0.724,0.543,0.315,0.223,0.223}),"MOQ="&amp;K21),"")</f>
+        <v>0.54300000000000004</v>
       </c>
       <c r="K21" s="8">
         <v>1</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="2"/>
-        <v>6.3599999999999994</v>
+        <v>16.290000000000003</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="8">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>40</v>
+        <f>CEILING(BoardQty*6,1)</f>
+        <v>180</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
-        <v>0.13600000000000001</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
-        <v>5.44</v>
+        <v>7.5600000000000005</v>
       </c>
       <c r="H22" s="8">
-        <v>8407</v>
+        <v>21308</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="9">
-        <f>IFERROR(IF(OR(I22&gt;=K22,E22&gt;=K22),LOOKUP(IF(I22="",E22,I22),{0,1,10,100,500,1000,2500,5000},{0,0.161,0.136,0.053,0.045,0.023,0.021,0.02}),"MOQ="&amp;K22),"")</f>
-        <v>0.13600000000000001</v>
+        <f>IFERROR(IF(OR(I22&gt;=K22,E22&gt;=K22),LOOKUP(IF(I22="",E22,I22),{0,1,10,100,500,1000,4000},{0,0.132,0.106,0.042,0.035,0.018,0.016}),"MOQ="&amp;K22),"")</f>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="K22" s="8">
         <v>1</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="2"/>
-        <v>5.44</v>
+        <v>7.5600000000000005</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="0"/>
-        <v>0.53500000000000003</v>
+        <v>0.128</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>21.400000000000002</v>
+        <v>7.68</v>
       </c>
       <c r="H23" s="8">
-        <v>3439</v>
+        <v>8107</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="9">
-        <f>IFERROR(IF(OR(I23&gt;=K23,E23&gt;=K23),LOOKUP(IF(I23="",E23,I23),{0,1,10,25,100,250,500,1000,2000,5000},{0,0.594,0.563,0.535,0.486,0.457,0.418,0.349,0.339,0.316}),"MOQ="&amp;K23),"")</f>
-        <v>0.53500000000000003</v>
+        <f>IFERROR(IF(OR(I23&gt;=K23,E23&gt;=K23),LOOKUP(IF(I23="",E23,I23),{0,1,10,100,1000,5000,10000,25000},{0,0.151,0.128,0.05,0.019,0.018,0.017,0.016}),"MOQ="&amp;K23),"")</f>
+        <v>0.128</v>
       </c>
       <c r="K23" s="8">
         <v>1</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="2"/>
-        <v>21.400000000000002</v>
+        <v>7.68</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>67</v>
       </c>
@@ -4627,128 +4334,128 @@
         <v>69</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8">
-        <f>CEILING(BoardQty*1,1)</f>
-        <v>20</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>60</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>2.82</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>56.4</v>
+        <v>32.1</v>
       </c>
       <c r="H24" s="8">
-        <v>37679</v>
+        <v>2989</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="9">
-        <f>IFERROR(IF(OR(I24&gt;=K24,E24&gt;=K24),LOOKUP(IF(I24="",E24,I24),{0,1,650},{0,2.82,2.82}),"MOQ="&amp;K24),"")</f>
-        <v>2.82</v>
+        <f>IFERROR(IF(OR(I24&gt;=K24,E24&gt;=K24),LOOKUP(IF(I24="",E24,I24),{0,1,10,25,100,250,500,1000,2000,5000},{0,0.594,0.563,0.535,0.486,0.457,0.418,0.349,0.339,0.316}),"MOQ="&amp;K24),"")</f>
+        <v>0.53500000000000003</v>
       </c>
       <c r="K24" s="8">
         <v>1</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="2"/>
-        <v>56.4</v>
+        <v>32.1</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="E25" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="0"/>
-        <v>0.90700000000000003</v>
+        <v>2.82</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="1"/>
-        <v>18.14</v>
+        <v>84.6</v>
       </c>
       <c r="H25" s="8">
-        <v>3000</v>
+        <v>25845</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="9">
-        <f>IFERROR(IF(OR(I25&gt;=K25,E25&gt;=K25),LOOKUP(IF(I25="",E25,I25),{0,1,10,25,100,4000},{0,0.912,0.907,0.768,0.708,0.708}),"MOQ="&amp;K25),"")</f>
-        <v>0.90700000000000003</v>
+        <f>IFERROR(IF(OR(I25&gt;=K25,E25&gt;=K25),LOOKUP(IF(I25="",E25,I25),{0,1,650},{0,2.82,2.82}),"MOQ="&amp;K25),"")</f>
+        <v>2.82</v>
       </c>
       <c r="K25" s="8">
         <v>1</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" si="2"/>
-        <v>18.14</v>
+        <v>84.6</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E26" s="8">
-        <f>CEILING(BoardQty*2,1)</f>
-        <v>40</v>
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>30</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" si="0"/>
-        <v>0.64700000000000002</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>25.880000000000003</v>
+        <v>21.72</v>
       </c>
       <c r="H26" s="8">
-        <v>15584</v>
+        <v>1376</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="9">
-        <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),LOOKUP(IF(I26="",E26,I26),{0,1,10,100,500,1000,3000,5000,10000,25000},{0,0.996,0.647,0.425,0.414,0.326,0.32,0.308,0.304,0.29}),"MOQ="&amp;K26),"")</f>
-        <v>0.64700000000000002</v>
+        <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),LOOKUP(IF(I26="",E26,I26),{0,1,25,100,4000},{0,0.855,0.724,0.667,0.667}),"MOQ="&amp;K26),"")</f>
+        <v>0.72399999999999998</v>
       </c>
       <c r="K26" s="8">
         <v>1</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="2"/>
-        <v>25.880000000000003</v>
+        <v>21.72</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>77</v>
       </c>
@@ -4759,304 +4466,359 @@
         <v>79</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" s="8">
-        <f>CEILING(BoardQty*1,1)</f>
-        <v>20</v>
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>60</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>0.48399999999999999</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>9.68</v>
+        <v>38.82</v>
       </c>
       <c r="H27" s="8">
-        <v>25407</v>
+        <v>13712</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="9">
-        <f>IFERROR(IF(OR(I27&gt;=K27,E27&gt;=K27),LOOKUP(IF(I27="",E27,I27),{0,1,10,100,500,1000,2000,5000,10000,25000},{0,0.583,0.484,0.387,0.368,0.309,0.289,0.28,0.27,0.26}),"MOQ="&amp;K27),"")</f>
-        <v>0.48399999999999999</v>
+        <f>IFERROR(IF(OR(I27&gt;=K27,E27&gt;=K27),LOOKUP(IF(I27="",E27,I27),{0,1,10,100,500,1000,3000,5000,10000,25000},{0,0.996,0.647,0.425,0.414,0.326,0.32,0.308,0.304,0.29}),"MOQ="&amp;K27),"")</f>
+        <v>0.64700000000000002</v>
       </c>
       <c r="K27" s="8">
         <v>1</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="2"/>
-        <v>9.68</v>
+        <v>38.82</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="F29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="5">
-        <f>SUM(L29)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>30</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="1"/>
+        <v>14.52</v>
+      </c>
+      <c r="H28" s="8">
+        <v>11471</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9">
+        <f>IFERROR(IF(OR(I28&gt;=K28,E28&gt;=K28),LOOKUP(IF(I28="",E28,I28),{0,1,10,100,500,1000,2000,5000,10000,25000},{0,0.583,0.484,0.387,0.368,0.309,0.289,0.28,0.27,0.26}),"MOQ="&amp;K28),"")</f>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="2"/>
+        <v>14.52</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="5">
+        <f>SUM(L30)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="6" t="str">
-        <f>IFERROR(IF(COUNTIF(I7:I27,"&gt;0")&gt;0,COUNTIF(I7:I27,"&gt;0")&amp;" of "&amp;(ROWS(K7:K27)-COUNTBLANK(K7:K27))&amp;" parts purchased",""),"")</f>
+      <c r="H30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="6" t="str">
+        <f>IFERROR(IF(COUNTIF(I7:I28,"&gt;0")&gt;0,COUNTIF(I7:I28,"&gt;0")&amp;" of "&amp;(ROWS(K7:K28)-COUNTBLANK(K7:K28))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="L29" s="5">
-        <f>SUMIF(I7:I27,"&gt;0",L7:L27)</f>
+      <c r="L30" s="5">
+        <f>SUMIF(I7:I28,"&gt;0",L7:L28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="15" t="str">
-        <f>CONCATENATE(I52,I53,I54,I55,I56,I57,I58,I59,I60,I61,I62,I63,I64,I65,I66,I67,I68,I69,I70,I71,I72)</f>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" s="15" t="str">
+        <f>CONCATENATE(I54,I55,I56,I57,I58,I59,I60,I61,I62,I63,I64,I65,I66,I67,I68,I69,I70,I71,I72,I73,I74,I75)</f>
         <v/>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
     </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
     </row>
-    <row r="40" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
     </row>
-    <row r="41" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
     </row>
-    <row r="42" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
     </row>
-    <row r="43" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
     </row>
-    <row r="44" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
     </row>
-    <row r="45" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
     </row>
-    <row r="46" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
     </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
     </row>
-    <row r="48" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
     </row>
-    <row r="52" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I52" t="str">
-        <f t="array" ref="I52:I72">IF(ISNUMBER(I7:I27)*(I7:I27&gt;=K7:K27)*(M7:M27&lt;&gt;""),M7:M27&amp;"|"&amp;TEXT(ROUNDUP(I7:I27/IF(ISNUMBER(K7:K27),K7:K27,1),0)*K7:K27,"##0")&amp;"|"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A27,"|",";")," ","_"),"
+    <row r="52" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+    </row>
+    <row r="53" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+    </row>
+    <row r="54" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" t="str">
+        <f t="array" ref="I54:I75">IF(ISNUMBER(I7:I28)*(I7:I28&gt;=K7:K28)*(M7:M28&lt;&gt;""),M7:M28&amp;"|"&amp;TEXT(ROUNDUP(I7:I28/IF(ISNUMBER(K7:K28),K7:K28,1),0)*K7:K28,"##0")&amp;"|"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A28,"|",";")," ","_"),"
 ","_")&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I53" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I54" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I55" t="str">
         <v/>
       </c>
     </row>
-    <row r="56" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I56" t="str">
         <v/>
       </c>
     </row>
-    <row r="57" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I57" t="str">
         <v/>
       </c>
     </row>
-    <row r="58" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I58" t="str">
         <v/>
       </c>
     </row>
-    <row r="59" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I59" t="str">
         <v/>
       </c>
     </row>
-    <row r="60" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I60" t="str">
         <v/>
       </c>
     </row>
-    <row r="61" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I61" t="str">
         <v/>
       </c>
     </row>
-    <row r="62" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I62" t="str">
         <v/>
       </c>
     </row>
-    <row r="63" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I63" t="str">
         <v/>
       </c>
     </row>
-    <row r="64" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I64" t="str">
         <v/>
       </c>
     </row>
-    <row r="65" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I65" t="str">
         <v/>
       </c>
     </row>
-    <row r="66" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I66" t="str">
         <v/>
       </c>
     </row>
-    <row r="67" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I67" t="str">
         <v/>
       </c>
     </row>
-    <row r="68" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I68" t="str">
         <v/>
       </c>
     </row>
-    <row r="69" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I69" t="str">
         <v/>
       </c>
     </row>
-    <row r="70" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I70" t="str">
         <v/>
       </c>
     </row>
-    <row r="71" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I71" t="str">
         <v/>
       </c>
     </row>
-    <row r="72" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" t="str">
         <v/>
       </c>
     </row>
@@ -5064,495 +4826,519 @@
   <mergeCells count="3">
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:M5"/>
-    <mergeCell ref="I30:L51"/>
+    <mergeCell ref="I31:L53"/>
   </mergeCells>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="125" priority="55">
+    <cfRule type="expression" dxfId="131" priority="57">
       <formula>AND(ISBLANK(D10),ISBLANK(L10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="56">
+    <cfRule type="expression" dxfId="130" priority="58">
       <formula>IF(SUM(H10)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="59" operator="greaterThan">
       <formula>SUM(H10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="60" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J10),I10,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="121" priority="59">
+    <cfRule type="expression" dxfId="127" priority="61">
       <formula>AND(ISBLANK(D11),ISBLANK(L11))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="60">
+    <cfRule type="expression" dxfId="126" priority="62">
       <formula>IF(SUM(H11)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="63" operator="greaterThan">
       <formula>SUM(H11)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="64" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J11),I11,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="117" priority="63">
+    <cfRule type="expression" dxfId="123" priority="65">
       <formula>AND(ISBLANK(D12),ISBLANK(L12))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="64">
+    <cfRule type="expression" dxfId="122" priority="66">
       <formula>IF(SUM(H12)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="67" operator="greaterThan">
       <formula>SUM(H12)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="68" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J12),I12,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="113" priority="67">
+    <cfRule type="expression" dxfId="119" priority="69">
       <formula>AND(ISBLANK(D13),ISBLANK(L13))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="68">
+    <cfRule type="expression" dxfId="118" priority="70">
       <formula>IF(SUM(H13)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="71" operator="greaterThan">
       <formula>SUM(H13)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="72" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J13),I13,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="109" priority="71">
+    <cfRule type="expression" dxfId="115" priority="73">
       <formula>AND(ISBLANK(D14),ISBLANK(L14))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="72">
+    <cfRule type="expression" dxfId="114" priority="74">
       <formula>IF(SUM(H14)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="75" operator="greaterThan">
       <formula>SUM(H14)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="76" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J14),I14,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="105" priority="75">
+    <cfRule type="expression" dxfId="111" priority="77">
       <formula>AND(ISBLANK(D15),ISBLANK(L15))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="76">
+    <cfRule type="expression" dxfId="110" priority="78">
       <formula>IF(SUM(H15)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="79" operator="greaterThan">
       <formula>SUM(H15)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="80" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J15),I15,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="101" priority="79">
+    <cfRule type="expression" dxfId="107" priority="81">
       <formula>AND(ISBLANK(D16),ISBLANK(L16))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="80">
+    <cfRule type="expression" dxfId="106" priority="82">
       <formula>IF(SUM(H16)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="83" operator="greaterThan">
       <formula>SUM(H16)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="84" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J16),I16,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="97" priority="83">
+    <cfRule type="expression" dxfId="103" priority="85">
       <formula>AND(ISBLANK(D17),ISBLANK(L17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="84">
+    <cfRule type="expression" dxfId="102" priority="86">
       <formula>IF(SUM(H17)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="87" operator="greaterThan">
       <formula>SUM(H17)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="86" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="88" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J17),I17,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="93" priority="87">
+    <cfRule type="expression" dxfId="99" priority="89">
       <formula>AND(ISBLANK(D18),ISBLANK(L18))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="88">
+    <cfRule type="expression" dxfId="98" priority="90">
       <formula>IF(SUM(H18)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="91" operator="greaterThan">
       <formula>SUM(H18)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="92" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J18),I18,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="89" priority="91">
+    <cfRule type="expression" dxfId="95" priority="93">
       <formula>AND(ISBLANK(D19),ISBLANK(L19))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="92">
+    <cfRule type="expression" dxfId="94" priority="94">
       <formula>IF(SUM(H19)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="greaterThan">
       <formula>SUM(H19)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="96" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J19),I19,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="85" priority="95">
+    <cfRule type="expression" dxfId="91" priority="97">
       <formula>AND(ISBLANK(D20),ISBLANK(L20))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="96">
+    <cfRule type="expression" dxfId="90" priority="98">
       <formula>IF(SUM(H20)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="97" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="99" operator="greaterThan">
       <formula>SUM(H20)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="98" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="100" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J20),I20,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="81" priority="99">
+    <cfRule type="expression" dxfId="87" priority="101">
       <formula>AND(ISBLANK(D21),ISBLANK(L21))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="100">
+    <cfRule type="expression" dxfId="86" priority="102">
       <formula>IF(SUM(H21)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="101" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="103" operator="greaterThan">
       <formula>SUM(H21)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="102" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="104" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J21),I21,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="77" priority="103">
+    <cfRule type="expression" dxfId="83" priority="105">
       <formula>AND(ISBLANK(D22),ISBLANK(L22))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="104">
+    <cfRule type="expression" dxfId="82" priority="106">
       <formula>IF(SUM(H22)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="107" operator="greaterThan">
       <formula>SUM(H22)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="108" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J22),I22,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="73" priority="107">
+    <cfRule type="expression" dxfId="79" priority="109">
       <formula>AND(ISBLANK(D23),ISBLANK(L23))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="108">
+    <cfRule type="expression" dxfId="78" priority="110">
       <formula>IF(SUM(H23)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="111" operator="greaterThan">
       <formula>SUM(H23)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="112" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J23),I23,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="69" priority="111">
+    <cfRule type="expression" dxfId="75" priority="113">
       <formula>AND(ISBLANK(D24),ISBLANK(L24))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="112">
+    <cfRule type="expression" dxfId="74" priority="114">
       <formula>IF(SUM(H24)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="113" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="115" operator="greaterThan">
       <formula>SUM(H24)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="114" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="116" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J24),I24,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="65" priority="115">
+    <cfRule type="expression" dxfId="71" priority="117">
       <formula>AND(ISBLANK(D25),ISBLANK(L25))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="116">
+    <cfRule type="expression" dxfId="70" priority="118">
       <formula>IF(SUM(H25)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="117" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="119" operator="greaterThan">
       <formula>SUM(H25)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="120" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J25),I25,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="61" priority="119">
+    <cfRule type="expression" dxfId="67" priority="121">
       <formula>AND(ISBLANK(D26),ISBLANK(L26))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="120">
+    <cfRule type="expression" dxfId="66" priority="122">
       <formula>IF(SUM(H26)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="121" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="123" operator="greaterThan">
       <formula>SUM(H26)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="122" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="124" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J26),I26,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="57" priority="123">
+    <cfRule type="expression" dxfId="63" priority="125">
       <formula>AND(ISBLANK(D27),ISBLANK(L27))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="124">
+    <cfRule type="expression" dxfId="62" priority="126">
       <formula>IF(SUM(H27)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="125" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="127" operator="greaterThan">
       <formula>SUM(H27)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="128" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J27),I27,0))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="59" priority="129">
+      <formula>AND(ISBLANK(D28),ISBLANK(L28))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="130">
+      <formula>IF(SUM(H28)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="131" operator="greaterThan">
+      <formula>SUM(H28)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="132" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J28),I28,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="53" priority="43">
+    <cfRule type="expression" dxfId="55" priority="45">
       <formula>AND(ISBLANK(D7),ISBLANK(L7))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="54" priority="46">
       <formula>IF(SUM(H7)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="greaterThan">
       <formula>SUM(H7)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J7),I7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>AND(ISBLANK(D8),ISBLANK(L8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>IF(SUM(H8)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="greaterThan">
       <formula>SUM(H8)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J8),I8,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="45" priority="51">
+    <cfRule type="expression" dxfId="47" priority="53">
       <formula>AND(ISBLANK(D9),ISBLANK(L9))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="52">
+    <cfRule type="expression" dxfId="46" priority="54">
       <formula>IF(SUM(H9)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="55" operator="greaterThan">
       <formula>SUM(H9)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="56" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J9),I9,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="lessThan">
       <formula>E10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="lessThan">
       <formula>E11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="lessThan">
       <formula>E12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="lessThan">
       <formula>E13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="lessThan">
       <formula>E14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="36" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="17" operator="lessThan">
       <formula>E15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="35" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="lessThan">
       <formula>E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="34" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="lessThan">
       <formula>E17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="23" operator="lessThan">
       <formula>E18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="lessThan">
       <formula>E19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="31" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="lessThan">
       <formula>E20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="lessThan">
       <formula>E21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThan">
       <formula>E22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
       <formula>E23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="lessThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="26" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="lessThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="39" operator="lessThan">
       <formula>E26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="24" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="lessThan">
       <formula>E27</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
       <formula>E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
       <formula>E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
       <formula>E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="21" priority="8">
       <formula>AND(NOT(ISBLANK(I10)),OR(H10="NonStk",I10&gt;H10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>AND(NOT(ISBLANK(I11)),OR(H11="NonStk",I11&gt;H11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>AND(NOT(ISBLANK(I12)),OR(H12="NonStk",I12&gt;H12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>AND(NOT(ISBLANK(I13)),OR(H13="NonStk",I13&gt;H13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>AND(NOT(ISBLANK(I14)),OR(H14="NonStk",I14&gt;H14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>AND(NOT(ISBLANK(I15)),OR(H15="NonStk",I15&gt;H15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>AND(NOT(ISBLANK(I16)),OR(H16="NonStk",I16&gt;H16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>AND(NOT(ISBLANK(I17)),OR(H17="NonStk",I17&gt;H17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="12" priority="24">
+    <cfRule type="expression" dxfId="13" priority="24">
       <formula>AND(NOT(ISBLANK(I18)),OR(H18="NonStk",I18&gt;H18))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="11" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>AND(NOT(ISBLANK(I19)),OR(H19="NonStk",I19&gt;H19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="10" priority="28">
+    <cfRule type="expression" dxfId="11" priority="28">
       <formula>AND(NOT(ISBLANK(I20)),OR(H20="NonStk",I20&gt;H20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="9" priority="30">
+    <cfRule type="expression" dxfId="10" priority="30">
       <formula>AND(NOT(ISBLANK(I21)),OR(H21="NonStk",I21&gt;H21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="8" priority="32">
+    <cfRule type="expression" dxfId="9" priority="32">
       <formula>AND(NOT(ISBLANK(I22)),OR(H22="NonStk",I22&gt;H22))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="7" priority="34">
+    <cfRule type="expression" dxfId="8" priority="34">
       <formula>AND(NOT(ISBLANK(I23)),OR(H23="NonStk",I23&gt;H23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="7" priority="36">
       <formula>AND(NOT(ISBLANK(I24)),OR(H24="NonStk",I24&gt;H24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="5" priority="38">
+    <cfRule type="expression" dxfId="6" priority="38">
       <formula>AND(NOT(ISBLANK(I25)),OR(H25="NonStk",I25&gt;H25))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="4" priority="40">
+    <cfRule type="expression" dxfId="5" priority="40">
       <formula>AND(NOT(ISBLANK(I26)),OR(H26="NonStk",I26&gt;H26))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="4" priority="42">
       <formula>AND(NOT(ISBLANK(I27)),OR(H27="NonStk",I27&gt;H27))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="3" priority="44">
+      <formula>AND(NOT(ISBLANK(I28)),OR(H28="NonStk",I28&gt;H28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
@@ -5613,9 +5399,11 @@
     <hyperlink ref="M26" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="D27" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="M27" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H29" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D28" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M28" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H30" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId44"/>
+  <legacyDrawing r:id="rId46"/>
 </worksheet>
 </file>
--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.fouquet\Documents\sources\perso\CaptorBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A99FC-E81A-438A-AF62-1B14CB2FF4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68101616-52AD-4601-9E10-87C12E0D9F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="405" windowWidth="24915" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34620" yWindow="435" windowWidth="21600" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaptorBoard" sheetId="1" r:id="rId1"/>
@@ -3437,7 +3437,7 @@
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="3" x14ac:dyDescent="0.25"/>
@@ -3468,7 +3468,7 @@
         <v>119</v>
       </c>
       <c r="G1" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="G2" s="4">
         <f>TotalCost/BoardQty</f>
-        <v>21.742000000000004</v>
+        <v>29.393000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
@@ -3496,11 +3496,11 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(G7:G28)</f>
-        <v>652.2600000000001</v>
+        <v>29.393000000000001</v>
       </c>
       <c r="L3" s="5">
         <f>SUM(L7:L28)</f>
-        <v>652.2600000000001</v>
+        <v>29.393000000000001</v>
       </c>
       <c r="M3" s="6" t="str">
         <f>(COUNTA(L7:L28)&amp;" of "&amp;ROWS(L7:L28)&amp;" parts found")</f>
@@ -3590,15 +3590,15 @@
       </c>
       <c r="E7" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" ref="F7:F28" si="0">IF(MIN(J7)&lt;&gt;0,MIN(J7),"")</f>
-        <v>0.151</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" ref="G7:G28" si="1">IF(AND(ISNUMBER(E7),ISNUMBER(F7)),E7*F7,"")</f>
-        <v>9.06</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="H7" s="8">
         <v>361684</v>
@@ -3606,14 +3606,14 @@
       <c r="I7" s="8"/>
       <c r="J7" s="9">
         <f>IFERROR(IF(OR(I7&gt;=K7,E7&gt;=K7),LOOKUP(IF(I7="",E7,I7),{0,1,10,100,1000,2000,10000,24000,50000},{0,0.226,0.151,0.086,0.053,0.05,0.041,0.039,0.038}),"MOQ="&amp;K7),"")</f>
-        <v>0.151</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="K7" s="8">
         <v>1</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" ref="L7:L28" si="2">IFERROR(IF(I7="",E7,I7)*J7,"")</f>
-        <v>9.06</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>89</v>
@@ -3634,15 +3634,15 @@
       </c>
       <c r="E8" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>0.17100000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>10.260000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="H8" s="8">
         <v>7370</v>
@@ -3650,14 +3650,14 @@
       <c r="I8" s="8"/>
       <c r="J8" s="9">
         <f>IFERROR(IF(OR(I8&gt;=K8,E8&gt;=K8),LOOKUP(IF(I8="",E8,I8),{0,1,10,100,1000,4000,8000,24000,100000},{0,0.254,0.171,0.086,0.053,0.05,0.04,0.039,0.035}),"MOQ="&amp;K8),"")</f>
-        <v>0.17100000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="2"/>
-        <v>10.260000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>90</v>
@@ -3678,15 +3678,15 @@
       </c>
       <c r="E9" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>0.23</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="1"/>
-        <v>6.9</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="H9" s="8">
         <v>61525</v>
@@ -3694,14 +3694,14 @@
       <c r="I9" s="8"/>
       <c r="J9" s="9">
         <f>IFERROR(IF(OR(I9&gt;=K9,E9&gt;=K9),LOOKUP(IF(I9="",E9,I9),{0,1,10,100,1000,2000,10000,25000,50000,100000},{0,0.329,0.23,0.138,0.087,0.083,0.071,0.069,0.064,0.06}),"MOQ="&amp;K9),"")</f>
-        <v>0.23</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="K9" s="8">
         <v>1</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>6.9</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>91</v>
@@ -3722,15 +3722,15 @@
       </c>
       <c r="E10" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>0.16700000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>5.0100000000000007</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H10" s="8">
         <v>29976</v>
@@ -3738,14 +3738,14 @@
       <c r="I10" s="8"/>
       <c r="J10" s="9">
         <f>IFERROR(IF(OR(I10&gt;=K10,E10&gt;=K10),LOOKUP(IF(I10="",E10,I10),{0,1,10,100,1000,4000,8000,24000},{0,0.244,0.167,0.095,0.059,0.056,0.055,0.053}),"MOQ="&amp;K10),"")</f>
-        <v>0.16700000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="K10" s="8">
         <v>1</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>5.0100000000000007</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>92</v>
@@ -3766,15 +3766,15 @@
       </c>
       <c r="E11" s="8">
         <f>CEILING(BoardQty*7,1)</f>
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
-        <v>8.5999999999999993E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="1"/>
-        <v>18.059999999999999</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="H11" s="8">
         <v>65374</v>
@@ -3782,14 +3782,14 @@
       <c r="I11" s="8"/>
       <c r="J11" s="9">
         <f>IFERROR(IF(OR(I11&gt;=K11,E11&gt;=K11),LOOKUP(IF(I11="",E11,I11),{0,1,10,100,500,1000,1500,9000,24000,49500},{0,0.338,0.185,0.086,0.079,0.062,0.06,0.047,0.041,0.038}),"MOQ="&amp;K11),"")</f>
-        <v>8.5999999999999993E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="K11" s="8">
         <v>1</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>18.059999999999999</v>
+        <v>2.3660000000000001</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>93</v>
@@ -3810,15 +3810,15 @@
       </c>
       <c r="E12" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
-        <v>0.17299999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>10.379999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="H12" s="8">
         <v>128290</v>
@@ -3826,14 +3826,14 @@
       <c r="I12" s="8"/>
       <c r="J12" s="9">
         <f>IFERROR(IF(OR(I12&gt;=K12,E12&gt;=K12),LOOKUP(IF(I12="",E12,I12),{0,1,10,100,500,1000,2500,10000,15000,45000},{0,0.235,0.173,0.094,0.067,0.045,0.039,0.035,0.032,0.031}),"MOQ="&amp;K12),"")</f>
-        <v>0.17299999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="K12" s="8">
         <v>1</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>10.379999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>94</v>
@@ -3854,15 +3854,15 @@
       </c>
       <c r="E13" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>0.10299999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>6.18</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="H13" s="8">
         <v>53536</v>
@@ -3870,14 +3870,14 @@
       <c r="I13" s="8"/>
       <c r="J13" s="9">
         <f>IFERROR(IF(OR(I13&gt;=K13,E13&gt;=K13),LOOKUP(IF(I13="",E13,I13),{0,1,10,100,500,1000,2500,5000,10000,25000},{0,0.113,0.103,0.057,0.036,0.024,0.021,0.018,0.015,0.014}),"MOQ="&amp;K13),"")</f>
-        <v>0.10299999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="K13" s="8">
         <v>1</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="2"/>
-        <v>6.18</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>95</v>
@@ -3898,15 +3898,15 @@
       </c>
       <c r="E14" s="8">
         <f>CEILING(BoardQty*3,1)</f>
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>0.13300000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>11.97</v>
+        <v>0.42299999999999993</v>
       </c>
       <c r="H14" s="8">
         <v>7916</v>
@@ -3914,14 +3914,14 @@
       <c r="I14" s="8"/>
       <c r="J14" s="9">
         <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),LOOKUP(IF(I14="",E14,I14),{0,1,10,100,500,1000,3000,9000,24000,45000},{0,0.141,0.133,0.072,0.045,0.031,0.023,0.02,0.018,0.016}),"MOQ="&amp;K14),"")</f>
-        <v>0.13300000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="K14" s="8">
         <v>1</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="2"/>
-        <v>11.97</v>
+        <v>0.42299999999999993</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>96</v>
@@ -3942,15 +3942,15 @@
       </c>
       <c r="E15" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
+        <v>1.21</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>27.450000000000003</v>
+        <v>1.21</v>
       </c>
       <c r="H15" s="8">
         <v>1892</v>
@@ -3958,14 +3958,14 @@
       <c r="I15" s="8"/>
       <c r="J15" s="9">
         <f>IFERROR(IF(OR(I15&gt;=K15,E15&gt;=K15),LOOKUP(IF(I15="",E15,I15),{0,1,10,100,1500},{0,1.21,0.915,0.836,0.836}),"MOQ="&amp;K15),"")</f>
-        <v>0.91500000000000004</v>
+        <v>1.21</v>
       </c>
       <c r="K15" s="8">
         <v>1</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="2"/>
-        <v>27.450000000000003</v>
+        <v>1.21</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>97</v>
@@ -3986,15 +3986,15 @@
       </c>
       <c r="E16" s="8">
         <f>CEILING(BoardQty*3,1)</f>
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>0.442</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="1"/>
-        <v>39.78</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="H16" s="8">
         <v>10911</v>
@@ -4002,14 +4002,14 @@
       <c r="I16" s="8"/>
       <c r="J16" s="9">
         <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),LOOKUP(IF(I16="",E16,I16),{0,1,10,100,250,500,1200,2400,4800,9600},{0,0.771,0.442,0.382,0.329,0.317,0.3,0.29,0.234,0.233}),"MOQ="&amp;K16),"")</f>
-        <v>0.442</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="2"/>
-        <v>39.78</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>98</v>
@@ -4030,15 +4030,15 @@
       </c>
       <c r="E17" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>73.2</v>
+        <v>3.26</v>
       </c>
       <c r="H17" s="8">
         <v>4088</v>
@@ -4046,14 +4046,14 @@
       <c r="I17" s="8"/>
       <c r="J17" s="9">
         <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),LOOKUP(IF(I17="",E17,I17),{0,1,10,25,50,100,500,1000,2500},{0,1.63,1.52,1.29,1.22,1.09,1.02,0.94,0.914}),"MOQ="&amp;K17),"")</f>
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="2"/>
-        <v>73.2</v>
+        <v>3.26</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>99</v>
@@ -4074,15 +4074,15 @@
       </c>
       <c r="E18" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>6.32</v>
+        <v>6.67</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>189.60000000000002</v>
+        <v>6.67</v>
       </c>
       <c r="H18" s="8">
         <v>964</v>
@@ -4090,14 +4090,14 @@
       <c r="I18" s="8"/>
       <c r="J18" s="9">
         <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),LOOKUP(IF(I18="",E18,I18),{0,1,5,10,25,60,120,300,540,1020},{0,6.67,6.59,6.5,6.32,5.94,5.75,5.56,5.49,5.24}),"MOQ="&amp;K18),"")</f>
-        <v>6.32</v>
+        <v>6.67</v>
       </c>
       <c r="K18" s="8">
         <v>1</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="2"/>
-        <v>189.60000000000002</v>
+        <v>6.67</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>100</v>
@@ -4118,15 +4118,15 @@
       </c>
       <c r="E19" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>0.224</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="1"/>
-        <v>13.44</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="H19" s="8">
         <v>78924</v>
@@ -4134,14 +4134,14 @@
       <c r="I19" s="8"/>
       <c r="J19" s="9">
         <f>IFERROR(IF(OR(I19&gt;=K19,E19&gt;=K19),LOOKUP(IF(I19="",E19,I19),{0,1,10,100,500,1000,3000,6000},{0,0.273,0.224,0.118,0.078,0.054,0.047,0.045}),"MOQ="&amp;K19),"")</f>
-        <v>0.224</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="K19" s="8">
         <v>1</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="2"/>
-        <v>13.44</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>101</v>
@@ -4162,15 +4162,15 @@
       </c>
       <c r="E20" s="8">
         <f>CEILING(BoardQty*8,1)</f>
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>7.68</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H20" s="8">
         <v>7800</v>
@@ -4178,14 +4178,14 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9">
         <f>IFERROR(IF(OR(I20&gt;=K20,E20&gt;=K20),LOOKUP(IF(I20="",E20,I20),{0,1,10,100,1000,2500,4000},{0,0.14,0.078,0.032,0.015,0.013,0.01}),"MOQ="&amp;K20),"")</f>
-        <v>3.2000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K20" s="8">
         <v>1</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="2"/>
-        <v>7.68</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>102</v>
@@ -4206,15 +4206,15 @@
       </c>
       <c r="E21" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
-        <v>0.54300000000000004</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="1"/>
-        <v>16.290000000000003</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="H21" s="8">
         <v>7700</v>
@@ -4222,14 +4222,14 @@
       <c r="I21" s="8"/>
       <c r="J21" s="9">
         <f>IFERROR(IF(OR(I21&gt;=K21,E21&gt;=K21),LOOKUP(IF(I21="",E21,I21),{0,1,10,100,1000,4000},{0,0.724,0.543,0.315,0.223,0.223}),"MOQ="&amp;K21),"")</f>
-        <v>0.54300000000000004</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="K21" s="8">
         <v>1</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="2"/>
-        <v>16.290000000000003</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>103</v>
@@ -4250,15 +4250,15 @@
       </c>
       <c r="E22" s="8">
         <f>CEILING(BoardQty*6,1)</f>
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
-        <v>7.5600000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="H22" s="8">
         <v>21308</v>
@@ -4266,14 +4266,14 @@
       <c r="I22" s="8"/>
       <c r="J22" s="9">
         <f>IFERROR(IF(OR(I22&gt;=K22,E22&gt;=K22),LOOKUP(IF(I22="",E22,I22),{0,1,10,100,500,1000,4000},{0,0.132,0.106,0.042,0.035,0.018,0.016}),"MOQ="&amp;K22),"")</f>
-        <v>4.2000000000000003E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="K22" s="8">
         <v>1</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="2"/>
-        <v>7.5600000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>104</v>
@@ -4294,15 +4294,15 @@
       </c>
       <c r="E23" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="0"/>
-        <v>0.128</v>
+        <v>0.151</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>7.68</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="H23" s="8">
         <v>8107</v>
@@ -4310,14 +4310,14 @@
       <c r="I23" s="8"/>
       <c r="J23" s="9">
         <f>IFERROR(IF(OR(I23&gt;=K23,E23&gt;=K23),LOOKUP(IF(I23="",E23,I23),{0,1,10,100,1000,5000,10000,25000},{0,0.151,0.128,0.05,0.019,0.018,0.017,0.016}),"MOQ="&amp;K23),"")</f>
-        <v>0.128</v>
+        <v>0.151</v>
       </c>
       <c r="K23" s="8">
         <v>1</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="2"/>
-        <v>7.68</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>105</v>
@@ -4338,15 +4338,15 @@
       </c>
       <c r="E24" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>0.53500000000000003</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>32.1</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="H24" s="8">
         <v>2989</v>
@@ -4354,14 +4354,14 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9">
         <f>IFERROR(IF(OR(I24&gt;=K24,E24&gt;=K24),LOOKUP(IF(I24="",E24,I24),{0,1,10,25,100,250,500,1000,2000,5000},{0,0.594,0.563,0.535,0.486,0.457,0.418,0.349,0.339,0.316}),"MOQ="&amp;K24),"")</f>
-        <v>0.53500000000000003</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="K24" s="8">
         <v>1</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="2"/>
-        <v>32.1</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>106</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="E25" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="0"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" si="1"/>
-        <v>84.6</v>
+        <v>2.82</v>
       </c>
       <c r="H25" s="8">
         <v>25845</v>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="L25" s="10">
         <f t="shared" si="2"/>
-        <v>84.6</v>
+        <v>2.82</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>107</v>
@@ -4426,15 +4426,15 @@
       </c>
       <c r="E26" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" si="0"/>
-        <v>0.72399999999999998</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>21.72</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="H26" s="8">
         <v>1376</v>
@@ -4442,14 +4442,14 @@
       <c r="I26" s="8"/>
       <c r="J26" s="9">
         <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),LOOKUP(IF(I26="",E26,I26),{0,1,25,100,4000},{0,0.855,0.724,0.667,0.667}),"MOQ="&amp;K26),"")</f>
-        <v>0.72399999999999998</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="K26" s="8">
         <v>1</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="2"/>
-        <v>21.72</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>108</v>
@@ -4470,15 +4470,15 @@
       </c>
       <c r="E27" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>0.64700000000000002</v>
+        <v>0.996</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>38.82</v>
+        <v>1.992</v>
       </c>
       <c r="H27" s="8">
         <v>13712</v>
@@ -4486,14 +4486,14 @@
       <c r="I27" s="8"/>
       <c r="J27" s="9">
         <f>IFERROR(IF(OR(I27&gt;=K27,E27&gt;=K27),LOOKUP(IF(I27="",E27,I27),{0,1,10,100,500,1000,3000,5000,10000,25000},{0,0.996,0.647,0.425,0.414,0.326,0.32,0.308,0.304,0.29}),"MOQ="&amp;K27),"")</f>
-        <v>0.64700000000000002</v>
+        <v>0.996</v>
       </c>
       <c r="K27" s="8">
         <v>1</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="2"/>
-        <v>38.82</v>
+        <v>1.992</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>109</v>
@@ -4514,15 +4514,15 @@
       </c>
       <c r="E28" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="0"/>
-        <v>0.48399999999999999</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="1"/>
-        <v>14.52</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="H28" s="8">
         <v>11471</v>
@@ -4530,14 +4530,14 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9">
         <f>IFERROR(IF(OR(I28&gt;=K28,E28&gt;=K28),LOOKUP(IF(I28="",E28,I28),{0,1,10,100,500,1000,2000,5000,10000,25000},{0,0.583,0.484,0.387,0.368,0.309,0.289,0.28,0.27,0.26}),"MOQ="&amp;K28),"")</f>
-        <v>0.48399999999999999</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="K28" s="8">
         <v>1</v>
       </c>
       <c r="L28" s="10">
         <f t="shared" si="2"/>
-        <v>14.52</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>110</v>

--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.fouquet\Documents\sources\perso\CaptorBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippefouquet/Documents/Developpement/Electronique/CaptorBoard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68101616-52AD-4601-9E10-87C12E0D9F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FA310F-C30E-6540-8E5E-27999B660ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34620" yWindow="435" windowWidth="21600" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="32320" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaptorBoard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="BoardQty" localSheetId="0">CaptorBoard!$G$1</definedName>
+    <definedName name="EUR_USD" localSheetId="0">CaptorBoard!$C$31</definedName>
     <definedName name="PURCHASE_DESCRIPTION" localSheetId="0">CaptorBoard!$G$31</definedName>
     <definedName name="TotalCost" localSheetId="0">CaptorBoard!$G$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -69,7 +57,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Number of parts found at this distributor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -250,43 +251,348 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>361684 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (EUR):
-  Qty  -  Unit€  -  Ext€
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Available quantity of each part at the distributor.
+Red -&gt; No quantity available.
+Orange -&gt; Too little quantity available.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Purchase quantity of each part from this distributor.
+Yellow -&gt; This part have a minimum purchase quantity bigger than 1 (check the price breaks).
+Red -&gt; Purchasing more than the available quantity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit price of each part from this distributor.
+Green -&gt; lowest price across distributors.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Minimum Order Quantity. You must buy at least this ammount of components.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(Unit Price) x (Purchase Qty) of each part from this distributor.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Red -&gt; Next price break is cheaper.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Green -&gt; Cheapest supplier.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Distributor-assigned catalog number for each part and link to it's web page (ctrl-click). Extra distributor data is shown as comment.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
 ================
-     1   €0.23      €0.23
-    10   €0.15      €1.51
-   100   €0.09      €8.60
-  1000   €0.05     €53.00
-  2000   €0.05    €100.00
- 10000   €0.04    €410.00
- 24000   €0.04    €936.00
- 50000   €0.04  €1,900.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+     1   $0.23      $0.23
+    10   $0.16      $1.57
+    50   $0.10      $5.22
+   100   $0.09      $8.88
+   500   $0.06     $31.33
+  1000   $0.05     $54.83</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Desc: CAP CER 1UF 50V X7R 1210
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Footprint: 1210 (3225 Metric)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Size: 0.126" L x 0.098" W (3.20mm x 2.50mm)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Temp_coeff: X7R
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tolerance: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>±</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Value: 1 µF 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voltage: 50V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>356444 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Qty/Price Breaks (EUR):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">================
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     1   €0.23      €0.23
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    10   €0.15      €1.51
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   100   €0.09      €8.60
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  1000   €0.05     €53.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  2000   €0.05    €100.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10000   €0.04    €410.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 24000   €0.04    €936.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50000   €0.04  €1,900.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +605,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+  8000   $0.05    $381.44</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: CAP CER 12PF 100V X8R 1210
+Footprint: 1210 (3225 Metric)
+Size: 0.126" L x 0.098" W (3.20mm x 2.50mm)
+Temp_coeff: X8R
+Tolerance: ±5%
+Value: 12 pF 
+Voltage: 100V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="P8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -335,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="S8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -348,20 +702,59 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>61525 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.35      $0.35
+    10   $0.24      $2.40
+    50   $0.17      $8.41
+   100   $0.14     $14.42
+   500   $0.11     $54.09</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: CAP CER 22UF 16V X5R 1210
+Footprint: 1210 (3225 Metric)
+Size: 0.126" L x 0.098" W (3.20mm x 2.50mm)
+Temp_coeff: X5R
+Tolerance: ±20%
+Value: 22 µF 
+Voltage: 16V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>61293 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -385,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="S9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -398,20 +791,132 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>29976 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.26      $0.26
+    10   $0.18      $1.78
+    50   $0.12      $5.92
+   100   $0.10     $10.06
+   500   $0.07     $35.51
+  1000   $0.06     $62.15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Desc: CAP CER 0.1UF 100V X7R 1210
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Footprint: 1210 (3225 Metric)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Size: 0.126" L x 0.098" W (3.20mm x 2.50mm)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Temp_coeff: X7R
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tolerance: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>±</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Value: 0.1 µF 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Voltage: 100V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9676 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -424,8 +929,8 @@
   Qty  -  Unit€  -  Ext€
 ================
      1   €0.24      €0.24
-    10   €0.17      €1.67
-   100   €0.10      €9.50
+    10   €0.11      €1.12
+   100   €0.07      €6.70
   1000   €0.06     €59.00
   4000   €0.06    €224.00
   8000   €0.06    €440.00
@@ -433,7 +938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -446,20 +951,54 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>65374 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.36      $0.36
+    10   $0.20      $1.96
+   100   $0.09      $9.10
+   500   $0.08     $42.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: LED GREEN CLEAR CHIP SMD
+Footprint: 1209 (3224 Metric)
+Size: 3.20mm L x 2.40mm W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>55904 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="S11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -496,20 +1035,54 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>128290 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.23      $0.23
+    10   $0.19      $1.88
+   100   $0.10      $9.98
+   500   $0.07     $32.83
+  1000   $0.04     $44.65</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: DIODE GEN PURP 75V 150MA SOD123
+Footprint: SOD-123</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>126371 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -533,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="S12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -546,20 +1119,54 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>53536 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+  5000   $0.03    $158.70
+ 10000   $0.03    $269.80
+ 25000   $0.03    $634.75
+ 50000   $0.02  $1,190.50
+125000   $0.02  $2,578.75</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: DIODE GEN PURP 400V 1A DO41
+Footprint: DO-204AL, DO-41, Axial</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>87826 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +1190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -596,20 +1203,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>7916 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.15      $0.15
+    10   $0.14      $1.41
+   100   $0.08      $7.66
+   500   $0.05     $23.57
+  1000   $0.03     $32.14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: SOD-123, ZENER
+Footprint: SOD-123
+Tolerance: ±2.12%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7786 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -633,7 +1275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="S14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -646,20 +1288,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1892 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.78      $1.78
+     5   $1.69      $8.47
+    10   $1.61     $16.09
+    50   $1.30     $64.94
+   100   $1.10    $110.11
+   250   $1.07    $268.23
+   500   $0.90    $451.75</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: FUSE BOARD MOUNT 1A 250VAC 2SMD
+Footprint: 2-SMD, Square End Block
+Size: 0.398" L x 0.123" W x 0.123" H (10.10mm x 3.12mm x 3.12mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>14614 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
       <text>
         <r>
           <rPr>
@@ -671,14 +1350,14 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €1.21      €1.21
-    10   €0.92      €9.15
+     1   €1.40      €1.40
+    10   €1.05     €10.50
    100   €0.84     €83.60
   1500   €0.84  €1,254.00</t>
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+    <comment ref="S15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
       <text>
         <r>
           <rPr>
@@ -691,20 +1370,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>10911 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.97      $0.97
+    10   $0.61      $6.07
+    25   $0.52     $12.99
+    50   $0.47     $23.34
+   100   $0.46     $45.72
+   250   $0.39     $97.27
+   500   $0.37    $184.81
+  1000   $0.33    $330.71
+  5000   $0.26  $1,293.65</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: TERMINAL BLOCK, SCREW TYPE, 5.08</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10077 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
       <text>
         <r>
           <rPr>
@@ -728,7 +1444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+    <comment ref="S16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
       <text>
         <r>
           <rPr>
@@ -741,20 +1457,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4088 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.66      $1.66
+    10   $1.56     $15.58
+    25   $1.39     $34.63
+    40   $1.32     $52.64
+    80   $1.25     $99.74
+   230   $1.11    $254.90
+   500   $1.04    $519.49
+  1000   $0.97    $969.72
+  5000   $0.94  $4,675.45</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: RELAY GEN PURPOSE SPDT 10A 5V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3477 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -777,7 +1530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
+    <comment ref="S17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
       <text>
         <r>
           <rPr>
@@ -790,20 +1543,59 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>964 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $7.11      $7.11
+     5   $7.01     $35.05
+    10   $6.91     $69.11
+    25   $6.71    $167.84
+    60   $6.32    $379.11
+   120   $6.12    $734.53
+   240   $5.92  $1,421.68
+   480   $5.73  $2,748.57</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: AC/DC CONVERTER 5V 5W
+Footprint: 5-DIP Module, 4 Leads
+Power: 5 W
+Size: 1.00" L x 1.00" W x 0.69" H (25.4mm x 25.4mm x 17.6mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>669 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
       <text>
         <r>
           <rPr>
@@ -827,12 +1619,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="S18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -840,20 +1632,67 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>78924 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.28      $0.28
+    10   $0.23      $2.26
+   100   $0.12     $11.97
+   500   $0.08     $39.38
+  1000   $0.05     $53.55</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: MOSFET N-CH 60V 250MA SOT23-3
+Footprint: TO-236-3, SC-59, SOT-23-3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>76876 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
       <text>
         <r>
           <rPr>
@@ -875,7 +1714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
+    <comment ref="S19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
       <text>
         <r>
           <rPr>
@@ -888,7 +1727,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+  4000   $0.01     $41.92</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Desc: RES 1K OHM 5% 1/2W 1210
+Footprint: 1210 (3225 Metric)
+Power: 0.5W, 1/2W
+Size: 0.122" L x 0.098" W (3.10mm x 2.50mm)
+Temp_coeff: ±200ppm/°C
+Tolerance: ±5%
+Value: 1 kOhms </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005D000000}">
       <text>
         <r>
           <rPr>
@@ -901,7 +1788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
+    <comment ref="P20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005E000000}">
       <text>
         <r>
           <rPr>
@@ -922,7 +1809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+    <comment ref="S20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005F000000}">
       <text>
         <r>
           <rPr>
@@ -935,12 +1822,160 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000060000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.69      $0.69
+    10   $0.51      $5.07
+    50   $0.36     $17.88
+   100   $0.29     $29.50
+   500   $0.21    $104.28
+  1000   $0.17    $165.42</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000061000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Desc: CRMA1210 4.99M 1% EF E3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Footprint: 1210 (3225 Metric)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Power: 0.35W
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Size: 0.125" L x 0.100" W (3.18mm x 2.54mm)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Temp_coeff: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>±</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100ppm/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>°</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tolerance: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>±</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Value: 4.99 MOhms </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000062000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -948,53 +1983,156 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (EUR):
-  Qty  -  Unit€  -  Ext€
+    <comment ref="P21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000063000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Qty/Price Breaks (EUR):
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  Qty  -  Unit€  -  Ext€
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">================
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">     1   €0.72      €0.72
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    10   €0.54      €5.43
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   100   €0.32     €31.50
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  1000   €0.22    €223.00
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  4000   €0.22    €892.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000064000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: Résistances à couches épaisses - CMS 0.35W 4.99Mohm 1% AEC-Q200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000065000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
 ================
-     1   €0.72      €0.72
-    10   €0.54      €5.43
-   100   €0.32     €31.50
-  1000   €0.22    €223.00
-  4000   €0.22    €892.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Desc: Résistances à couches épaisses - CMS 0.35W 4.99Mohm 1% AEC-Q200</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>21308 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
+     1   $0.14      $0.14
+    10   $0.07      $0.68
+    50   $0.05      $2.29
+   100   $0.04      $3.91
+   500   $0.03     $14.02
+  1000   $0.02     $24.67</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000066000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Desc: RES 10K OHM 1% 1/2W 1210
+Footprint: 1210 (3225 Metric)
+Power: 0.5W, 1/2W
+Size: 0.126" L x 0.098" W (3.20mm x 2.50mm)
+Temp_coeff: ±100ppm/°C
+Tolerance: ±1%
+Value: 10 kOhms </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000067000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>19305 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000068000000}">
       <text>
         <r>
           <rPr>
@@ -1015,7 +2153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
+    <comment ref="S22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000069000000}">
       <text>
         <r>
           <rPr>
@@ -1028,7 +2166,47 @@
         </r>
       </text>
     </comment>
-    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.14      $0.14
+    10   $0.12      $1.19
+    50   $0.06      $3.13
+   100   $0.05      $4.64
+   500   $0.03     $14.02
+  1000   $0.02     $19.42</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Desc: RES 560 OHM 5% 1/2W 1210
+Footprint: 1210 (3225 Metric)
+Power: 0.5W, 1/2W
+Size: 0.126" L x 0.102" W (3.20mm x 2.60mm)
+Temp_coeff: ±200ppm/°C
+Tolerance: ±5%
+Value: 560 Ohms </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006C000000}">
       <text>
         <r>
           <rPr>
@@ -1041,7 +2219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
+    <comment ref="P23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006D000000}">
       <text>
         <r>
           <rPr>
@@ -1053,17 +2231,18 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €0.15      €0.15
-    10   €0.13      €1.28
-   100   €0.05      €5.00
-  1000   €0.02     €19.00
-  5000   €0.02     €90.00
- 10000   €0.02    €170.00
- 25000   €0.02    €400.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
+     1   €0.14      €0.14
+    10   €0.06      €0.63
+   100   €0.03      €2.80
+  1000   €0.02     €20.00
+  5000   €0.02     €85.00
+ 10000   €0.02    €160.00
+ 25000   €0.01    €375.00
+100000   €0.01  €1,300.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006E000000}">
       <text>
         <r>
           <rPr>
@@ -1076,20 +2255,70 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2989 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
+    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000070000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.50      $0.50
+    10   $0.48      $4.85
+    25   $0.47     $11.69
+   100   $0.40     $40.45
+   250   $0.37     $92.14
+   500   $0.34    $170.79
+  1000   $0.31    $305.63
+  2500   $0.29    $723.60
+  5000   $0.27  $1,339.35</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000071000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: SWITCH TACT SPST-NO .05A 12VDC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000072000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2938 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000073000000}">
       <text>
         <r>
           <rPr>
@@ -1113,7 +2342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
+    <comment ref="S24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000074000000}">
       <text>
         <r>
           <rPr>
@@ -1126,20 +2355,69 @@
         </r>
       </text>
     </comment>
-    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>25845 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000075000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $3.00      $3.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000076000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Desc: RF TXRX MOD WIFI TRACE ANT SMD
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Footprint: 38-SMD Module
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Frequency: 2.4GHz ~ 2.5GHz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000077000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>18461 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000078000000}">
       <text>
         <r>
           <rPr>
@@ -1156,7 +2434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
+    <comment ref="S25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000079000000}">
       <text>
         <r>
           <rPr>
@@ -1169,20 +2447,52 @@
         </r>
       </text>
     </comment>
-    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1376 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007A000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.91      $0.91
+    25   $0.77     $19.25
+   100   $0.71     $71.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: IC REG LIN 3.3V 800MA SOT223-3
+Footprint: TO-261-4, TO-261AA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>955 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007D000000}">
       <text>
         <r>
           <rPr>
@@ -1201,7 +2511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
+    <comment ref="S26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007E000000}">
       <text>
         <r>
           <rPr>
@@ -1214,20 +2524,57 @@
         </r>
       </text>
     </comment>
-    <comment ref="H27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>13712 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.07      $1.07
+    10   $0.70      $6.97
+   100   $0.46     $45.66
+  1000   $0.36    $360.48
+  2000   $0.34    $672.90
+  5000   $0.32  $1,622.15
+ 10000   $0.32  $3,196.30
+ 25000   $0.31  $7,810.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000080000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: OPTOISOLATOR 4.17KV TRIAC 6DIP
+Footprint: 6-DIP (0.300", 7.62mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000081000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>13683 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000082000000}">
       <text>
         <r>
           <rPr>
@@ -1251,7 +2598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
+    <comment ref="S27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000083000000}">
       <text>
         <r>
           <rPr>
@@ -1264,20 +2611,56 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>11471 En stock</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000084000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.60      $0.60
+    10   $0.50      $5.02
+    50   $0.45     $22.61
+   100   $0.40     $40.20
+   500   $0.38    $190.94</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000085000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: CRYSTAL 32.7680KHZ 12.5PF SMD
+Footprint: 2-SMD, No Lead
+Frequency: 32.768 kHz
+Size: 0.079" L x 0.047" W (2.00mm x 1.20mm)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000086000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>25390 En stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000087000000}">
       <text>
         <r>
           <rPr>
@@ -1301,7 +2684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
+    <comment ref="S28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000088000000}">
       <text>
         <r>
           <rPr>
@@ -1314,7 +2697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
+    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000089000000}">
       <text>
         <r>
           <rPr>
@@ -1327,7 +2710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008A000000}">
       <text>
         <r>
           <rPr>
@@ -1340,7 +2723,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
+    <comment ref="O30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Copy the information below to the BOM import page of the distributor web site.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008C000000}">
       <text>
         <r>
           <rPr>
@@ -1358,7 +2754,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -1612,21 +3008,96 @@
     <t>Crystal_SMD_MicroCrystal_CC8V-T1A-2Pin_2.0x1.2mm_HandSoldering</t>
   </si>
   <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>Avail</t>
+  </si>
+  <si>
+    <t>Purch</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>Cat#</t>
+  </si>
+  <si>
+    <t>1276-1811-1-ND</t>
+  </si>
+  <si>
+    <t>C1210C120J1HAC7800-ND</t>
+  </si>
+  <si>
+    <t>NonStk</t>
+  </si>
+  <si>
+    <t>1276-1851-1-ND</t>
+  </si>
+  <si>
+    <t>478-KAM32QR72A104KTCT-ND</t>
+  </si>
+  <si>
+    <t>160-1462-1-ND</t>
+  </si>
+  <si>
+    <t>1N4148W-E3-08CT-ND</t>
+  </si>
+  <si>
+    <t>641-1311-3-ND</t>
+  </si>
+  <si>
+    <t>3757-BZT52-C3V3_R1_00001CT-ND</t>
+  </si>
+  <si>
+    <t>F2906CT-ND</t>
+  </si>
+  <si>
+    <t>102-6204-ND</t>
+  </si>
+  <si>
+    <t>Z1014-ND</t>
+  </si>
+  <si>
+    <t>102-PSK-5D-5-ND</t>
+  </si>
+  <si>
+    <t>2N7002E-FDICT-ND</t>
+  </si>
+  <si>
+    <t>2315-RMC1/4-102JTETR-ND</t>
+  </si>
+  <si>
+    <t>3579-CRMA1210AF4M99FKEFCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF1210FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>2019-RK73B2ETTD561JCT-ND</t>
+  </si>
+  <si>
+    <t>4809-SKHHLPA010-ND</t>
+  </si>
+  <si>
+    <t>1965-ESP32-WROOM-32E-N4CT-ND</t>
+  </si>
+  <si>
+    <t>TC1264-3.3VDBCT-ND</t>
+  </si>
+  <si>
+    <t>MOC3041M-ND</t>
+  </si>
+  <si>
+    <t>2195-CM8V-T1A-32.768KHZ-12.5PF-20PPM-TA-QCCT-ND</t>
+  </si>
+  <si>
+    <t>Buy here</t>
+  </si>
+  <si>
     <t>Mouser</t>
   </si>
   <si>
-    <t>Avail</t>
-  </si>
-  <si>
-    <t>Purch</t>
-  </si>
-  <si>
-    <t>MOQ</t>
-  </si>
-  <si>
-    <t>Cat#</t>
-  </si>
-  <si>
     <t>187-CL32B105KBHNNNE</t>
   </si>
   <si>
@@ -1693,15 +3164,18 @@
     <t>428-201494-MC01</t>
   </si>
   <si>
-    <t>Buy here</t>
-  </si>
-  <si>
     <t>Total Purchase:</t>
   </si>
   <si>
     <t>Purchase description:</t>
   </si>
   <si>
+    <t>Used currency rates:</t>
+  </si>
+  <si>
+    <t>EUR(€)/USD($):</t>
+  </si>
+  <si>
     <t>Prj:</t>
   </si>
   <si>
@@ -1729,10 +3203,10 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2023-06-07 16:54:44</t>
-  </si>
-  <si>
-    <t>KiCost® v1.1.17</t>
+    <t>2023-06-24 14:20:02</t>
+  </si>
+  <si>
+    <t>KiCost® v1.1.15</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +3217,7 @@
     <numFmt numFmtId="164" formatCode="\€#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\€#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,6 +3282,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF909090"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1820,8 +3301,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1831,6 +3318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF303030"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,12 +3345,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1889,10 +3382,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1903,12 +3399,323 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="276">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -2096,6 +3903,838 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3111,9 +5750,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3151,9 +5790,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3186,26 +5825,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3238,26 +5860,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3431,110 +6036,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="3" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9.140625" outlineLevel="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.140625" outlineLevel="2"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.1640625" outlineLevel="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.1640625" outlineLevel="2"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1" outlineLevel="2"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1" outlineLevel="3" collapsed="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1" outlineLevel="2"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9.1640625" outlineLevel="2"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1" outlineLevel="2"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1" outlineLevel="3" collapsed="1"/>
+    <col min="18" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="G1" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="G2" s="4">
         <f>TotalCost/BoardQty</f>
-        <v>29.393000000000001</v>
+        <v>21.666266128274955</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="G3" s="5">
         <f>SUM(G7:G28)</f>
-        <v>29.393000000000001</v>
+        <v>433.32532256549911</v>
       </c>
       <c r="L3" s="5">
         <f>SUM(L7:L28)</f>
-        <v>29.393000000000001</v>
+        <v>429.95962062165461</v>
       </c>
       <c r="M3" s="6" t="str">
         <f>(COUNTA(L7:L28)&amp;" of "&amp;ROWS(L7:L28)&amp;" parts found")</f>
         <v>22 of 22 parts found</v>
       </c>
+      <c r="R3" s="5">
+        <f>SUM(R7:R28)</f>
+        <v>442.85999999999996</v>
+      </c>
+      <c r="S3" s="6" t="str">
+        <f>(COUNTA(R7:R28)&amp;" of "&amp;ROWS(R7:R28)&amp;" parts found")</f>
+        <v>22 of 22 parts found</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:19" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -3574,8 +6201,26 @@
       <c r="M6" s="7" t="s">
         <v>88</v>
       </c>
+      <c r="N6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3590,36 +6235,54 @@
       </c>
       <c r="E7" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" ref="F7:F28" si="0">IF(MIN(J7)&lt;&gt;0,MIN(J7),"")</f>
-        <v>0.22600000000000001</v>
+        <f t="shared" ref="F7:F28" si="0">IF(MIN(J7,P7)&lt;&gt;0,MIN(J7,P7),"")</f>
+        <v>0.14743168372617149</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" ref="G7:G28" si="1">IF(AND(ISNUMBER(E7),ISNUMBER(F7)),E7*F7,"")</f>
-        <v>0.45200000000000001</v>
+        <v>5.8972673490468601</v>
       </c>
       <c r="H7" s="8">
-        <v>361684</v>
+        <v>404547</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9">
-        <f>IFERROR(IF(OR(I7&gt;=K7,E7&gt;=K7),LOOKUP(IF(I7="",E7,I7),{0,1,10,100,1000,2000,10000,24000,50000},{0,0.226,0.151,0.086,0.053,0.05,0.041,0.039,0.038}),"MOQ="&amp;K7),"")</f>
-        <v>0.22600000000000001</v>
+        <f>IFERROR(IF(OR(I7&gt;=K7,E7&gt;=K7),EUR_USD*LOOKUP(IF(I7="",E7,I7),{0,1,10,50,100,500,1000},{0,0.23,0.157,0.1044,0.0888,0.06266,0.05483}),"MOQ="&amp;K7),"")</f>
+        <v>0.14743168372617149</v>
       </c>
       <c r="K7" s="8">
         <v>1</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" ref="L7:L28" si="2">IFERROR(IF(I7="",E7,I7)*J7,"")</f>
-        <v>0.45200000000000001</v>
+        <v>5.8972673490468601</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="N7" s="8">
+        <v>356444</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9">
+        <f>IFERROR(IF(OR(O7&gt;=Q7,E7&gt;=Q7),LOOKUP(IF(O7="",E7,O7),{0,1,10,100,1000,2000,10000,24000,50000},{0,0.226,0.151,0.086,0.053,0.05,0.041,0.039,0.038}),"MOQ="&amp;Q7),"")</f>
+        <v>0.151</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" ref="R7:R28" si="3">IFERROR(IF(O7="",E7,O7)*P7,"")</f>
+        <v>6.04</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -3634,36 +6297,54 @@
       </c>
       <c r="E8" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>0.254</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="H8" s="8">
-        <v>7370</v>
+        <v>6.8400000000000007</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="9">
-        <f>IFERROR(IF(OR(I8&gt;=K8,E8&gt;=K8),LOOKUP(IF(I8="",E8,I8),{0,1,10,100,1000,4000,8000,24000,100000},{0,0.254,0.171,0.086,0.053,0.05,0.04,0.039,0.035}),"MOQ="&amp;K8),"")</f>
-        <v>0.254</v>
+      <c r="J8" s="9" t="str">
+        <f>IFERROR(IF(OR(I8&gt;=K8,E8&gt;=K8),EUR_USD*LOOKUP(IF(I8="",E8,I8),{0,1,8000},{0,0.04768,0.04768}),"MOQ="&amp;K8),"")</f>
+        <v>MOQ=8000</v>
       </c>
       <c r="K8" s="8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10">
+        <v>8000</v>
+      </c>
+      <c r="L8" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>0.50800000000000001</v>
+        <v/>
       </c>
       <c r="M8" s="8" t="s">
         <v>90</v>
       </c>
+      <c r="N8" s="8">
+        <v>7370</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9">
+        <f>IFERROR(IF(OR(O8&gt;=Q8,E8&gt;=Q8),LOOKUP(IF(O8="",E8,O8),{0,1,10,100,1000,4000,8000,24000,100000},{0,0.254,0.171,0.086,0.053,0.05,0.04,0.039,0.035}),"MOQ="&amp;Q8),"")</f>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="3"/>
+        <v>6.8400000000000007</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -3678,36 +6359,54 @@
       </c>
       <c r="E9" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>0.32900000000000001</v>
+        <v>0.22537327448586722</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="1"/>
-        <v>0.32900000000000001</v>
+        <v>4.5074654897173447</v>
       </c>
       <c r="H9" s="8">
-        <v>61525</v>
+        <v>384492</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="9">
-        <f>IFERROR(IF(OR(I9&gt;=K9,E9&gt;=K9),LOOKUP(IF(I9="",E9,I9),{0,1,10,100,1000,2000,10000,25000,50000,100000},{0,0.329,0.23,0.138,0.087,0.083,0.071,0.069,0.064,0.06}),"MOQ="&amp;K9),"")</f>
-        <v>0.32900000000000001</v>
+        <f>IFERROR(IF(OR(I9&gt;=K9,E9&gt;=K9),EUR_USD*LOOKUP(IF(I9="",E9,I9),{0,1,10,50,100,500},{0,0.35,0.24,0.1682,0.1442,0.10818}),"MOQ="&amp;K9),"")</f>
+        <v>0.22537327448586722</v>
       </c>
       <c r="K9" s="8">
         <v>1</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v>0.32900000000000001</v>
+        <v>4.5074654897173447</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="N9" s="8">
+        <v>61293</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9">
+        <f>IFERROR(IF(OR(O9&gt;=Q9,E9&gt;=Q9),LOOKUP(IF(O9="",E9,O9),{0,1,10,100,1000,2000,10000,25000,50000,100000},{0,0.329,0.23,0.138,0.087,0.083,0.071,0.069,0.064,0.06}),"MOQ="&amp;Q9),"")</f>
+        <v>0.23</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="3"/>
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -3722,36 +6421,54 @@
       </c>
       <c r="E10" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>0.24399999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>0.24399999999999999</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H10" s="8">
-        <v>29976</v>
+        <v>11066</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9">
-        <f>IFERROR(IF(OR(I10&gt;=K10,E10&gt;=K10),LOOKUP(IF(I10="",E10,I10),{0,1,10,100,1000,4000,8000,24000},{0,0.244,0.167,0.095,0.059,0.056,0.055,0.053}),"MOQ="&amp;K10),"")</f>
-        <v>0.24399999999999999</v>
+        <f>IFERROR(IF(OR(I10&gt;=K10,E10&gt;=K10),EUR_USD*LOOKUP(IF(I10="",E10,I10),{0,1,10,50,100,500,1000},{0,0.26,0.178,0.1184,0.1006,0.07102,0.06215}),"MOQ="&amp;K10),"")</f>
+        <v>0.16715184524368484</v>
       </c>
       <c r="K10" s="8">
         <v>1</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>0.24399999999999999</v>
+        <v>3.343036904873697</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="N10" s="8">
+        <v>9676</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9">
+        <f>IFERROR(IF(OR(O10&gt;=Q10,E10&gt;=Q10),LOOKUP(IF(O10="",E10,O10),{0,1,10,100,1000,4000,8000,24000},{0,0.244,0.112,0.067,0.059,0.056,0.055,0.053}),"MOQ="&amp;Q10),"")</f>
+        <v>0.112</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="3"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -3766,36 +6483,54 @@
       </c>
       <c r="E11" s="8">
         <f>CEILING(BoardQty*7,1)</f>
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
-        <v>0.33800000000000002</v>
+        <v>8.5454033242557986E-2</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="1"/>
-        <v>2.3660000000000001</v>
+        <v>11.963564653958118</v>
       </c>
       <c r="H11" s="8">
-        <v>65374</v>
+        <v>179123</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="9">
-        <f>IFERROR(IF(OR(I11&gt;=K11,E11&gt;=K11),LOOKUP(IF(I11="",E11,I11),{0,1,10,100,500,1000,1500,9000,24000,49500},{0,0.338,0.185,0.086,0.079,0.062,0.06,0.047,0.041,0.038}),"MOQ="&amp;K11),"")</f>
-        <v>0.33800000000000002</v>
+        <f>IFERROR(IF(OR(I11&gt;=K11,E11&gt;=K11),EUR_USD*LOOKUP(IF(I11="",E11,I11),{0,1,10,100,500},{0,0.36,0.196,0.091,0.084}),"MOQ="&amp;K11),"")</f>
+        <v>8.5454033242557986E-2</v>
       </c>
       <c r="K11" s="8">
         <v>1</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="2"/>
-        <v>2.3660000000000001</v>
+        <v>11.963564653958118</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="N11" s="8">
+        <v>55904</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="9">
+        <f>IFERROR(IF(OR(O11&gt;=Q11,E11&gt;=Q11),LOOKUP(IF(O11="",E11,O11),{0,1,10,100,500,1000,1500,9000,24000,49500},{0,0.338,0.185,0.086,0.079,0.062,0.06,0.047,0.041,0.038}),"MOQ="&amp;Q11),"")</f>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="3"/>
+        <v>12.04</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -3810,36 +6545,54 @@
       </c>
       <c r="E12" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
-        <v>0.23499999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>0.47</v>
+        <v>6.92</v>
       </c>
       <c r="H12" s="8">
-        <v>128290</v>
+        <v>60259</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="9">
-        <f>IFERROR(IF(OR(I12&gt;=K12,E12&gt;=K12),LOOKUP(IF(I12="",E12,I12),{0,1,10,100,500,1000,2500,10000,15000,45000},{0,0.235,0.173,0.094,0.067,0.045,0.039,0.035,0.032,0.031}),"MOQ="&amp;K12),"")</f>
-        <v>0.23499999999999999</v>
+        <f>IFERROR(IF(OR(I12&gt;=K12,E12&gt;=K12),EUR_USD*LOOKUP(IF(I12="",E12,I12),{0,1,10,100,500,1000},{0,0.23,0.188,0.0998,0.06566,0.04465}),"MOQ="&amp;K12),"")</f>
+        <v>0.17654239834726265</v>
       </c>
       <c r="K12" s="8">
         <v>1</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="2"/>
-        <v>0.47</v>
+        <v>7.0616959338905065</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="N12" s="8">
+        <v>126371</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9">
+        <f>IFERROR(IF(OR(O12&gt;=Q12,E12&gt;=Q12),LOOKUP(IF(O12="",E12,O12),{0,1,10,100,500,1000,2500,10000,15000,45000},{0,0.235,0.173,0.094,0.067,0.045,0.039,0.035,0.032,0.031}),"MOQ="&amp;Q12),"")</f>
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="3"/>
+        <v>6.92</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
@@ -3854,36 +6607,54 @@
       </c>
       <c r="E13" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>0.113</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>0.22600000000000001</v>
+        <v>4.12</v>
       </c>
       <c r="H13" s="8">
-        <v>53536</v>
+        <v>575000</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="9">
-        <f>IFERROR(IF(OR(I13&gt;=K13,E13&gt;=K13),LOOKUP(IF(I13="",E13,I13),{0,1,10,100,500,1000,2500,5000,10000,25000},{0,0.113,0.103,0.057,0.036,0.024,0.021,0.018,0.015,0.014}),"MOQ="&amp;K13),"")</f>
-        <v>0.113</v>
+      <c r="J13" s="9" t="str">
+        <f>IFERROR(IF(OR(I13&gt;=K13,E13&gt;=K13),EUR_USD*LOOKUP(IF(I13="",E13,I13),{0,1,5000,10000,25000,50000,125000},{0,0.03174,0.03174,0.02698,0.02539,0.02381,0.02063}),"MOQ="&amp;K13),"")</f>
+        <v>MOQ=5000</v>
       </c>
       <c r="K13" s="8">
+        <v>5000</v>
+      </c>
+      <c r="L13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="8">
+        <v>87826</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9">
+        <f>IFERROR(IF(OR(O13&gt;=Q13,E13&gt;=Q13),LOOKUP(IF(O13="",E13,O13),{0,1,10,100,500,1000,2500,5000,10000,25000},{0,0.113,0.103,0.057,0.036,0.024,0.021,0.018,0.015,0.014}),"MOQ="&amp;Q13),"")</f>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Q13" s="8">
         <v>1</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="2"/>
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>95</v>
+      <c r="R13" s="10">
+        <f t="shared" si="3"/>
+        <v>4.12</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
@@ -3898,36 +6669,54 @@
       </c>
       <c r="E14" s="8">
         <f>CEILING(BoardQty*3,1)</f>
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>0.14099999999999999</v>
+        <v>0.13240679876044698</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="1"/>
-        <v>0.42299999999999993</v>
+        <v>7.9444079256268187</v>
       </c>
       <c r="H14" s="8">
-        <v>7916</v>
+        <v>12937</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="9">
-        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),LOOKUP(IF(I14="",E14,I14),{0,1,10,100,500,1000,3000,9000,24000,45000},{0,0.141,0.133,0.072,0.045,0.031,0.023,0.02,0.018,0.016}),"MOQ="&amp;K14),"")</f>
-        <v>0.14099999999999999</v>
+        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),EUR_USD*LOOKUP(IF(I14="",E14,I14),{0,1,10,100,500,1000},{0,0.15,0.141,0.0766,0.04714,0.03214}),"MOQ="&amp;K14),"")</f>
+        <v>0.13240679876044698</v>
       </c>
       <c r="K14" s="8">
         <v>1</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="2"/>
-        <v>0.42299999999999993</v>
+        <v>7.9444079256268187</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="N14" s="8">
+        <v>7786</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9">
+        <f>IFERROR(IF(OR(O14&gt;=Q14,E14&gt;=Q14),LOOKUP(IF(O14="",E14,O14),{0,1,10,100,500,1000,3000,9000,24000,45000},{0,0.141,0.133,0.072,0.045,0.031,0.023,0.02,0.018,0.016}),"MOQ="&amp;Q14),"")</f>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="3"/>
+        <v>7.98</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
@@ -3942,36 +6731,54 @@
       </c>
       <c r="E15" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="1"/>
-        <v>1.21</v>
+        <v>21</v>
       </c>
       <c r="H15" s="8">
-        <v>1892</v>
+        <v>21050</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9">
-        <f>IFERROR(IF(OR(I15&gt;=K15,E15&gt;=K15),LOOKUP(IF(I15="",E15,I15),{0,1,10,100,1500},{0,1.21,0.915,0.836,0.836}),"MOQ="&amp;K15),"")</f>
-        <v>1.21</v>
+        <f>IFERROR(IF(OR(I15&gt;=K15,E15&gt;=K15),EUR_USD*LOOKUP(IF(I15="",E15,I15),{0,1,5,10,50,100,250,500},{0,1.78,1.694,1.609,1.2988,1.1011,1.07292,0.9035}),"MOQ="&amp;K15),"")</f>
+        <v>1.5109399943656683</v>
       </c>
       <c r="K15" s="8">
         <v>1</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="2"/>
-        <v>1.21</v>
+        <v>30.218799887313367</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="N15" s="8">
+        <v>14614</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9">
+        <f>IFERROR(IF(OR(O15&gt;=Q15,E15&gt;=Q15),LOOKUP(IF(O15="",E15,O15),{0,1,10,100,1500},{0,1.4,1.05,0.836,0.836}),"MOQ="&amp;Q15),"")</f>
+        <v>1.05</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>1</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
@@ -3986,36 +6793,54 @@
       </c>
       <c r="E16" s="8">
         <f>CEILING(BoardQty*3,1)</f>
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>0.77100000000000002</v>
+        <v>0.43835101887501177</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="1"/>
-        <v>2.3130000000000002</v>
+        <v>26.301061132500706</v>
       </c>
       <c r="H16" s="8">
-        <v>10911</v>
+        <v>3970</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9">
-        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),LOOKUP(IF(I16="",E16,I16),{0,1,10,100,250,500,1200,2400,4800,9600},{0,0.771,0.442,0.382,0.329,0.317,0.3,0.29,0.234,0.233}),"MOQ="&amp;K16),"")</f>
-        <v>0.77100000000000002</v>
+        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),EUR_USD*LOOKUP(IF(I16="",E16,I16),{0,1,10,25,50,100,250,500,1000,5000},{0,0.97,0.607,0.5196,0.4668,0.4572,0.38908,0.36962,0.33071,0.25873}),"MOQ="&amp;K16),"")</f>
+        <v>0.43835101887501177</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="2"/>
-        <v>2.3130000000000002</v>
+        <v>26.301061132500706</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="N16" s="8">
+        <v>10077</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9">
+        <f>IFERROR(IF(OR(O16&gt;=Q16,E16&gt;=Q16),LOOKUP(IF(O16="",E16,O16),{0,1,10,100,250,500,1200,2400,4800,9600},{0,0.771,0.442,0.382,0.329,0.317,0.3,0.29,0.234,0.233}),"MOQ="&amp;Q16),"")</f>
+        <v>0.442</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>1</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="3"/>
+        <v>26.52</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
@@ -4030,36 +6855,54 @@
       </c>
       <c r="E17" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>1.63</v>
+        <v>1.2357967884308387</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="1"/>
-        <v>3.26</v>
+        <v>49.431871537233548</v>
       </c>
       <c r="H17" s="8">
-        <v>4088</v>
+        <v>6959</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9">
-        <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),LOOKUP(IF(I17="",E17,I17),{0,1,10,25,50,100,500,1000,2500},{0,1.63,1.52,1.29,1.22,1.09,1.02,0.94,0.914}),"MOQ="&amp;K17),"")</f>
-        <v>1.63</v>
+        <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),EUR_USD*LOOKUP(IF(I17="",E17,I17),{0,1,10,25,40,80,230,500,1000,5000},{0,1.66,1.558,1.3852,1.316,1.24675,1.10826,1.03898,0.96972,0.93509}),"MOQ="&amp;K17),"")</f>
+        <v>1.2357967884308387</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="2"/>
-        <v>3.26</v>
+        <v>49.431871537233548</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="N17" s="8">
+        <v>3477</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9">
+        <f>IFERROR(IF(OR(O17&gt;=Q17,E17&gt;=Q17),LOOKUP(IF(O17="",E17,O17),{0,1,10,25,50,100,500,1000,2500},{0,1.63,1.52,1.29,1.22,1.09,1.02,0.94,0.914}),"MOQ="&amp;Q17),"")</f>
+        <v>1.29</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>1</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="3"/>
+        <v>51.6</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
@@ -4074,36 +6917,54 @@
       </c>
       <c r="E18" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>6.67</v>
+        <v>6.4898112498826181</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>6.67</v>
+        <v>129.79622499765236</v>
       </c>
       <c r="H18" s="8">
-        <v>964</v>
+        <v>94</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9">
-        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),LOOKUP(IF(I18="",E18,I18),{0,1,5,10,25,60,120,300,540,1020},{0,6.67,6.59,6.5,6.32,5.94,5.75,5.56,5.49,5.24}),"MOQ="&amp;K18),"")</f>
-        <v>6.67</v>
+        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),EUR_USD*LOOKUP(IF(I18="",E18,I18),{0,1,5,10,25,60,120,240,480},{0,7.11,7.01,6.911,6.7136,6.3185,6.12108,5.92367,5.72619}),"MOQ="&amp;K18),"")</f>
+        <v>6.4898112498826181</v>
       </c>
       <c r="K18" s="8">
         <v>1</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="2"/>
-        <v>6.67</v>
+        <v>129.79622499765236</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="N18" s="8">
+        <v>669</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9">
+        <f>IFERROR(IF(OR(O18&gt;=Q18,E18&gt;=Q18),LOOKUP(IF(O18="",E18,O18),{0,1,5,10,25,60,120,300,540,1020},{0,6.67,6.59,6.5,6.32,5.94,5.75,5.56,5.49,5.24}),"MOQ="&amp;Q18),"")</f>
+        <v>6.5</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -4118,36 +6979,54 @@
       </c>
       <c r="E19" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>0.27300000000000002</v>
+        <v>0.21222650014085831</v>
       </c>
       <c r="G19" s="10">
         <f t="shared" si="1"/>
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="H19" s="8">
-        <v>78924</v>
+        <v>8.4890600056343324</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="9">
-        <f>IFERROR(IF(OR(I19&gt;=K19,E19&gt;=K19),LOOKUP(IF(I19="",E19,I19),{0,1,10,100,500,1000,3000,6000},{0,0.273,0.224,0.118,0.078,0.054,0.047,0.045}),"MOQ="&amp;K19),"")</f>
-        <v>0.27300000000000002</v>
+        <f>IFERROR(IF(OR(I19&gt;=K19,E19&gt;=K19),EUR_USD*LOOKUP(IF(I19="",E19,I19),{0,1,10,100,500,1000},{0,0.28,0.226,0.1197,0.07876,0.05355}),"MOQ="&amp;K19),"")</f>
+        <v>0.21222650014085831</v>
       </c>
       <c r="K19" s="8">
         <v>1</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="2"/>
-        <v>0.54600000000000004</v>
+        <v>8.4890600056343324</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="N19" s="8">
+        <v>76876</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9">
+        <f>IFERROR(IF(OR(O19&gt;=Q19,E19&gt;=Q19),LOOKUP(IF(O19="",E19,O19),{0,1,10,100,500,1000,3000,6000},{0,0.273,0.224,0.118,0.078,0.054,0.047,0.045}),"MOQ="&amp;Q19),"")</f>
+        <v>0.224</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="3"/>
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>54</v>
       </c>
@@ -4162,36 +7041,54 @@
       </c>
       <c r="E20" s="8">
         <f>CEILING(BoardQty*8,1)</f>
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H20" s="8">
+        <v>5.12</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9" t="str">
+        <f>IFERROR(IF(OR(I20&gt;=K20,E20&gt;=K20),EUR_USD*LOOKUP(IF(I20="",E20,I20),{0,1,4000},{0,0.01048,0.01048}),"MOQ="&amp;K20),"")</f>
+        <v>MOQ=4000</v>
+      </c>
+      <c r="K20" s="8">
+        <v>4000</v>
+      </c>
+      <c r="L20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="8">
         <v>7800</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9">
-        <f>IFERROR(IF(OR(I20&gt;=K20,E20&gt;=K20),LOOKUP(IF(I20="",E20,I20),{0,1,10,100,1000,2500,4000},{0,0.14,0.078,0.032,0.015,0.013,0.01}),"MOQ="&amp;K20),"")</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K20" s="8">
+      <c r="O20" s="8"/>
+      <c r="P20" s="9">
+        <f>IFERROR(IF(OR(O20&gt;=Q20,E20&gt;=Q20),LOOKUP(IF(O20="",E20,O20),{0,1,10,100,1000,2500,4000},{0,0.14,0.078,0.032,0.015,0.013,0.01}),"MOQ="&amp;Q20),"")</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q20" s="8">
         <v>1</v>
       </c>
-      <c r="L20" s="10">
-        <f t="shared" si="2"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>102</v>
+      <c r="R20" s="10">
+        <f t="shared" si="3"/>
+        <v>5.12</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>58</v>
       </c>
@@ -4206,36 +7103,54 @@
       </c>
       <c r="E21" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
-        <v>0.72399999999999998</v>
+        <v>0.4761010423513945</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="1"/>
-        <v>0.72399999999999998</v>
+        <v>9.5220208470278891</v>
       </c>
       <c r="H21" s="8">
-        <v>7700</v>
+        <v>7720</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="9">
-        <f>IFERROR(IF(OR(I21&gt;=K21,E21&gt;=K21),LOOKUP(IF(I21="",E21,I21),{0,1,10,100,1000,4000},{0,0.724,0.543,0.315,0.223,0.223}),"MOQ="&amp;K21),"")</f>
-        <v>0.72399999999999998</v>
+        <f>IFERROR(IF(OR(I21&gt;=K21,E21&gt;=K21),EUR_USD*LOOKUP(IF(I21="",E21,I21),{0,1,10,50,100,500,1000},{0,0.69,0.507,0.3576,0.295,0.20856,0.16542}),"MOQ="&amp;K21),"")</f>
+        <v>0.4761010423513945</v>
       </c>
       <c r="K21" s="8">
         <v>1</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="2"/>
-        <v>0.72399999999999998</v>
+        <v>9.5220208470278891</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="N21" s="8">
+        <v>7700</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9">
+        <f>IFERROR(IF(OR(O21&gt;=Q21,E21&gt;=Q21),LOOKUP(IF(O21="",E21,O21),{0,1,10,100,1000,4000},{0,0.724,0.543,0.315,0.223,0.223}),"MOQ="&amp;Q21),"")</f>
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>1</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="3"/>
+        <v>10.860000000000001</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
@@ -4250,36 +7165,54 @@
       </c>
       <c r="E22" s="8">
         <f>CEILING(BoardQty*6,1)</f>
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="0"/>
-        <v>0.13200000000000001</v>
+        <v>3.6717062634989202E-2</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
-        <v>0.79200000000000004</v>
+        <v>4.4060475161987043</v>
       </c>
       <c r="H22" s="8">
-        <v>21308</v>
+        <v>18065</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="9">
-        <f>IFERROR(IF(OR(I22&gt;=K22,E22&gt;=K22),LOOKUP(IF(I22="",E22,I22),{0,1,10,100,500,1000,4000},{0,0.132,0.106,0.042,0.035,0.018,0.016}),"MOQ="&amp;K22),"")</f>
-        <v>0.13200000000000001</v>
+        <f>IFERROR(IF(OR(I22&gt;=K22,E22&gt;=K22),EUR_USD*LOOKUP(IF(I22="",E22,I22),{0,1,10,50,100,500,1000},{0,0.14,0.068,0.0458,0.0391,0.02804,0.02467}),"MOQ="&amp;K22),"")</f>
+        <v>3.6717062634989202E-2</v>
       </c>
       <c r="K22" s="8">
         <v>1</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="2"/>
-        <v>0.79200000000000004</v>
+        <v>4.4060475161987043</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="N22" s="8">
+        <v>19305</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9">
+        <f>IFERROR(IF(OR(O22&gt;=Q22,E22&gt;=Q22),LOOKUP(IF(O22="",E22,O22),{0,1,10,100,500,1000,4000},{0,0.132,0.106,0.042,0.035,0.018,0.016}),"MOQ="&amp;Q22),"")</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>1</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="3"/>
+        <v>5.04</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>64</v>
       </c>
@@ -4294,36 +7227,54 @@
       </c>
       <c r="E23" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="0"/>
-        <v>0.151</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>0.30199999999999999</v>
+        <v>2.52</v>
       </c>
       <c r="H23" s="8">
-        <v>8107</v>
+        <v>15215</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="9">
-        <f>IFERROR(IF(OR(I23&gt;=K23,E23&gt;=K23),LOOKUP(IF(I23="",E23,I23),{0,1,10,100,1000,5000,10000,25000},{0,0.151,0.128,0.05,0.019,0.018,0.017,0.016}),"MOQ="&amp;K23),"")</f>
-        <v>0.151</v>
+        <f>IFERROR(IF(OR(I23&gt;=K23,E23&gt;=K23),EUR_USD*LOOKUP(IF(I23="",E23,I23),{0,1,10,50,100,500,1000},{0,0.14,0.119,0.0626,0.0464,0.02804,0.01942}),"MOQ="&amp;K23),"")</f>
+        <v>0.11174758193257583</v>
       </c>
       <c r="K23" s="8">
         <v>1</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="2"/>
-        <v>0.30199999999999999</v>
+        <v>4.4699032773030334</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="N23" s="8">
+        <v>8107</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="9">
+        <f>IFERROR(IF(OR(O23&gt;=Q23,E23&gt;=Q23),LOOKUP(IF(O23="",E23,O23),{0,1,10,100,1000,5000,10000,25000,100000},{0,0.141,0.063,0.028,0.02,0.017,0.016,0.015,0.013}),"MOQ="&amp;Q23),"")</f>
+        <v>6.3E-2</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>1</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="3"/>
+        <v>2.52</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>67</v>
       </c>
@@ -4338,36 +7289,54 @@
       </c>
       <c r="E24" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>0.59399999999999997</v>
+        <v>0.43910226312329798</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="H24" s="8">
-        <v>2989</v>
+        <v>17.56409052493192</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="9">
-        <f>IFERROR(IF(OR(I24&gt;=K24,E24&gt;=K24),LOOKUP(IF(I24="",E24,I24),{0,1,10,25,100,250,500,1000,2000,5000},{0,0.594,0.563,0.535,0.486,0.457,0.418,0.349,0.339,0.316}),"MOQ="&amp;K24),"")</f>
-        <v>0.59399999999999997</v>
+        <f>IFERROR(IF(OR(I24&gt;=K24,E24&gt;=K24),EUR_USD*LOOKUP(IF(I24="",E24,I24),{0,1,10,25,100,250,500,1000,2500,5000},{0,0.5,0.485,0.4676,0.4045,0.36856,0.34158,0.30563,0.28944,0.26787}),"MOQ="&amp;K24),"")</f>
+        <v>0.43910226312329798</v>
       </c>
       <c r="K24" s="8">
         <v>1</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="2"/>
-        <v>1.1879999999999999</v>
+        <v>17.56409052493192</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="N24" s="8">
+        <v>2938</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="9">
+        <f>IFERROR(IF(OR(O24&gt;=Q24,E24&gt;=Q24),LOOKUP(IF(O24="",E24,O24),{0,1,10,25,100,250,500,1000,2000,5000},{0,0.594,0.563,0.535,0.486,0.457,0.418,0.349,0.339,0.316}),"MOQ="&amp;Q24),"")</f>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>1</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="3"/>
+        <v>21.400000000000002</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>71</v>
       </c>
@@ -4382,36 +7351,54 @@
       </c>
       <c r="E25" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="0"/>
-        <v>2.82</v>
+        <v>2.8171659310733403</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="1"/>
-        <v>2.82</v>
+        <v>56.343318621466807</v>
       </c>
       <c r="H25" s="8">
-        <v>25845</v>
+        <v>1</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="9">
-        <f>IFERROR(IF(OR(I25&gt;=K25,E25&gt;=K25),LOOKUP(IF(I25="",E25,I25),{0,1,650},{0,2.82,2.82}),"MOQ="&amp;K25),"")</f>
-        <v>2.82</v>
+        <f>IFERROR(IF(OR(I25&gt;=K25,E25&gt;=K25),EUR_USD*LOOKUP(IF(I25="",E25,I25),{0,1},{0,3}),"MOQ="&amp;K25),"")</f>
+        <v>2.8171659310733403</v>
       </c>
       <c r="K25" s="8">
         <v>1</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" si="2"/>
+        <v>56.343318621466807</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="8">
+        <v>18461</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="9">
+        <f>IFERROR(IF(OR(O25&gt;=Q25,E25&gt;=Q25),LOOKUP(IF(O25="",E25,O25),{0,1,650},{0,2.82,2.82}),"MOQ="&amp;Q25),"")</f>
         <v>2.82</v>
       </c>
-      <c r="M25" s="8" t="s">
-        <v>107</v>
+      <c r="Q25" s="8">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="3"/>
+        <v>56.4</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>74</v>
       </c>
@@ -4426,36 +7413,54 @@
       </c>
       <c r="E26" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" si="0"/>
-        <v>0.85499999999999998</v>
+        <v>0.85454033242557992</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="1"/>
-        <v>0.85499999999999998</v>
+        <v>17.090806648511599</v>
       </c>
       <c r="H26" s="8">
-        <v>1376</v>
+        <v>560</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="9">
-        <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),LOOKUP(IF(I26="",E26,I26),{0,1,25,100,4000},{0,0.855,0.724,0.667,0.667}),"MOQ="&amp;K26),"")</f>
-        <v>0.85499999999999998</v>
+        <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),EUR_USD*LOOKUP(IF(I26="",E26,I26),{0,1,25,100},{0,0.91,0.77,0.71}),"MOQ="&amp;K26),"")</f>
+        <v>0.85454033242557992</v>
       </c>
       <c r="K26" s="8">
         <v>1</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="2"/>
+        <v>17.090806648511599</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="8">
+        <v>955</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9">
+        <f>IFERROR(IF(OR(O26&gt;=Q26,E26&gt;=Q26),LOOKUP(IF(O26="",E26,O26),{0,1,25,100,4000},{0,0.855,0.724,0.667,0.667}),"MOQ="&amp;Q26),"")</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="M26" s="8" t="s">
-        <v>108</v>
+      <c r="Q26" s="8">
+        <v>1</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="3"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>77</v>
       </c>
@@ -4470,36 +7475,54 @@
       </c>
       <c r="E27" s="8">
         <f>CEILING(BoardQty*2,1)</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="0"/>
-        <v>0.996</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="1"/>
-        <v>1.992</v>
+        <v>25.880000000000003</v>
       </c>
       <c r="H27" s="8">
-        <v>13712</v>
+        <v>4749</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="9">
-        <f>IFERROR(IF(OR(I27&gt;=K27,E27&gt;=K27),LOOKUP(IF(I27="",E27,I27),{0,1,10,100,500,1000,3000,5000,10000,25000},{0,0.996,0.647,0.425,0.414,0.326,0.32,0.308,0.304,0.29}),"MOQ="&amp;K27),"")</f>
-        <v>0.996</v>
+        <f>IFERROR(IF(OR(I27&gt;=K27,E27&gt;=K27),EUR_USD*LOOKUP(IF(I27="",E27,I27),{0,1,10,100,1000,2000,5000,10000,25000},{0,1.07,0.697,0.4566,0.36048,0.33645,0.32443,0.31963,0.31242}),"MOQ="&amp;K27),"")</f>
+        <v>0.65452155131937273</v>
       </c>
       <c r="K27" s="8">
         <v>1</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="2"/>
-        <v>1.992</v>
+        <v>26.180862052774909</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="N27" s="8">
+        <v>13683</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9">
+        <f>IFERROR(IF(OR(O27&gt;=Q27,E27&gt;=Q27),LOOKUP(IF(O27="",E27,O27),{0,1,10,100,500,1000,3000,5000,10000,25000},{0,0.996,0.647,0.425,0.414,0.326,0.32,0.308,0.304,0.29}),"MOQ="&amp;Q27),"")</f>
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="3"/>
+        <v>25.880000000000003</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>81</v>
       </c>
@@ -4514,45 +7537,66 @@
       </c>
       <c r="E28" s="8">
         <f>CEILING(BoardQty*1,1)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="0"/>
-        <v>0.58299999999999996</v>
+        <v>0.47140576579960564</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="1"/>
-        <v>0.58299999999999996</v>
+        <v>9.4281153159921125</v>
       </c>
       <c r="H28" s="8">
-        <v>11471</v>
+        <v>93571</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="9">
-        <f>IFERROR(IF(OR(I28&gt;=K28,E28&gt;=K28),LOOKUP(IF(I28="",E28,I28),{0,1,10,100,500,1000,2000,5000,10000,25000},{0,0.583,0.484,0.387,0.368,0.309,0.289,0.28,0.27,0.26}),"MOQ="&amp;K28),"")</f>
-        <v>0.58299999999999996</v>
+        <f>IFERROR(IF(OR(I28&gt;=K28,E28&gt;=K28),EUR_USD*LOOKUP(IF(I28="",E28,I28),{0,1,10,50,100,500},{0,0.6,0.502,0.4522,0.402,0.38188}),"MOQ="&amp;K28),"")</f>
+        <v>0.47140576579960564</v>
       </c>
       <c r="K28" s="8">
         <v>1</v>
       </c>
       <c r="L28" s="10">
         <f t="shared" si="2"/>
-        <v>0.58299999999999996</v>
+        <v>9.4281153159921125</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="N28" s="8">
+        <v>25390</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="9">
+        <f>IFERROR(IF(OR(O28&gt;=Q28,E28&gt;=Q28),LOOKUP(IF(O28="",E28,O28),{0,1,10,100,500,1000,2000,5000,10000,25000},{0,0.583,0.484,0.387,0.368,0.309,0.289,0.28,0.27,0.26}),"MOQ="&amp;Q28),"")</f>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>1</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="3"/>
+        <v>9.68</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>138</v>
+      </c>
       <c r="F30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="5">
+        <f>SUM(L30,R30)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="G30" s="5">
-        <f>SUM(L30)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="I30" s="6" t="str">
         <f>IFERROR(IF(COUNTIF(I7:I28,"&gt;0")&gt;0,COUNTIF(I7:I28,"&gt;0")&amp;" of "&amp;(ROWS(K7:K28)-COUNTBLANK(K7:K28))&amp;" parts purchased",""),"")</f>
@@ -4562,848 +7606,1755 @@
         <f>SUMIF(I7:I28,"&gt;0",L7:L28)</f>
         <v>0</v>
       </c>
+      <c r="N30" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O30" s="6" t="str">
+        <f>IFERROR(IF(COUNTIF(O7:O28,"&gt;0")&gt;0,COUNTIF(O7:O28,"&gt;0")&amp;" of "&amp;(ROWS(Q7:Q28)-COUNTBLANK(Q7:Q28))&amp;" parts purchased",""),"")</f>
+        <v/>
+      </c>
+      <c r="R30" s="5">
+        <f>SUMIF(O7:O28,"&gt;0",R7:R28)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>124</v>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B31" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31">
+        <v>0.93905531035778012</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" s="15" t="str">
+        <v>137</v>
+      </c>
+      <c r="I31" s="16" t="str">
         <f>CONCATENATE(I54,I55,I56,I57,I58,I59,I60,I61,I62,I63,I64,I65,I66,I67,I68,I69,I70,I71,I72,I73,I74,I75)</f>
         <v/>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="O31" s="16" t="str">
+        <f>CONCATENATE(O54,O55,O56,O57,O58,O59,O60,O61,O62,O63,O64,O65,O66,O67,O68,O69,O70,O71,O72,O73,O74,O75)</f>
+        <v/>
+      </c>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
+    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
     </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
     </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
     </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
     </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
     </row>
-    <row r="40" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
     </row>
-    <row r="41" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
     </row>
-    <row r="42" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
     </row>
-    <row r="43" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
     </row>
-    <row r="44" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
     </row>
-    <row r="45" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
     </row>
-    <row r="46" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
     </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
     </row>
-    <row r="48" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
+    <row r="49" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
+    <row r="50" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
+    <row r="51" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
     </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
+    <row r="52" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
     </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
+    <row r="53" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
     </row>
-    <row r="54" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I54" t="str">
-        <f t="array" ref="I54:I75">IF(ISNUMBER(I7:I28)*(I7:I28&gt;=K7:K28)*(M7:M28&lt;&gt;""),M7:M28&amp;"|"&amp;TEXT(ROUNDUP(I7:I28/IF(ISNUMBER(K7:K28),K7:K28,1),0)*K7:K28,"##0")&amp;"|"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A28,"|",";")," ","_"),"
+        <f t="array" ref="I54:I75">IF(ISNUMBER(I7:I28)*(I7:I28&gt;=K7:K28)*(M7:M28&lt;&gt;""),TEXT(ROUNDUP(I7:I28/IF(ISNUMBER(K7:K28),K7:K28,1),0)*K7:K28,"##0")&amp;","&amp;M7:M28&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A28,",",";"),"
+"," ")&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="O54" t="str">
+        <f t="array" ref="O54:O75">IF(ISNUMBER(O7:O28)*(O7:O28&gt;=Q7:Q28)*(S7:S28&lt;&gt;""),S7:S28&amp;"|"&amp;TEXT(ROUNDUP(O7:O28/IF(ISNUMBER(Q7:Q28),Q7:Q28,1),0)*Q7:Q28,"##0")&amp;"|"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A28,"|",";")," ","_"),"
 ","_")&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I55" t="str">
         <v/>
       </c>
+      <c r="O55" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="56" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I56" t="str">
         <v/>
       </c>
+      <c r="O56" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="57" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I57" t="str">
         <v/>
       </c>
+      <c r="O57" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="58" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I58" t="str">
         <v/>
       </c>
+      <c r="O58" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="59" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I59" t="str">
         <v/>
       </c>
+      <c r="O59" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="60" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I60" t="str">
         <v/>
       </c>
+      <c r="O60" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="61" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I61" t="str">
         <v/>
       </c>
+      <c r="O61" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="62" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I62" t="str">
         <v/>
       </c>
+      <c r="O62" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="63" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I63" t="str">
         <v/>
       </c>
+      <c r="O63" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="64" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I64" t="str">
         <v/>
       </c>
+      <c r="O64" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="65" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I65" t="str">
         <v/>
       </c>
+      <c r="O65" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="66" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I66" t="str">
         <v/>
       </c>
+      <c r="O66" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="67" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I67" t="str">
         <v/>
       </c>
+      <c r="O67" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="68" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I68" t="str">
         <v/>
       </c>
+      <c r="O68" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="69" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I69" t="str">
         <v/>
       </c>
+      <c r="O69" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="70" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I70" t="str">
         <v/>
       </c>
+      <c r="O70" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="71" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I71" t="str">
         <v/>
       </c>
+      <c r="O71" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="72" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I72" t="str">
         <v/>
       </c>
+      <c r="O72" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="73" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I73" t="str">
         <v/>
       </c>
+      <c r="O73" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="74" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I74" t="str">
         <v/>
       </c>
+      <c r="O74" t="str">
+        <v/>
+      </c>
     </row>
-    <row r="75" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:15" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I75" t="str">
         <v/>
       </c>
+      <c r="O75" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="I31:L53"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="O31:R53"/>
   </mergeCells>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="131" priority="57">
-      <formula>AND(ISBLANK(D10),ISBLANK(L10))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="58">
-      <formula>IF(SUM(H10)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="59" operator="greaterThan">
-      <formula>SUM(H10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="60" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J10),I10,0))</formula>
+    <cfRule type="expression" dxfId="275" priority="201">
+      <formula>AND(ISBLANK(D10),ISBLANK(L10),ISBLANK(R10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="202">
+      <formula>IF(SUM(H10,N10)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="203" operator="greaterThan">
+      <formula>SUM(H10,N10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="204" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J10),I10,0),IF(ISNUMBER(P10),O10,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="127" priority="61">
-      <formula>AND(ISBLANK(D11),ISBLANK(L11))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="62">
-      <formula>IF(SUM(H11)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="63" operator="greaterThan">
-      <formula>SUM(H11)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="64" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J11),I11,0))</formula>
+    <cfRule type="expression" dxfId="271" priority="205">
+      <formula>AND(ISBLANK(D11),ISBLANK(L11),ISBLANK(R11))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="270" priority="206">
+      <formula>IF(SUM(H11,N11)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="207" operator="greaterThan">
+      <formula>SUM(H11,N11)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="208" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J11),I11,0),IF(ISNUMBER(P11),O11,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="123" priority="65">
-      <formula>AND(ISBLANK(D12),ISBLANK(L12))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="66">
-      <formula>IF(SUM(H12)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="67" operator="greaterThan">
-      <formula>SUM(H12)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="68" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J12),I12,0))</formula>
+    <cfRule type="expression" dxfId="267" priority="209">
+      <formula>AND(ISBLANK(D12),ISBLANK(L12),ISBLANK(R12))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="266" priority="210">
+      <formula>IF(SUM(H12,N12)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="211" operator="greaterThan">
+      <formula>SUM(H12,N12)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="212" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J12),I12,0),IF(ISNUMBER(P12),O12,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="119" priority="69">
-      <formula>AND(ISBLANK(D13),ISBLANK(L13))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="70">
-      <formula>IF(SUM(H13)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="71" operator="greaterThan">
-      <formula>SUM(H13)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="72" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J13),I13,0))</formula>
+    <cfRule type="expression" dxfId="263" priority="213">
+      <formula>AND(ISBLANK(D13),ISBLANK(L13),ISBLANK(R13))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="214">
+      <formula>IF(SUM(H13,N13)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="215" operator="greaterThan">
+      <formula>SUM(H13,N13)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="216" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J13),I13,0),IF(ISNUMBER(P13),O13,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="115" priority="73">
-      <formula>AND(ISBLANK(D14),ISBLANK(L14))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="74">
-      <formula>IF(SUM(H14)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="75" operator="greaterThan">
-      <formula>SUM(H14)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="76" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J14),I14,0))</formula>
+    <cfRule type="expression" dxfId="259" priority="217">
+      <formula>AND(ISBLANK(D14),ISBLANK(L14),ISBLANK(R14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="218">
+      <formula>IF(SUM(H14,N14)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="219" operator="greaterThan">
+      <formula>SUM(H14,N14)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="220" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J14),I14,0),IF(ISNUMBER(P14),O14,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="111" priority="77">
-      <formula>AND(ISBLANK(D15),ISBLANK(L15))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="78">
-      <formula>IF(SUM(H15)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="79" operator="greaterThan">
-      <formula>SUM(H15)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="80" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J15),I15,0))</formula>
+    <cfRule type="expression" dxfId="255" priority="221">
+      <formula>AND(ISBLANK(D15),ISBLANK(L15),ISBLANK(R15))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="222">
+      <formula>IF(SUM(H15,N15)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="223" operator="greaterThan">
+      <formula>SUM(H15,N15)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="224" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J15),I15,0),IF(ISNUMBER(P15),O15,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="107" priority="81">
-      <formula>AND(ISBLANK(D16),ISBLANK(L16))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="82">
-      <formula>IF(SUM(H16)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="83" operator="greaterThan">
-      <formula>SUM(H16)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="84" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J16),I16,0))</formula>
+    <cfRule type="expression" dxfId="251" priority="225">
+      <formula>AND(ISBLANK(D16),ISBLANK(L16),ISBLANK(R16))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="226">
+      <formula>IF(SUM(H16,N16)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="227" operator="greaterThan">
+      <formula>SUM(H16,N16)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="228" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J16),I16,0),IF(ISNUMBER(P16),O16,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="103" priority="85">
-      <formula>AND(ISBLANK(D17),ISBLANK(L17))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="86">
-      <formula>IF(SUM(H17)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="87" operator="greaterThan">
-      <formula>SUM(H17)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="88" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J17),I17,0))</formula>
+    <cfRule type="expression" dxfId="247" priority="229">
+      <formula>AND(ISBLANK(D17),ISBLANK(L17),ISBLANK(R17))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="246" priority="230">
+      <formula>IF(SUM(H17,N17)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="231" operator="greaterThan">
+      <formula>SUM(H17,N17)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="232" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J17),I17,0),IF(ISNUMBER(P17),O17,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="99" priority="89">
-      <formula>AND(ISBLANK(D18),ISBLANK(L18))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="90">
-      <formula>IF(SUM(H18)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="91" operator="greaterThan">
-      <formula>SUM(H18)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="92" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J18),I18,0))</formula>
+    <cfRule type="expression" dxfId="243" priority="233">
+      <formula>AND(ISBLANK(D18),ISBLANK(L18),ISBLANK(R18))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="234">
+      <formula>IF(SUM(H18,N18)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="235" operator="greaterThan">
+      <formula>SUM(H18,N18)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="236" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J18),I18,0),IF(ISNUMBER(P18),O18,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="95" priority="93">
-      <formula>AND(ISBLANK(D19),ISBLANK(L19))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="94">
-      <formula>IF(SUM(H19)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="greaterThan">
-      <formula>SUM(H19)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="96" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J19),I19,0))</formula>
+    <cfRule type="expression" dxfId="239" priority="237">
+      <formula>AND(ISBLANK(D19),ISBLANK(L19),ISBLANK(R19))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="238" priority="238">
+      <formula>IF(SUM(H19,N19)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="239" operator="greaterThan">
+      <formula>SUM(H19,N19)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="240" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J19),I19,0),IF(ISNUMBER(P19),O19,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="91" priority="97">
-      <formula>AND(ISBLANK(D20),ISBLANK(L20))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="98">
-      <formula>IF(SUM(H20)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="99" operator="greaterThan">
-      <formula>SUM(H20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="100" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J20),I20,0))</formula>
+    <cfRule type="expression" dxfId="235" priority="241">
+      <formula>AND(ISBLANK(D20),ISBLANK(L20),ISBLANK(R20))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="234" priority="242">
+      <formula>IF(SUM(H20,N20)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="243" operator="greaterThan">
+      <formula>SUM(H20,N20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="244" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J20),I20,0),IF(ISNUMBER(P20),O20,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="87" priority="101">
-      <formula>AND(ISBLANK(D21),ISBLANK(L21))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="102">
-      <formula>IF(SUM(H21)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="103" operator="greaterThan">
-      <formula>SUM(H21)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="104" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J21),I21,0))</formula>
+    <cfRule type="expression" dxfId="231" priority="245">
+      <formula>AND(ISBLANK(D21),ISBLANK(L21),ISBLANK(R21))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="246">
+      <formula>IF(SUM(H21,N21)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="247" operator="greaterThan">
+      <formula>SUM(H21,N21)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="248" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J21),I21,0),IF(ISNUMBER(P21),O21,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="83" priority="105">
-      <formula>AND(ISBLANK(D22),ISBLANK(L22))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="106">
-      <formula>IF(SUM(H22)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="107" operator="greaterThan">
-      <formula>SUM(H22)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="108" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J22),I22,0))</formula>
+    <cfRule type="expression" dxfId="227" priority="249">
+      <formula>AND(ISBLANK(D22),ISBLANK(L22),ISBLANK(R22))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="250">
+      <formula>IF(SUM(H22,N22)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="251" operator="greaterThan">
+      <formula>SUM(H22,N22)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="252" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J22),I22,0),IF(ISNUMBER(P22),O22,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="79" priority="109">
-      <formula>AND(ISBLANK(D23),ISBLANK(L23))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="110">
-      <formula>IF(SUM(H23)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="111" operator="greaterThan">
-      <formula>SUM(H23)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="112" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J23),I23,0))</formula>
+    <cfRule type="expression" dxfId="223" priority="253">
+      <formula>AND(ISBLANK(D23),ISBLANK(L23),ISBLANK(R23))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="254">
+      <formula>IF(SUM(H23,N23)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="255" operator="greaterThan">
+      <formula>SUM(H23,N23)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="256" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J23),I23,0),IF(ISNUMBER(P23),O23,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="75" priority="113">
-      <formula>AND(ISBLANK(D24),ISBLANK(L24))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="114">
-      <formula>IF(SUM(H24)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="115" operator="greaterThan">
-      <formula>SUM(H24)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="116" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J24),I24,0))</formula>
+    <cfRule type="expression" dxfId="219" priority="257">
+      <formula>AND(ISBLANK(D24),ISBLANK(L24),ISBLANK(R24))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="258">
+      <formula>IF(SUM(H24,N24)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="259" operator="greaterThan">
+      <formula>SUM(H24,N24)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="260" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J24),I24,0),IF(ISNUMBER(P24),O24,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="71" priority="117">
-      <formula>AND(ISBLANK(D25),ISBLANK(L25))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="118">
-      <formula>IF(SUM(H25)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="119" operator="greaterThan">
-      <formula>SUM(H25)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="120" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J25),I25,0))</formula>
+    <cfRule type="expression" dxfId="215" priority="261">
+      <formula>AND(ISBLANK(D25),ISBLANK(L25),ISBLANK(R25))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="262">
+      <formula>IF(SUM(H25,N25)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="263" operator="greaterThan">
+      <formula>SUM(H25,N25)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="264" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J25),I25,0),IF(ISNUMBER(P25),O25,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="67" priority="121">
-      <formula>AND(ISBLANK(D26),ISBLANK(L26))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="122">
-      <formula>IF(SUM(H26)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="123" operator="greaterThan">
-      <formula>SUM(H26)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="124" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J26),I26,0))</formula>
+    <cfRule type="expression" dxfId="211" priority="265">
+      <formula>AND(ISBLANK(D26),ISBLANK(L26),ISBLANK(R26))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="266">
+      <formula>IF(SUM(H26,N26)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="267" operator="greaterThan">
+      <formula>SUM(H26,N26)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="268" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J26),I26,0),IF(ISNUMBER(P26),O26,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="63" priority="125">
-      <formula>AND(ISBLANK(D27),ISBLANK(L27))</formula>
-    </cfRule>
+    <cfRule type="expression" dxfId="207" priority="269">
+      <formula>AND(ISBLANK(D27),ISBLANK(L27),ISBLANK(R27))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="270">
+      <formula>IF(SUM(H27,N27)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="271" operator="greaterThan">
+      <formula>SUM(H27,N27)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="272" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J27),I27,0),IF(ISNUMBER(P27),O27,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="expression" dxfId="203" priority="273">
+      <formula>AND(ISBLANK(D28),ISBLANK(L28),ISBLANK(R28))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="274">
+      <formula>IF(SUM(H28,N28)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="275" operator="greaterThan">
+      <formula>SUM(H28,N28)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="276" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J28),I28,0),IF(ISNUMBER(P28),O28,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="199" priority="189">
+      <formula>AND(ISBLANK(D7),ISBLANK(L7),ISBLANK(R7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="190">
+      <formula>IF(SUM(H7,N7)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="191" operator="greaterThan">
+      <formula>SUM(H7,N7)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="192" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J7),I7,0),IF(ISNUMBER(P7),O7,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="195" priority="193">
+      <formula>AND(ISBLANK(D8),ISBLANK(L8),ISBLANK(R8))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="194">
+      <formula>IF(SUM(H8,N8)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="195" operator="greaterThan">
+      <formula>SUM(H8,N8)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="196" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J8),I8,0),IF(ISNUMBER(P8),O8,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="191" priority="197">
+      <formula>AND(ISBLANK(D9),ISBLANK(L9),ISBLANK(R9))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="198">
+      <formula>IF(SUM(H9,N9)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="199" operator="greaterThan">
+      <formula>SUM(H9,N9)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="200" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J9),I9,0),IF(ISNUMBER(P9),O9,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="187" priority="17" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="186" priority="21" operator="lessThan">
+      <formula>E11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="185" priority="25" operator="lessThan">
+      <formula>E12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="184" priority="29" operator="lessThan">
+      <formula>E13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="183" priority="37" operator="lessThan">
+      <formula>E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="182" priority="41" operator="lessThan">
+      <formula>E15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="181" priority="45" operator="lessThan">
+      <formula>E16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="180" priority="49" operator="lessThan">
+      <formula>E17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="179" priority="53" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="178" priority="57" operator="lessThan">
+      <formula>E19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="177" priority="61" operator="lessThan">
+      <formula>E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="176" priority="69" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="175" priority="73" operator="lessThan">
+      <formula>E22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="174" priority="77" operator="lessThan">
+      <formula>E23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="173" priority="81" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="172" priority="85" operator="lessThan">
+      <formula>E25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="171" priority="89" operator="lessThan">
+      <formula>E26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="170" priority="93" operator="lessThan">
+      <formula>E27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="169" priority="97" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="168" priority="1" operator="lessThan">
+      <formula>E7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="167" priority="5" operator="lessThan">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="166" priority="13" operator="lessThan">
+      <formula>E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="165" priority="18">
+      <formula>AND(NOT(ISBLANK(I10)),OR(H10="NonStk",I10&gt;H10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="164" priority="22">
+      <formula>AND(NOT(ISBLANK(I11)),OR(H11="NonStk",I11&gt;H11))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="163" priority="26">
+      <formula>AND(NOT(ISBLANK(I12)),OR(H12="NonStk",I12&gt;H12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="162" priority="30">
+      <formula>AND(I13&gt;0,MOD(I13,K13)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="31">
+      <formula>AND(NOT(ISBLANK(I13)),OR(H13="NonStk",I13&gt;H13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="160" priority="38">
+      <formula>AND(NOT(ISBLANK(I14)),OR(H14="NonStk",I14&gt;H14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="159" priority="42">
+      <formula>AND(NOT(ISBLANK(I15)),OR(H15="NonStk",I15&gt;H15))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="158" priority="46">
+      <formula>AND(NOT(ISBLANK(I16)),OR(H16="NonStk",I16&gt;H16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="157" priority="50">
+      <formula>AND(NOT(ISBLANK(I17)),OR(H17="NonStk",I17&gt;H17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="156" priority="54">
+      <formula>AND(NOT(ISBLANK(I18)),OR(H18="NonStk",I18&gt;H18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="155" priority="58">
+      <formula>AND(NOT(ISBLANK(I19)),OR(H19="NonStk",I19&gt;H19))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="154" priority="62">
+      <formula>AND(I20&gt;0,MOD(I20,K20)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="63">
+      <formula>AND(NOT(ISBLANK(I20)),OR(H20="NonStk",I20&gt;H20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="152" priority="70">
+      <formula>AND(NOT(ISBLANK(I21)),OR(H21="NonStk",I21&gt;H21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="151" priority="74">
+      <formula>AND(NOT(ISBLANK(I22)),OR(H22="NonStk",I22&gt;H22))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="150" priority="78">
+      <formula>AND(NOT(ISBLANK(I23)),OR(H23="NonStk",I23&gt;H23))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="149" priority="82">
+      <formula>AND(NOT(ISBLANK(I24)),OR(H24="NonStk",I24&gt;H24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="148" priority="86">
+      <formula>AND(NOT(ISBLANK(I25)),OR(H25="NonStk",I25&gt;H25))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="147" priority="90">
+      <formula>AND(NOT(ISBLANK(I26)),OR(H26="NonStk",I26&gt;H26))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="146" priority="94">
+      <formula>AND(NOT(ISBLANK(I27)),OR(H27="NonStk",I27&gt;H27))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="145" priority="98">
+      <formula>AND(NOT(ISBLANK(I28)),OR(H28="NonStk",I28&gt;H28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="144" priority="2">
+      <formula>AND(NOT(ISBLANK(I7)),OR(H7="NonStk",I7&gt;H7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="expression" dxfId="143" priority="6">
+      <formula>AND(I8&gt;0,MOD(I8,K8)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="7">
+      <formula>AND(NOT(ISBLANK(I8)),OR(H8="NonStk",I8&gt;H8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="141" priority="14">
+      <formula>AND(NOT(ISBLANK(I9)),OR(H9="NonStk",I9&gt;H9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="140" priority="20" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="139" priority="24" operator="lessThanOrEqual">
+      <formula>F11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="138" priority="28" operator="lessThanOrEqual">
+      <formula>F12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="137" priority="33" operator="lessThanOrEqual">
+      <formula>F13</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="34">
+      <formula>AND(E13&lt;5000,I13&lt;5000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="135" priority="40" operator="lessThanOrEqual">
+      <formula>F14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="134" priority="44" operator="lessThanOrEqual">
+      <formula>F15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="cellIs" dxfId="133" priority="48" operator="lessThanOrEqual">
+      <formula>F16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="132" priority="52" operator="lessThanOrEqual">
+      <formula>F17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="131" priority="56" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="130" priority="60" operator="lessThanOrEqual">
+      <formula>F19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="129" priority="65" operator="lessThanOrEqual">
+      <formula>F20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="66">
+      <formula>AND(E20&lt;4000,I20&lt;4000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="127" priority="72" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="cellIs" dxfId="126" priority="76" operator="lessThanOrEqual">
+      <formula>F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="125" priority="80" operator="lessThanOrEqual">
+      <formula>F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="cellIs" dxfId="124" priority="84" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="cellIs" dxfId="123" priority="88" operator="lessThanOrEqual">
+      <formula>F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="122" priority="92" operator="lessThanOrEqual">
+      <formula>F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" dxfId="121" priority="96" operator="lessThanOrEqual">
+      <formula>F27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="cellIs" dxfId="120" priority="100" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="119" priority="4" operator="lessThanOrEqual">
+      <formula>F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="118" priority="9" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="10">
+      <formula>AND(E8&lt;8000,I8&lt;8000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="116" priority="16" operator="lessThanOrEqual">
+      <formula>F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="expression" dxfId="115" priority="35">
+      <formula>AND(E13&lt;5000,I13&lt;5000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="expression" dxfId="114" priority="67">
+      <formula>AND(E20&lt;4000,I20&lt;4000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="113" priority="11">
+      <formula>AND(E8&lt;8000,I8&lt;8000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="112" priority="19" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="111" priority="23" operator="lessThanOrEqual">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="110" priority="27" operator="lessThanOrEqual">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="109" priority="32" operator="lessThanOrEqual">
+      <formula>G13</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="36">
+      <formula>AND(E13&lt;5000,I13&lt;5000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="107" priority="39" operator="lessThanOrEqual">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="106" priority="43" operator="lessThanOrEqual">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="cellIs" dxfId="105" priority="47" operator="lessThanOrEqual">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="cellIs" dxfId="104" priority="51" operator="lessThanOrEqual">
+      <formula>G17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="cellIs" dxfId="103" priority="55" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="102" priority="59" operator="lessThanOrEqual">
+      <formula>G19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="101" priority="64" operator="lessThanOrEqual">
+      <formula>G20</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="68">
+      <formula>AND(E20&lt;4000,I20&lt;4000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="cellIs" dxfId="99" priority="71" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="98" priority="75" operator="lessThanOrEqual">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="cellIs" dxfId="97" priority="79" operator="lessThanOrEqual">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="cellIs" dxfId="96" priority="83" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="cellIs" dxfId="95" priority="87" operator="lessThanOrEqual">
+      <formula>G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="94" priority="91" operator="lessThanOrEqual">
+      <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="lessThanOrEqual">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="cellIs" dxfId="92" priority="99" operator="lessThanOrEqual">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="90" priority="8" operator="lessThanOrEqual">
+      <formula>G8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="12">
+      <formula>AND(E8&lt;8000,I8&lt;8000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="cellIs" dxfId="88" priority="15" operator="lessThanOrEqual">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="cellIs" dxfId="87" priority="113" operator="lessThan">
+      <formula>E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="cellIs" dxfId="86" priority="117" operator="lessThan">
+      <formula>E11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="cellIs" dxfId="85" priority="121" operator="lessThan">
+      <formula>E12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="cellIs" dxfId="84" priority="125" operator="lessThan">
+      <formula>E13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="cellIs" dxfId="83" priority="129" operator="lessThan">
+      <formula>E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="cellIs" dxfId="82" priority="133" operator="lessThan">
+      <formula>E15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="cellIs" dxfId="81" priority="137" operator="lessThan">
+      <formula>E16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="cellIs" dxfId="80" priority="141" operator="lessThan">
+      <formula>E17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="cellIs" dxfId="79" priority="145" operator="lessThan">
+      <formula>E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="cellIs" dxfId="78" priority="149" operator="lessThan">
+      <formula>E19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="cellIs" dxfId="77" priority="153" operator="lessThan">
+      <formula>E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="cellIs" dxfId="76" priority="157" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="cellIs" dxfId="75" priority="161" operator="lessThan">
+      <formula>E22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="cellIs" dxfId="74" priority="165" operator="lessThan">
+      <formula>E23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="cellIs" dxfId="73" priority="169" operator="lessThan">
+      <formula>E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="cellIs" dxfId="72" priority="173" operator="lessThan">
+      <formula>E25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="cellIs" dxfId="71" priority="177" operator="lessThan">
+      <formula>E26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="cellIs" dxfId="70" priority="181" operator="lessThan">
+      <formula>E27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="cellIs" dxfId="69" priority="185" operator="lessThan">
+      <formula>E28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="cellIs" dxfId="68" priority="101" operator="lessThan">
+      <formula>E7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="cellIs" dxfId="67" priority="105" operator="lessThan">
+      <formula>E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="cellIs" dxfId="66" priority="109" operator="lessThan">
+      <formula>E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="65" priority="114">
+      <formula>AND(NOT(ISBLANK(O10)),OR(N10="NonStk",O10&gt;N10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="expression" dxfId="64" priority="118">
+      <formula>AND(NOT(ISBLANK(O11)),OR(N11="NonStk",O11&gt;N11))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="expression" dxfId="63" priority="122">
+      <formula>AND(NOT(ISBLANK(O12)),OR(N12="NonStk",O12&gt;N12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
     <cfRule type="expression" dxfId="62" priority="126">
-      <formula>IF(SUM(H27)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="127" operator="greaterThan">
-      <formula>SUM(H27)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="128" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J27),I27,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="59" priority="129">
-      <formula>AND(ISBLANK(D28),ISBLANK(L28))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="130">
-      <formula>IF(SUM(H28)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="131" operator="greaterThan">
-      <formula>SUM(H28)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="132" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J28),I28,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="55" priority="45">
-      <formula>AND(ISBLANK(D7),ISBLANK(L7))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="46">
-      <formula>IF(SUM(H7)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="47" operator="greaterThan">
-      <formula>SUM(H7)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="48" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J7),I7,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="51" priority="49">
-      <formula>AND(ISBLANK(D8),ISBLANK(L8))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="50">
-      <formula>IF(SUM(H8)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="greaterThan">
-      <formula>SUM(H8)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J8),I8,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="47" priority="53">
-      <formula>AND(ISBLANK(D9),ISBLANK(L9))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="54">
-      <formula>IF(SUM(H9)=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="55" operator="greaterThan">
-      <formula>SUM(H9)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="56" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(J9),I9,0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="lessThan">
-      <formula>E10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="lessThan">
-      <formula>E11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="lessThan">
-      <formula>E12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="lessThan">
-      <formula>E13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="lessThan">
-      <formula>E14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="38" priority="17" operator="lessThan">
-      <formula>E15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="lessThan">
-      <formula>E16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="36" priority="21" operator="lessThan">
-      <formula>E17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="35" priority="23" operator="lessThan">
-      <formula>E18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="lessThan">
-      <formula>E19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="lessThan">
-      <formula>E20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="lessThan">
-      <formula>E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="lessThan">
-      <formula>E22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="lessThan">
-      <formula>E23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="lessThan">
-      <formula>E24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="lessThan">
-      <formula>E25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="lessThan">
-      <formula>E26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="26" priority="41" operator="lessThan">
-      <formula>E27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="lessThan">
-      <formula>E28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="lessThan">
-      <formula>E7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="lessThan">
-      <formula>E8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="lessThan">
-      <formula>E9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="21" priority="8">
-      <formula>AND(NOT(ISBLANK(I10)),OR(H10="NonStk",I10&gt;H10))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="20" priority="10">
-      <formula>AND(NOT(ISBLANK(I11)),OR(H11="NonStk",I11&gt;H11))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="19" priority="12">
-      <formula>AND(NOT(ISBLANK(I12)),OR(H12="NonStk",I12&gt;H12))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="18" priority="14">
-      <formula>AND(NOT(ISBLANK(I13)),OR(H13="NonStk",I13&gt;H13))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="17" priority="16">
-      <formula>AND(NOT(ISBLANK(I14)),OR(H14="NonStk",I14&gt;H14))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>AND(NOT(ISBLANK(I15)),OR(H15="NonStk",I15&gt;H15))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="15" priority="20">
-      <formula>AND(NOT(ISBLANK(I16)),OR(H16="NonStk",I16&gt;H16))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>AND(NOT(ISBLANK(I17)),OR(H17="NonStk",I17&gt;H17))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="13" priority="24">
-      <formula>AND(NOT(ISBLANK(I18)),OR(H18="NonStk",I18&gt;H18))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="12" priority="26">
-      <formula>AND(NOT(ISBLANK(I19)),OR(H19="NonStk",I19&gt;H19))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="11" priority="28">
-      <formula>AND(NOT(ISBLANK(I20)),OR(H20="NonStk",I20&gt;H20))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="10" priority="30">
-      <formula>AND(NOT(ISBLANK(I21)),OR(H21="NonStk",I21&gt;H21))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="9" priority="32">
-      <formula>AND(NOT(ISBLANK(I22)),OR(H22="NonStk",I22&gt;H22))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="8" priority="34">
-      <formula>AND(NOT(ISBLANK(I23)),OR(H23="NonStk",I23&gt;H23))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="7" priority="36">
-      <formula>AND(NOT(ISBLANK(I24)),OR(H24="NonStk",I24&gt;H24))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="6" priority="38">
-      <formula>AND(NOT(ISBLANK(I25)),OR(H25="NonStk",I25&gt;H25))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="5" priority="40">
-      <formula>AND(NOT(ISBLANK(I26)),OR(H26="NonStk",I26&gt;H26))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="4" priority="42">
-      <formula>AND(NOT(ISBLANK(I27)),OR(H27="NonStk",I27&gt;H27))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="3" priority="44">
-      <formula>AND(NOT(ISBLANK(I28)),OR(H28="NonStk",I28&gt;H28))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(NOT(ISBLANK(I7)),OR(H7="NonStk",I7&gt;H7))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(NOT(ISBLANK(I8)),OR(H8="NonStk",I8&gt;H8))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(NOT(ISBLANK(I9)),OR(H9="NonStk",I9&gt;H9))</formula>
+      <formula>AND(NOT(ISBLANK(O13)),OR(N13="NonStk",O13&gt;N13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="61" priority="130">
+      <formula>AND(NOT(ISBLANK(O14)),OR(N14="NonStk",O14&gt;N14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="expression" dxfId="60" priority="134">
+      <formula>AND(NOT(ISBLANK(O15)),OR(N15="NonStk",O15&gt;N15))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="expression" dxfId="59" priority="138">
+      <formula>AND(NOT(ISBLANK(O16)),OR(N16="NonStk",O16&gt;N16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17">
+    <cfRule type="expression" dxfId="58" priority="142">
+      <formula>AND(NOT(ISBLANK(O17)),OR(N17="NonStk",O17&gt;N17))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18">
+    <cfRule type="expression" dxfId="57" priority="146">
+      <formula>AND(NOT(ISBLANK(O18)),OR(N18="NonStk",O18&gt;N18))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19">
+    <cfRule type="expression" dxfId="56" priority="150">
+      <formula>AND(NOT(ISBLANK(O19)),OR(N19="NonStk",O19&gt;N19))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="expression" dxfId="55" priority="154">
+      <formula>AND(NOT(ISBLANK(O20)),OR(N20="NonStk",O20&gt;N20))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21">
+    <cfRule type="expression" dxfId="54" priority="158">
+      <formula>AND(NOT(ISBLANK(O21)),OR(N21="NonStk",O21&gt;N21))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22">
+    <cfRule type="expression" dxfId="53" priority="162">
+      <formula>AND(NOT(ISBLANK(O22)),OR(N22="NonStk",O22&gt;N22))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="expression" dxfId="52" priority="166">
+      <formula>AND(NOT(ISBLANK(O23)),OR(N23="NonStk",O23&gt;N23))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="expression" dxfId="51" priority="170">
+      <formula>AND(NOT(ISBLANK(O24)),OR(N24="NonStk",O24&gt;N24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="expression" dxfId="50" priority="174">
+      <formula>AND(NOT(ISBLANK(O25)),OR(N25="NonStk",O25&gt;N25))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="expression" dxfId="49" priority="178">
+      <formula>AND(NOT(ISBLANK(O26)),OR(N26="NonStk",O26&gt;N26))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27">
+    <cfRule type="expression" dxfId="48" priority="182">
+      <formula>AND(NOT(ISBLANK(O27)),OR(N27="NonStk",O27&gt;N27))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28">
+    <cfRule type="expression" dxfId="47" priority="186">
+      <formula>AND(NOT(ISBLANK(O28)),OR(N28="NonStk",O28&gt;N28))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="expression" dxfId="46" priority="102">
+      <formula>AND(NOT(ISBLANK(O7)),OR(N7="NonStk",O7&gt;N7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="expression" dxfId="45" priority="106">
+      <formula>AND(NOT(ISBLANK(O8)),OR(N8="NonStk",O8&gt;N8))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="44" priority="110">
+      <formula>AND(NOT(ISBLANK(O9)),OR(N9="NonStk",O9&gt;N9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="cellIs" dxfId="43" priority="116" operator="lessThanOrEqual">
+      <formula>F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="cellIs" dxfId="42" priority="120" operator="lessThanOrEqual">
+      <formula>F11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12">
+    <cfRule type="cellIs" dxfId="41" priority="124" operator="lessThanOrEqual">
+      <formula>F12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13">
+    <cfRule type="cellIs" dxfId="40" priority="128" operator="lessThanOrEqual">
+      <formula>F13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="cellIs" dxfId="39" priority="132" operator="lessThanOrEqual">
+      <formula>F14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15">
+    <cfRule type="cellIs" dxfId="38" priority="136" operator="lessThanOrEqual">
+      <formula>F15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="cellIs" dxfId="37" priority="140" operator="lessThanOrEqual">
+      <formula>F16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17">
+    <cfRule type="cellIs" dxfId="36" priority="144" operator="lessThanOrEqual">
+      <formula>F17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="cellIs" dxfId="35" priority="148" operator="lessThanOrEqual">
+      <formula>F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
+    <cfRule type="cellIs" dxfId="34" priority="152" operator="lessThanOrEqual">
+      <formula>F19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20">
+    <cfRule type="cellIs" dxfId="33" priority="156" operator="lessThanOrEqual">
+      <formula>F20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21">
+    <cfRule type="cellIs" dxfId="32" priority="160" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22">
+    <cfRule type="cellIs" dxfId="31" priority="164" operator="lessThanOrEqual">
+      <formula>F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="cellIs" dxfId="30" priority="168" operator="lessThanOrEqual">
+      <formula>F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P24">
+    <cfRule type="cellIs" dxfId="29" priority="172" operator="lessThanOrEqual">
+      <formula>F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25">
+    <cfRule type="cellIs" dxfId="28" priority="176" operator="lessThanOrEqual">
+      <formula>F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26">
+    <cfRule type="cellIs" dxfId="27" priority="180" operator="lessThanOrEqual">
+      <formula>F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27">
+    <cfRule type="cellIs" dxfId="26" priority="184" operator="lessThanOrEqual">
+      <formula>F27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28">
+    <cfRule type="cellIs" dxfId="25" priority="188" operator="lessThanOrEqual">
+      <formula>F28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7">
+    <cfRule type="cellIs" dxfId="24" priority="104" operator="lessThanOrEqual">
+      <formula>F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="cellIs" dxfId="23" priority="108" operator="lessThanOrEqual">
+      <formula>F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9">
+    <cfRule type="cellIs" dxfId="22" priority="112" operator="lessThanOrEqual">
+      <formula>F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="cellIs" dxfId="21" priority="115" operator="lessThanOrEqual">
+      <formula>G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="cellIs" dxfId="20" priority="119" operator="lessThanOrEqual">
+      <formula>G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12">
+    <cfRule type="cellIs" dxfId="19" priority="123" operator="lessThanOrEqual">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="cellIs" dxfId="18" priority="127" operator="lessThanOrEqual">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="cellIs" dxfId="17" priority="131" operator="lessThanOrEqual">
+      <formula>G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="16" priority="135" operator="lessThanOrEqual">
+      <formula>G15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="cellIs" dxfId="15" priority="139" operator="lessThanOrEqual">
+      <formula>G16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="cellIs" dxfId="14" priority="143" operator="lessThanOrEqual">
+      <formula>G17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="13" priority="147" operator="lessThanOrEqual">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="cellIs" dxfId="12" priority="151" operator="lessThanOrEqual">
+      <formula>G19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
+    <cfRule type="cellIs" dxfId="11" priority="155" operator="lessThanOrEqual">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
+    <cfRule type="cellIs" dxfId="10" priority="159" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="9" priority="163" operator="lessThanOrEqual">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R23">
+    <cfRule type="cellIs" dxfId="8" priority="167" operator="lessThanOrEqual">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="cellIs" dxfId="7" priority="171" operator="lessThanOrEqual">
+      <formula>G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25">
+    <cfRule type="cellIs" dxfId="6" priority="175" operator="lessThanOrEqual">
+      <formula>G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
+    <cfRule type="cellIs" dxfId="5" priority="179" operator="lessThanOrEqual">
+      <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27">
+    <cfRule type="cellIs" dxfId="4" priority="183" operator="lessThanOrEqual">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="cellIs" dxfId="3" priority="187" operator="lessThanOrEqual">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="cellIs" dxfId="2" priority="103" operator="lessThanOrEqual">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
+    <cfRule type="cellIs" dxfId="1" priority="107" operator="lessThanOrEqual">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="cellIs" dxfId="0" priority="111" operator="lessThanOrEqual">
+      <formula>G9</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="M7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D21" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M21" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D22" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M22" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D23" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M23" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D24" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M24" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D25" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M25" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D26" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M26" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D27" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="M27" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D28" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M28" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="H30" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="S7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="S8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="S9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="S10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="S11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="S12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="S13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M14" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="S14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="S15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="S16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="S17" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="S18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D19" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M19" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="S19" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M20" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="S20" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D21" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M21" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="S21" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D22" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="M22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="S22" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D23" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="M23" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="S23" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D24" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="M24" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="S24" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D25" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M25" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="S25" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D26" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="M26" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="S26" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D27" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M27" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="S27" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D28" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="M28" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="S28" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H30" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="N30" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId46"/>
+  <legacyDrawing r:id="rId69"/>
 </worksheet>
 </file>
--- a/CaptorBoard.xlsx
+++ b/CaptorBoard.xlsx
@@ -1,31 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippefouquet/Documents/Developpement/Electronique/CaptorBoard/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9F8F84-2D1E-DE42-A4CE-CA8D42F2EE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25660" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CaptorBoard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="BoardQty" localSheetId="0">'CaptorBoard'!$G$1</definedName>
-    <definedName name="EUR_USD" localSheetId="0">'CaptorBoard'!$C$32</definedName>
-    <definedName name="PURCHASE_DESCRIPTION" localSheetId="0">'CaptorBoard'!$G$33</definedName>
-    <definedName name="TotalCost" localSheetId="0">'CaptorBoard'!$G$3</definedName>
+    <definedName name="BoardQty" localSheetId="0">CaptorBoard!$G$1</definedName>
+    <definedName name="EUR_USD" localSheetId="0">CaptorBoard!$C$32</definedName>
+    <definedName name="PURCHASE_DESCRIPTION" localSheetId="0">CaptorBoard!$G$33</definedName>
+    <definedName name="TotalCost" localSheetId="0">CaptorBoard!$G$3</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -64,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -293,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0">
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -351,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -425,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J12" authorId="0">
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -445,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0">
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -459,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -480,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0">
+    <comment ref="M13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="0">
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -514,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0">
+    <comment ref="M14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -529,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -548,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0">
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -563,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -587,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="0">
+    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -600,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M17" authorId="0">
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -637,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -660,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0">
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -676,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0">
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -696,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0">
+    <comment ref="M19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -710,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -731,7 +750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M20" authorId="0">
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -750,7 +769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J21" authorId="0">
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M21" authorId="0">
+    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -790,7 +809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -811,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0">
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -830,7 +849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -851,7 +870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0">
+    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
         <r>
           <rPr>
@@ -870,7 +889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J24" authorId="0">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
         <r>
           <rPr>
@@ -891,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M24" authorId="0">
+    <comment ref="M24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -910,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -934,7 +953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M25" authorId="0">
+    <comment ref="M25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -948,7 +967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="0">
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -972,7 +991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M26" authorId="0">
+    <comment ref="M26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -985,7 +1004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
       <text>
         <r>
           <rPr>
@@ -1001,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M27" authorId="0">
+    <comment ref="M27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -1034,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="0">
+    <comment ref="M28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0">
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1071,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M29" authorId="0">
+    <comment ref="M29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J30" authorId="0">
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M30" authorId="0">
+    <comment ref="M30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1121,7 +1140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F32" authorId="0">
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0">
+    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
       <text>
         <r>
           <rPr>
@@ -1147,7 +1166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0">
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -1578,12 +1597,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="€#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="€#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="\€#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="\€#,##0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1697,7 +1716,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1717,12 +1736,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1739,15 +1752,262 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="144">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -1760,6 +2020,253 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1779,18 +2286,801 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1828,7 +3118,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1862,6 +3152,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1896,9 +3187,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2071,34 +3363,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="3" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1" outlineLevel="2"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9.140625" outlineLevel="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.140625" outlineLevel="2"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1" outlineLevel="2"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.1640625" outlineLevel="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.1640625" outlineLevel="2"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1" outlineLevel="2"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1" outlineLevel="3" collapsed="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" customWidth="1" outlineLevel="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -2109,10 +3401,10 @@
         <v>130</v>
       </c>
       <c r="G1" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>127</v>
       </c>
@@ -2122,10 +3414,10 @@
       </c>
       <c r="G2" s="4">
         <f>TotalCost/BoardQty</f>
-        <v>20.0016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>26.970195648198942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>128</v>
       </c>
@@ -2137,18 +3429,18 @@
       </c>
       <c r="G3" s="5">
         <f>SUM(G7:G30)</f>
-        <v>400.0329</v>
+        <v>26.970195648198942</v>
       </c>
       <c r="L3" s="5">
         <f>SUM(L7:L30)</f>
-        <v>400.0329</v>
+        <v>26.970195648198942</v>
       </c>
       <c r="M3" s="6" t="str">
         <f>(COUNTA(L7:L30)&amp;" of "&amp;ROWS(L7:L30)&amp;" parts found")</f>
         <v>24 of 24 parts found</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>133</v>
       </c>
@@ -2156,1128 +3448,1128 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="9" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10">
-        <f>CEILING(BoardQty*2.0,1)</f>
+      <c r="E7" s="8">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" ref="F7:F30" si="0">IF(MIN(J7)&lt;&gt;0,MIN(J7),"")</f>
+        <v>0.21027610166392394</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" ref="G7:G30" si="1">IF(AND(ISNUMBER(E7),ISNUMBER(F7)),E7*F7,"")</f>
+        <v>0.42055220332784787</v>
+      </c>
+      <c r="H7" s="8">
+        <v>404544</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9">
+        <f>IFERROR(IF(OR(I7&gt;=K7,E7&gt;=K7),EUR_USD*LOOKUP(IF(I7="",E7,I7),{0,1,10,50,100,500,1000},{0,0.23,0.157,0.1044,0.0888,0.06266,0.05483}),"MOQ="&amp;K7),"")</f>
+        <v>0.21027610166392394</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" ref="L7:L30" si="2">IFERROR(IF(I7="",E7,I7)*J7,"")</f>
+        <v>0.42055220332784787</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20113366246114461</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>0.40226732492228923</v>
+      </c>
+      <c r="H8" s="8">
+        <v>17043</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9">
+        <f>IFERROR(IF(OR(I8&gt;=K8,E8&gt;=K8),EUR_USD*LOOKUP(IF(I8="",E8,I8),{0,1,10,50,100,500,1000},{0,0.22,0.147,0.0882,0.0745,0.05094,0.04507}),"MOQ="&amp;K8),"")</f>
+        <v>0.20113366246114461</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="2"/>
+        <v>0.40226732492228923</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.31998537209727551</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0.31998537209727551</v>
+      </c>
+      <c r="H9" s="8">
+        <v>384377</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9">
+        <f>IFERROR(IF(OR(I9&gt;=K9,E9&gt;=K9),EUR_USD*LOOKUP(IF(I9="",E9,I9),{0,1,10,50,100,500},{0,0.35,0.24,0.1682,0.1442,0.10818}),"MOQ="&amp;K9),"")</f>
+        <v>0.31998537209727551</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31998537209727551</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.23770341927226182</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.23770341927226182</v>
+      </c>
+      <c r="H10" s="8">
+        <v>11066</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9">
+        <f>IFERROR(IF(OR(I10&gt;=K10,E10&gt;=K10),EUR_USD*LOOKUP(IF(I10="",E10,I10),{0,1,10,50,100,500,1000},{0,0.26,0.178,0.1184,0.1006,0.07102,0.06215}),"MOQ="&amp;K10),"")</f>
+        <v>0.23770341927226182</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.23770341927226182</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8">
+        <f>CEILING(BoardQty*7,1)</f>
+        <v>7</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.32912781130005481</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>2.3038946791003836</v>
+      </c>
+      <c r="H11" s="8">
+        <v>177523</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9">
+        <f>IFERROR(IF(OR(I11&gt;=K11,E11&gt;=K11),EUR_USD*LOOKUP(IF(I11="",E11,I11),{0,1,10,100,500},{0,0.36,0.196,0.091,0.084}),"MOQ="&amp;K11),"")</f>
+        <v>0.32912781130005481</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3038946791003836</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.21027610166392394</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.42055220332784787</v>
+      </c>
+      <c r="H12" s="8">
+        <v>52054</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9">
+        <f>IFERROR(IF(OR(I12&gt;=K12,E12&gt;=K12),EUR_USD*LOOKUP(IF(I12="",E12,I12),{0,1,10,100,500,1000},{0,0.23,0.188,0.0998,0.06566,0.04465}),"MOQ="&amp;K12),"")</f>
+        <v>0.21027610166392394</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.42055220332784787</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24684585847504115</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.49369171695008229</v>
+      </c>
+      <c r="H13" s="8">
+        <v>57339</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9">
+        <f>IFERROR(IF(OR(I13&gt;=K13,E13&gt;=K13),EUR_USD*LOOKUP(IF(I13="",E13,I13),{0,1,10,100,500,1000,2000},{0,0.27,0.217,0.1153,0.07584,0.05157,0.04652}),"MOQ="&amp;K13),"")</f>
+        <v>0.24684585847504115</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.49369171695008229</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8">
+        <f>CEILING(BoardQty*3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13713658804168952</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="1"/>
+        <v>0.41140976412506858</v>
+      </c>
+      <c r="H14" s="8">
+        <v>12932</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9">
+        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),EUR_USD*LOOKUP(IF(I14="",E14,I14),{0,1,10,100,500,1000},{0,0.15,0.141,0.0766,0.04714,0.03214}),"MOQ="&amp;K14),"")</f>
+        <v>0.13713658804168952</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="2"/>
+        <v>0.41140976412506858</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="11">
-        <f>IF(MIN(J7)&lt;&gt;0,MIN(J7),"")</f>
-        <v>0.14353629548363503</v>
-      </c>
-      <c r="G7" s="12">
-        <f>IF(AND(ISNUMBER(E7),ISNUMBER(F7)),E7*F7,"")</f>
-        <v>5.7415</v>
-      </c>
-      <c r="H7" s="10">
-        <v>404544</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11">
-        <f>IFERROR(IF(OR(I7&gt;=K7,E7&gt;=K7),EUR_USD*LOOKUP(IF(I7="",E7,I7),{0,1,10,50,100,500,1000},{0.0,0.23,0.157,0.1044,0.0888,0.06266,0.05483}),"MOQ="&amp;K7),"")</f>
-        <v>0.14353629548363503</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="E15" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="12">
-        <f>IFERROR(IF(I7="",E7,I7)*J7,"")</f>
-        <v>5.7415</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="10">
-        <f>CEILING(BoardQty*2.0,1)</f>
-        <v>40</v>
-      </c>
-      <c r="F8" s="11">
-        <f>IF(MIN(J8)&lt;&gt;0,MIN(J8),"")</f>
-        <v>0.1343938562808557</v>
-      </c>
-      <c r="G8" s="12">
-        <f>IF(AND(ISNUMBER(E8),ISNUMBER(F8)),E8*F8,"")</f>
-        <v>5.3758</v>
-      </c>
-      <c r="H8" s="10">
-        <v>17043</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11">
-        <f>IFERROR(IF(OR(I8&gt;=K8,E8&gt;=K8),EUR_USD*LOOKUP(IF(I8="",E8,I8),{0,1,10,50,100,500,1000},{0.0,0.22,0.147,0.0882,0.0745,0.05094,0.04507}),"MOQ="&amp;K8),"")</f>
-        <v>0.1343938562808557</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.56683123057231666</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.56683123057231666</v>
+      </c>
+      <c r="H15" s="8">
+        <v>235</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9">
+        <f>IFERROR(IF(OR(I15&gt;=K15,E15&gt;=K15),EUR_USD*LOOKUP(IF(I15="",E15,I15),{0,1,50,100,500},{0,0.62,0.566,0.516,0.4992}),"MOQ="&amp;K15),"")</f>
+        <v>0.56683123057231666</v>
+      </c>
+      <c r="K15" s="8">
         <v>1</v>
       </c>
-      <c r="L8" s="12">
-        <f>IFERROR(IF(I8="",E8,I8)*J8,"")</f>
-        <v>5.3758</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F9" s="11">
-        <f>IF(MIN(J9)&lt;&gt;0,MIN(J9),"")</f>
-        <v>0.21941854086670323</v>
-      </c>
-      <c r="G9" s="12">
-        <f>IF(AND(ISNUMBER(E9),ISNUMBER(F9)),E9*F9,"")</f>
-        <v>4.3884</v>
-      </c>
-      <c r="H9" s="10">
-        <v>384377</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11">
-        <f>IFERROR(IF(OR(I9&gt;=K9,E9&gt;=K9),EUR_USD*LOOKUP(IF(I9="",E9,I9),{0,1,10,50,100,500},{0.0,0.35,0.24,0.1682,0.1442,0.10818}),"MOQ="&amp;K9),"")</f>
-        <v>0.21941854086670323</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="L15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.56683123057231666</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="8">
+        <f>CEILING(BoardQty*3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.88681660266959217</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>2.6604498080087766</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3935</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9">
+        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),EUR_USD*LOOKUP(IF(I16="",E16,I16),{0,1,10,25,50,100,250,500,1000,5000},{0,0.97,0.607,0.5196,0.4668,0.4572,0.38908,0.36962,0.33071,0.25873}),"MOQ="&amp;K16),"")</f>
+        <v>0.88681660266959217</v>
+      </c>
+      <c r="K16" s="8">
         <v>1</v>
       </c>
-      <c r="L9" s="12">
-        <f>IFERROR(IF(I9="",E9,I9)*J9,"")</f>
-        <v>4.3884</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F10" s="11">
-        <f>IF(MIN(J10)&lt;&gt;0,MIN(J10),"")</f>
-        <v>0.16273541780947154</v>
-      </c>
-      <c r="G10" s="12">
-        <f>IF(AND(ISNUMBER(E10),ISNUMBER(F10)),E10*F10,"")</f>
-        <v>3.2547</v>
-      </c>
-      <c r="H10" s="10">
-        <v>11066</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11">
-        <f>IFERROR(IF(OR(I10&gt;=K10,E10&gt;=K10),EUR_USD*LOOKUP(IF(I10="",E10,I10),{0,1,10,50,100,500,1000},{0.0,0.26,0.178,0.1184,0.1006,0.07102,0.06215}),"MOQ="&amp;K10),"")</f>
-        <v>0.16273541780947154</v>
-      </c>
-      <c r="K10" s="10">
+      <c r="L16" s="10">
+        <f t="shared" si="2"/>
+        <v>2.6604498080087766</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5176449076613638</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>3.0352898153227277</v>
+      </c>
+      <c r="H17" s="8">
+        <v>6959</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9">
+        <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),EUR_USD*LOOKUP(IF(I17="",E17,I17),{0,1,10,25,40,80,230,500,1000,5000},{0,1.66,1.558,1.3852,1.316,1.24675,1.10826,1.03898,0.96972,0.93509}),"MOQ="&amp;K17),"")</f>
+        <v>1.5176449076613638</v>
+      </c>
+      <c r="K17" s="8">
         <v>1</v>
       </c>
-      <c r="L10" s="12">
-        <f>IFERROR(IF(I10="",E10,I10)*J10,"")</f>
-        <v>3.2547</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10">
-        <f>CEILING(BoardQty*7.0,1)</f>
-        <v>140</v>
-      </c>
-      <c r="F11" s="11">
-        <f>IF(MIN(J11)&lt;&gt;0,MIN(J11),"")</f>
-        <v>0.08319619674529163</v>
-      </c>
-      <c r="G11" s="12">
-        <f>IF(AND(ISNUMBER(E11),ISNUMBER(F11)),E11*F11,"")</f>
-        <v>11.6475</v>
-      </c>
-      <c r="H11" s="10">
-        <v>177523</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11">
-        <f>IFERROR(IF(OR(I11&gt;=K11,E11&gt;=K11),EUR_USD*LOOKUP(IF(I11="",E11,I11),{0,1,10,100,500},{0.0,0.36,0.196,0.091,0.084}),"MOQ="&amp;K11),"")</f>
-        <v>0.08319619674529163</v>
-      </c>
-      <c r="K11" s="10">
+      <c r="L17" s="10">
+        <f t="shared" si="2"/>
+        <v>3.0352898153227277</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="12">
-        <f>IFERROR(IF(I11="",E11,I11)*J11,"")</f>
-        <v>11.6475</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10">
-        <f>CEILING(BoardQty*2.0,1)</f>
-        <v>40</v>
-      </c>
-      <c r="F12" s="11">
-        <f>IF(MIN(J12)&lt;&gt;0,MIN(J12),"")</f>
-        <v>0.17187785701225086</v>
-      </c>
-      <c r="G12" s="12">
-        <f>IF(AND(ISNUMBER(E12),ISNUMBER(F12)),E12*F12,"")</f>
-        <v>6.8751</v>
-      </c>
-      <c r="H12" s="10">
-        <v>52054</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11">
-        <f>IFERROR(IF(OR(I12&gt;=K12,E12&gt;=K12),EUR_USD*LOOKUP(IF(I12="",E12,I12),{0,1,10,100,500,1000},{0.0,0.23,0.188,0.0998,0.06566,0.04465}),"MOQ="&amp;K12),"")</f>
-        <v>0.17187785701225086</v>
-      </c>
-      <c r="K12" s="10">
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8729200950813674</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8729200950813674</v>
+      </c>
+      <c r="H18" s="8">
+        <v>10414</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9">
+        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),EUR_USD*LOOKUP(IF(I18="",E18,I18),{0,1,5,10,25,50,100,250,500},{0,5.33,5.254,5.175,5.0176,4.8712,4.7363,4.60128,4.26378}),"MOQ="&amp;K18),"")</f>
+        <v>4.8729200950813674</v>
+      </c>
+      <c r="K18" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="12">
-        <f>IFERROR(IF(I12="",E12,I12)*J12,"")</f>
-        <v>6.8751</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="10">
-        <f>CEILING(BoardQty*2.0,1)</f>
-        <v>40</v>
-      </c>
-      <c r="F13" s="11">
-        <f>IF(MIN(J13)&lt;&gt;0,MIN(J13),"")</f>
-        <v>0.19839093070031083</v>
-      </c>
-      <c r="G13" s="12">
-        <f>IF(AND(ISNUMBER(E13),ISNUMBER(F13)),E13*F13,"")</f>
-        <v>7.9356</v>
-      </c>
-      <c r="H13" s="10">
-        <v>57339</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11">
-        <f>IFERROR(IF(OR(I13&gt;=K13,E13&gt;=K13),EUR_USD*LOOKUP(IF(I13="",E13,I13),{0,1,10,100,500,1000,2000},{0.0,0.27,0.217,0.1153,0.07584,0.05157,0.04652}),"MOQ="&amp;K13),"")</f>
-        <v>0.19839093070031083</v>
-      </c>
-      <c r="K13" s="10">
+      <c r="L18" s="10">
+        <f t="shared" si="2"/>
+        <v>4.8729200950813674</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="8">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15542146644724814</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.31084293289449627</v>
+      </c>
+      <c r="H19" s="8">
+        <v>266755</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9">
+        <f>IFERROR(IF(OR(I19&gt;=K19,E19&gt;=K19),EUR_USD*LOOKUP(IF(I19="",E19,I19),{0,1,10,100,500,1000},{0,0.17,0.153,0.0834,0.0513,0.03498}),"MOQ="&amp;K19),"")</f>
+        <v>0.15542146644724814</v>
+      </c>
+      <c r="K19" s="8">
         <v>1</v>
       </c>
-      <c r="L13" s="12">
-        <f>IFERROR(IF(I13="",E13,I13)*J13,"")</f>
-        <v>7.9356</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="10">
-        <f>CEILING(BoardQty*3.0,1)</f>
+      <c r="L19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31084293289449627</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="8">
+        <f>CEILING(BoardQty*8,1)</f>
+        <v>8</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10970927043335162</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.87767416346681293</v>
+      </c>
+      <c r="H20" s="8">
+        <v>207265</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9">
+        <f>IFERROR(IF(OR(I20&gt;=K20,E20&gt;=K20),EUR_USD*LOOKUP(IF(I20="",E20,I20),{0,1,10,50,100,500,1000},{0,0.12,0.057,0.0374,0.0318,0.02238,0.01949}),"MOQ="&amp;K20),"")</f>
+        <v>0.10970927043335162</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>0.87767416346681293</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="11">
-        <f>IF(MIN(J14)&lt;&gt;0,MIN(J14),"")</f>
-        <v>0.12890839275918814</v>
-      </c>
-      <c r="G14" s="12">
-        <f>IF(AND(ISNUMBER(E14),ISNUMBER(F14)),E14*F14,"")</f>
-        <v>7.7345</v>
-      </c>
-      <c r="H14" s="10">
-        <v>12932</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11">
-        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),EUR_USD*LOOKUP(IF(I14="",E14,I14),{0,1,10,100,500,1000},{0.0,0.15,0.141,0.0766,0.04714,0.03214}),"MOQ="&amp;K14),"")</f>
-        <v>0.12890839275918814</v>
-      </c>
-      <c r="K14" s="10">
+      <c r="C21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
         <v>1</v>
       </c>
-      <c r="L14" s="12">
-        <f>IFERROR(IF(I14="",E14,I14)*J14,"")</f>
-        <v>7.7345</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F15" s="11">
-        <f>IF(MIN(J15)&lt;&gt;0,MIN(J15),"")</f>
-        <v>0.5668312305723167</v>
-      </c>
-      <c r="G15" s="12">
-        <f>IF(AND(ISNUMBER(E15),ISNUMBER(F15)),E15*F15,"")</f>
-        <v>11.3366</v>
-      </c>
-      <c r="H15" s="10">
-        <v>235</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11">
-        <f>IFERROR(IF(OR(I15&gt;=K15,E15&gt;=K15),EUR_USD*LOOKUP(IF(I15="",E15,I15),{0,1,50,100,500},{0.0,0.62,0.566,0.516,0.4992}),"MOQ="&amp;K15),"")</f>
-        <v>0.5668312305723167</v>
-      </c>
-      <c r="K15" s="10">
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.63082830499177178</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.63082830499177178</v>
+      </c>
+      <c r="H21" s="8">
+        <v>7720</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9">
+        <f>IFERROR(IF(OR(I21&gt;=K21,E21&gt;=K21),EUR_USD*LOOKUP(IF(I21="",E21,I21),{0,1,10,50,100,500,1000},{0,0.69,0.507,0.3576,0.295,0.20856,0.16542}),"MOQ="&amp;K21),"")</f>
+        <v>0.63082830499177178</v>
+      </c>
+      <c r="K21" s="8">
         <v>1</v>
       </c>
-      <c r="L15" s="12">
-        <f>IFERROR(IF(I15="",E15,I15)*J15,"")</f>
-        <v>11.3366</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="10">
-        <f>CEILING(BoardQty*3.0,1)</f>
-        <v>60</v>
-      </c>
-      <c r="F16" s="11">
-        <f>IF(MIN(J16)&lt;&gt;0,MIN(J16),"")</f>
-        <v>0.4267690619857378</v>
-      </c>
-      <c r="G16" s="12">
-        <f>IF(AND(ISNUMBER(E16),ISNUMBER(F16)),E16*F16,"")</f>
-        <v>25.6061</v>
-      </c>
-      <c r="H16" s="10">
-        <v>3935</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11">
-        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),EUR_USD*LOOKUP(IF(I16="",E16,I16),{0,1,10,25,50,100,250,500,1000,5000},{0.0,0.97,0.607,0.5196,0.4668,0.4572,0.38908,0.36962,0.33071,0.25873}),"MOQ="&amp;K16),"")</f>
-        <v>0.4267690619857378</v>
-      </c>
-      <c r="K16" s="10">
+      <c r="L21" s="10">
+        <f t="shared" si="2"/>
+        <v>0.63082830499177178</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="8">
+        <f>CEILING(BoardQty*6,1)</f>
+        <v>6</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12799414883891022</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="1"/>
+        <v>0.76796489303346127</v>
+      </c>
+      <c r="H22" s="8">
+        <v>17980</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9">
+        <f>IFERROR(IF(OR(I22&gt;=K22,E22&gt;=K22),EUR_USD*LOOKUP(IF(I22="",E22,I22),{0,1,10,50,100,500,1000},{0,0.14,0.068,0.0458,0.0391,0.02804,0.02467}),"MOQ="&amp;K22),"")</f>
+        <v>0.12799414883891022</v>
+      </c>
+      <c r="K22" s="8">
         <v>1</v>
       </c>
-      <c r="L16" s="12">
-        <f>IFERROR(IF(I16="",E16,I16)*J16,"")</f>
-        <v>25.6061</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="10">
-        <f>CEILING(BoardQty*2.0,1)</f>
-        <v>40</v>
-      </c>
-      <c r="F17" s="11">
-        <f>IF(MIN(J17)&lt;&gt;0,MIN(J17),"")</f>
-        <v>1.2031449990857561</v>
-      </c>
-      <c r="G17" s="12">
-        <f>IF(AND(ISNUMBER(E17),ISNUMBER(F17)),E17*F17,"")</f>
-        <v>48.1258</v>
-      </c>
-      <c r="H17" s="10">
-        <v>6959</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11">
-        <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),EUR_USD*LOOKUP(IF(I17="",E17,I17),{0,1,10,25,40,80,230,500,1000,5000},{0.0,1.66,1.558,1.3852,1.316,1.24675,1.10826,1.03898,0.96972,0.93509}),"MOQ="&amp;K17),"")</f>
-        <v>1.2031449990857561</v>
-      </c>
-      <c r="K17" s="10">
+      <c r="L22" s="10">
+        <f t="shared" si="2"/>
+        <v>0.76796489303346127</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="8">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12799414883891022</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="1"/>
+        <v>0.25598829767782044</v>
+      </c>
+      <c r="H23" s="8">
+        <v>15215</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9">
+        <f>IFERROR(IF(OR(I23&gt;=K23,E23&gt;=K23),EUR_USD*LOOKUP(IF(I23="",E23,I23),{0,1,10,50,100,500,1000},{0,0.14,0.119,0.0626,0.0464,0.02804,0.01942}),"MOQ="&amp;K23),"")</f>
+        <v>0.12799414883891022</v>
+      </c>
+      <c r="K23" s="8">
         <v>1</v>
       </c>
-      <c r="L17" s="12">
-        <f>IFERROR(IF(I17="",E17,I17)*J17,"")</f>
-        <v>48.1258</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F18" s="11">
-        <f>IF(MIN(J18)&lt;&gt;0,MIN(J18),"")</f>
-        <v>4.7312122874382885</v>
-      </c>
-      <c r="G18" s="12">
-        <f>IF(AND(ISNUMBER(E18),ISNUMBER(F18)),E18*F18,"")</f>
-        <v>94.6242</v>
-      </c>
-      <c r="H18" s="10">
-        <v>10414</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11">
-        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),EUR_USD*LOOKUP(IF(I18="",E18,I18),{0,1,5,10,25,50,100,250,500},{0.0,5.33,5.254,5.175,5.0176,4.8712,4.7363,4.60128,4.26378}),"MOQ="&amp;K18),"")</f>
-        <v>4.7312122874382885</v>
-      </c>
-      <c r="K18" s="10">
+      <c r="L23" s="10">
+        <f t="shared" si="2"/>
+        <v>0.25598829767782044</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="12">
-        <f>IFERROR(IF(I18="",E18,I18)*J18,"")</f>
-        <v>94.6242</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="10">
-        <f>CEILING(BoardQty*2.0,1)</f>
-        <v>40</v>
-      </c>
-      <c r="F19" s="11">
-        <f>IF(MIN(J19)&lt;&gt;0,MIN(J19),"")</f>
-        <v>0.1398793198025233</v>
-      </c>
-      <c r="G19" s="12">
-        <f>IF(AND(ISNUMBER(E19),ISNUMBER(F19)),E19*F19,"")</f>
-        <v>5.5952</v>
-      </c>
-      <c r="H19" s="10">
-        <v>266755</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11">
-        <f>IFERROR(IF(OR(I19&gt;=K19,E19&gt;=K19),EUR_USD*LOOKUP(IF(I19="",E19,I19),{0,1,10,100,500,1000},{0.0,0.17,0.153,0.0834,0.0513,0.03498}),"MOQ="&amp;K19),"")</f>
-        <v>0.1398793198025233</v>
-      </c>
-      <c r="K19" s="10">
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.62168586578899254</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="1"/>
+        <v>0.62168586578899254</v>
+      </c>
+      <c r="H24" s="8">
+        <v>113856</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9">
+        <f>IFERROR(IF(OR(I24&gt;=K24,E24&gt;=K24),EUR_USD*LOOKUP(IF(I24="",E24,I24),{0,1,10,50,100,500,1000},{0,0.68,0.566,0.4366,0.3799,0.27484,0.2223}),"MOQ="&amp;K24),"")</f>
+        <v>0.62168586578899254</v>
+      </c>
+      <c r="K24" s="8">
         <v>1</v>
       </c>
-      <c r="L19" s="12">
-        <f>IFERROR(IF(I19="",E19,I19)*J19,"")</f>
-        <v>5.5952</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="10">
-        <f>CEILING(BoardQty*8.0,1)</f>
-        <v>160</v>
-      </c>
-      <c r="F20" s="11">
-        <f>IF(MIN(J20)&lt;&gt;0,MIN(J20),"")</f>
-        <v>0.029072956664838178</v>
-      </c>
-      <c r="G20" s="12">
-        <f>IF(AND(ISNUMBER(E20),ISNUMBER(F20)),E20*F20,"")</f>
-        <v>4.6517</v>
-      </c>
-      <c r="H20" s="10">
-        <v>207265</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11">
-        <f>IFERROR(IF(OR(I20&gt;=K20,E20&gt;=K20),EUR_USD*LOOKUP(IF(I20="",E20,I20),{0,1,10,50,100,500,1000},{0.0,0.12,0.057,0.0374,0.0318,0.02238,0.01949}),"MOQ="&amp;K20),"")</f>
-        <v>0.029072956664838178</v>
-      </c>
-      <c r="K20" s="10">
+      <c r="L24" s="10">
+        <f t="shared" si="2"/>
+        <v>0.62168586578899254</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
         <v>1</v>
       </c>
-      <c r="L20" s="12">
-        <f>IFERROR(IF(I20="",E20,I20)*J20,"")</f>
-        <v>4.6517</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F21" s="11">
-        <f>IF(MIN(J21)&lt;&gt;0,MIN(J21),"")</f>
-        <v>0.46352166758091057</v>
-      </c>
-      <c r="G21" s="12">
-        <f>IF(AND(ISNUMBER(E21),ISNUMBER(F21)),E21*F21,"")</f>
-        <v>9.2704</v>
-      </c>
-      <c r="H21" s="10">
-        <v>7720</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11">
-        <f>IFERROR(IF(OR(I21&gt;=K21,E21&gt;=K21),EUR_USD*LOOKUP(IF(I21="",E21,I21),{0,1,10,50,100,500,1000},{0.0,0.69,0.507,0.3576,0.295,0.20856,0.16542}),"MOQ="&amp;K21),"")</f>
-        <v>0.46352166758091057</v>
-      </c>
-      <c r="K21" s="10">
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.46626439934174435</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="1"/>
+        <v>0.46626439934174435</v>
+      </c>
+      <c r="H25" s="8">
+        <v>6900</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9">
+        <f>IFERROR(IF(OR(I25&gt;=K25,E25&gt;=K25),EUR_USD*LOOKUP(IF(I25="",E25,I25),{0,1,10,25,100,250,500,1000,2500,5000},{0,0.51,0.414,0.3788,0.2818,0.2554,0.21138,0.15853,0.14532,0.13651}),"MOQ="&amp;K25),"")</f>
+        <v>0.46626439934174435</v>
+      </c>
+      <c r="K25" s="8">
         <v>1</v>
       </c>
-      <c r="L21" s="12">
-        <f>IFERROR(IF(I21="",E21,I21)*J21,"")</f>
-        <v>9.2704</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="10">
-        <f>CEILING(BoardQty*6.0,1)</f>
+      <c r="L25" s="10">
+        <f t="shared" si="2"/>
+        <v>0.46626439934174435</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="8">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33827025050283416</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>0.67654050100566832</v>
+      </c>
+      <c r="H26" s="8">
+        <v>66274</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9">
+        <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),EUR_USD*LOOKUP(IF(I26="",E26,I26),{0,1,10,25,100,250,500,1000,2500,5000},{0,0.37,0.36,0.3392,0.2944,0.26708,0.24846,0.22361,0.20995,0.19504}),"MOQ="&amp;K26),"")</f>
+        <v>0.33827025050283416</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="2"/>
+        <v>0.67654050100566832</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>2.8798683488754797</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8798683488754797</v>
+      </c>
+      <c r="H27" s="8">
+        <v>9799</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9">
+        <f>IFERROR(IF(OR(I27&gt;=K27,E27&gt;=K27),EUR_USD*LOOKUP(IF(I27="",E27,I27),{0,1},{0,3.15}),"MOQ="&amp;K27),"")</f>
+        <v>2.8798683488754797</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="2"/>
+        <v>2.8798683488754797</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.8319619674529164</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="1"/>
+        <v>0.8319619674529164</v>
+      </c>
+      <c r="H28" s="8">
+        <v>545</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9">
+        <f>IFERROR(IF(OR(I28&gt;=K28,E28&gt;=K28),EUR_USD*LOOKUP(IF(I28="",E28,I28),{0,1,25,100},{0,0.91,0.77,0.71}),"MOQ="&amp;K28),"")</f>
+        <v>0.8319619674529164</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="2"/>
+        <v>0.8319619674529164</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="8">
+        <f>CEILING(BoardQty*2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.97824099469738524</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="1"/>
+        <v>1.9564819893947705</v>
+      </c>
+      <c r="H29" s="8">
+        <v>4749</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9">
+        <f>IFERROR(IF(OR(I29&gt;=K29,E29&gt;=K29),EUR_USD*LOOKUP(IF(I29="",E29,I29),{0,1,10,100,1000,2000,5000,10000,25000},{0,1.07,0.697,0.4566,0.36048,0.33645,0.32443,0.31963,0.31242}),"MOQ="&amp;K29),"")</f>
+        <v>0.97824099469738524</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9564819893947705</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="8">
+        <f>CEILING(BoardQty*1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.54854635216675807</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="1"/>
+        <v>0.54854635216675807</v>
+      </c>
+      <c r="H30" s="8">
+        <v>93569</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9">
+        <f>IFERROR(IF(OR(I30&gt;=K30,E30&gt;=K30),EUR_USD*LOOKUP(IF(I30="",E30,I30),{0,1,10,50,100,500},{0,0.6,0.502,0.4522,0.402,0.38188}),"MOQ="&amp;K30),"")</f>
+        <v>0.54854635216675807</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="2"/>
+        <v>0.54854635216675807</v>
+      </c>
+      <c r="M30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="11">
-        <f>IF(MIN(J22)&lt;&gt;0,MIN(J22),"")</f>
-        <v>0.03574693728286707</v>
-      </c>
-      <c r="G22" s="12">
-        <f>IF(AND(ISNUMBER(E22),ISNUMBER(F22)),E22*F22,"")</f>
-        <v>4.2896</v>
-      </c>
-      <c r="H22" s="10">
-        <v>17980</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11">
-        <f>IFERROR(IF(OR(I22&gt;=K22,E22&gt;=K22),EUR_USD*LOOKUP(IF(I22="",E22,I22),{0,1,10,50,100,500,1000},{0.0,0.14,0.068,0.0458,0.0391,0.02804,0.02467}),"MOQ="&amp;K22),"")</f>
-        <v>0.03574693728286707</v>
-      </c>
-      <c r="K22" s="10">
-        <v>1</v>
-      </c>
-      <c r="L22" s="12">
-        <f>IFERROR(IF(I22="",E22,I22)*J22,"")</f>
-        <v>4.2896</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="10">
-        <f>CEILING(BoardQty*2.0,1)</f>
-        <v>40</v>
-      </c>
-      <c r="F23" s="11">
-        <f>IF(MIN(J23)&lt;&gt;0,MIN(J23),"")</f>
-        <v>0.10879502651307368</v>
-      </c>
-      <c r="G23" s="12">
-        <f>IF(AND(ISNUMBER(E23),ISNUMBER(F23)),E23*F23,"")</f>
-        <v>4.3518</v>
-      </c>
-      <c r="H23" s="10">
-        <v>15215</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11">
-        <f>IFERROR(IF(OR(I23&gt;=K23,E23&gt;=K23),EUR_USD*LOOKUP(IF(I23="",E23,I23),{0,1,10,50,100,500,1000},{0.0,0.14,0.119,0.0626,0.0464,0.02804,0.01942}),"MOQ="&amp;K23),"")</f>
-        <v>0.10879502651307368</v>
-      </c>
-      <c r="K23" s="10">
-        <v>1</v>
-      </c>
-      <c r="L23" s="12">
-        <f>IFERROR(IF(I23="",E23,I23)*J23,"")</f>
-        <v>4.3518</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F24" s="11">
-        <f>IF(MIN(J24)&lt;&gt;0,MIN(J24),"")</f>
-        <v>0.5174620588773083</v>
-      </c>
-      <c r="G24" s="12">
-        <f>IF(AND(ISNUMBER(E24),ISNUMBER(F24)),E24*F24,"")</f>
-        <v>10.3492</v>
-      </c>
-      <c r="H24" s="10">
-        <v>113856</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11">
-        <f>IFERROR(IF(OR(I24&gt;=K24,E24&gt;=K24),EUR_USD*LOOKUP(IF(I24="",E24,I24),{0,1,10,50,100,500,1000},{0.0,0.68,0.566,0.4366,0.3799,0.27484,0.2223}),"MOQ="&amp;K24),"")</f>
-        <v>0.5174620588773083</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="L24" s="12">
-        <f>IFERROR(IF(I24="",E24,I24)*J24,"")</f>
-        <v>10.3492</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F25" s="11">
-        <f>IF(MIN(J25)&lt;&gt;0,MIN(J25),"")</f>
-        <v>0.37849698299506307</v>
-      </c>
-      <c r="G25" s="12">
-        <f>IF(AND(ISNUMBER(E25),ISNUMBER(F25)),E25*F25,"")</f>
-        <v>7.5699</v>
-      </c>
-      <c r="H25" s="10">
-        <v>6900</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11">
-        <f>IFERROR(IF(OR(I25&gt;=K25,E25&gt;=K25),EUR_USD*LOOKUP(IF(I25="",E25,I25),{0,1,10,25,100,250,500,1000,2500,5000},{0.0,0.51,0.414,0.3788,0.2818,0.2554,0.21138,0.15853,0.14532,0.13651}),"MOQ="&amp;K25),"")</f>
-        <v>0.37849698299506307</v>
-      </c>
-      <c r="K25" s="10">
-        <v>1</v>
-      </c>
-      <c r="L25" s="12">
-        <f>IFERROR(IF(I25="",E25,I25)*J25,"")</f>
-        <v>7.5699</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="10">
-        <f>CEILING(BoardQty*2.0,1)</f>
-        <v>40</v>
-      </c>
-      <c r="F26" s="11">
-        <f>IF(MIN(J26)&lt;&gt;0,MIN(J26),"")</f>
-        <v>0.3101115377582739</v>
-      </c>
-      <c r="G26" s="12">
-        <f>IF(AND(ISNUMBER(E26),ISNUMBER(F26)),E26*F26,"")</f>
-        <v>12.4045</v>
-      </c>
-      <c r="H26" s="10">
-        <v>66274</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11">
-        <f>IFERROR(IF(OR(I26&gt;=K26,E26&gt;=K26),EUR_USD*LOOKUP(IF(I26="",E26,I26),{0,1,10,25,100,250,500,1000,2500,5000},{0.0,0.37,0.36,0.3392,0.2944,0.26708,0.24846,0.22361,0.20995,0.19504}),"MOQ="&amp;K26),"")</f>
-        <v>0.3101115377582739</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1</v>
-      </c>
-      <c r="L26" s="12">
-        <f>IFERROR(IF(I26="",E26,I26)*J26,"")</f>
-        <v>12.4045</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F27" s="11">
-        <f>IF(MIN(J27)&lt;&gt;0,MIN(J27),"")</f>
-        <v>2.8798683488754797</v>
-      </c>
-      <c r="G27" s="12">
-        <f>IF(AND(ISNUMBER(E27),ISNUMBER(F27)),E27*F27,"")</f>
-        <v>57.5974</v>
-      </c>
-      <c r="H27" s="10">
-        <v>9799</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11">
-        <f>IFERROR(IF(OR(I27&gt;=K27,E27&gt;=K27),EUR_USD*LOOKUP(IF(I27="",E27,I27),{0,1},{0.0,3.15}),"MOQ="&amp;K27),"")</f>
-        <v>2.8798683488754797</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1</v>
-      </c>
-      <c r="L27" s="12">
-        <f>IFERROR(IF(I27="",E27,I27)*J27,"")</f>
-        <v>57.5974</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F28" s="11">
-        <f>IF(MIN(J28)&lt;&gt;0,MIN(J28),"")</f>
-        <v>0.8319619674529164</v>
-      </c>
-      <c r="G28" s="12">
-        <f>IF(AND(ISNUMBER(E28),ISNUMBER(F28)),E28*F28,"")</f>
-        <v>16.6392</v>
-      </c>
-      <c r="H28" s="10">
-        <v>545</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11">
-        <f>IFERROR(IF(OR(I28&gt;=K28,E28&gt;=K28),EUR_USD*LOOKUP(IF(I28="",E28,I28),{0,1,25,100},{0.0,0.91,0.77,0.71}),"MOQ="&amp;K28),"")</f>
-        <v>0.8319619674529164</v>
-      </c>
-      <c r="K28" s="10">
-        <v>1</v>
-      </c>
-      <c r="L28" s="12">
-        <f>IFERROR(IF(I28="",E28,I28)*J28,"")</f>
-        <v>16.6392</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="10">
-        <f>CEILING(BoardQty*2.0,1)</f>
-        <v>40</v>
-      </c>
-      <c r="F29" s="11">
-        <f>IF(MIN(J29)&lt;&gt;0,MIN(J29),"")</f>
-        <v>0.6372280124337173</v>
-      </c>
-      <c r="G29" s="12">
-        <f>IF(AND(ISNUMBER(E29),ISNUMBER(F29)),E29*F29,"")</f>
-        <v>25.4891</v>
-      </c>
-      <c r="H29" s="10">
-        <v>4749</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11">
-        <f>IFERROR(IF(OR(I29&gt;=K29,E29&gt;=K29),EUR_USD*LOOKUP(IF(I29="",E29,I29),{0,1,10,100,1000,2000,5000,10000,25000},{0.0,1.07,0.697,0.4566,0.36048,0.33645,0.32443,0.31963,0.31242}),"MOQ="&amp;K29),"")</f>
-        <v>0.6372280124337173</v>
-      </c>
-      <c r="K29" s="10">
-        <v>1</v>
-      </c>
-      <c r="L29" s="12">
-        <f>IFERROR(IF(I29="",E29,I29)*J29,"")</f>
-        <v>25.4891</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>20</v>
-      </c>
-      <c r="F30" s="11">
-        <f>IF(MIN(J30)&lt;&gt;0,MIN(J30),"")</f>
-        <v>0.4589504479795209</v>
-      </c>
-      <c r="G30" s="12">
-        <f>IF(AND(ISNUMBER(E30),ISNUMBER(F30)),E30*F30,"")</f>
-        <v>9.179</v>
-      </c>
-      <c r="H30" s="10">
-        <v>93569</v>
-      </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11">
-        <f>IFERROR(IF(OR(I30&gt;=K30,E30&gt;=K30),EUR_USD*LOOKUP(IF(I30="",E30,I30),{0,1,10,50,100,500},{0.0,0.6,0.502,0.4522,0.402,0.38188}),"MOQ="&amp;K30),"")</f>
-        <v>0.4589504479795209</v>
-      </c>
-      <c r="K30" s="10">
-        <v>1</v>
-      </c>
-      <c r="L30" s="12">
-        <f>IFERROR(IF(I30="",E30,I30)*J30,"")</f>
-        <v>9.179</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="B32" s="13" t="s">
+    </row>
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C32">
-        <v>0.9142439202779301</v>
+        <v>0.91424392027793011</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>122</v>
@@ -3286,10 +4578,10 @@
         <f>SUM(L32)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="6" t="str">
         <f>IFERROR(IF(COUNTIF(I7:I30,"&gt;0")&gt;0,COUNTIF(I7:I30,"&gt;0")&amp;" of "&amp;(ROWS(K7:K30)-COUNTBLANK(K7:K30))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
@@ -3298,140 +4590,285 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="F33" s="13" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F33" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="15" t="str">
         <f>CONCATENATE(I58,I59,I60,I61,I62,I63,I64,I65,I66,I67,I68,I69,I70,I71,I72,I73,I74,I75,I76,I77,I78,I79,I80,I81)</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" ht="30" hidden="1" customHeight="1">
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+    </row>
+    <row r="49" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+    </row>
+    <row r="51" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+    </row>
+    <row r="52" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+    </row>
+    <row r="53" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+    </row>
+    <row r="54" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+    </row>
+    <row r="55" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+    </row>
+    <row r="56" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+    </row>
+    <row r="57" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+    </row>
+    <row r="58" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I58" t="str">
         <f t="array" ref="I58:I81">IF(ISNUMBER(I7:I30)*(I7:I30&gt;=K7:K30)*(M7:M30&lt;&gt;""),TEXT(ROUNDUP(I7:I30/IF(ISNUMBER(K7:K30),K7:K30,1),0)*K7:K30,"##0")&amp;","&amp;M7:M30&amp;","&amp;SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A30,",",";"),"
 "," ")&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I81">
-        <v>0</v>
+    <row r="59" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="9:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="9:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I81" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3441,568 +4878,568 @@
     <mergeCell ref="I33:L57"/>
   </mergeCells>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="143" priority="61">
       <formula>AND(ISBLANK(D10),ISBLANK(L10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="62">
+    <cfRule type="expression" dxfId="142" priority="62">
       <formula>IF(SUM(H10)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="63" operator="greaterThan">
       <formula>SUM(H10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="64" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J10),I10,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="139" priority="65">
       <formula>AND(ISBLANK(D11),ISBLANK(L11))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="66">
+    <cfRule type="expression" dxfId="138" priority="66">
       <formula>IF(SUM(H11)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="67" operator="greaterThan">
       <formula>SUM(H11)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="68" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J11),I11,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="135" priority="69">
       <formula>AND(ISBLANK(D12),ISBLANK(L12))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="70">
+    <cfRule type="expression" dxfId="134" priority="70">
       <formula>IF(SUM(H12)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="71" operator="greaterThan">
       <formula>SUM(H12)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="72" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J12),I12,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="2" priority="73">
+    <cfRule type="expression" dxfId="131" priority="73">
       <formula>AND(ISBLANK(D13),ISBLANK(L13))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="74">
+    <cfRule type="expression" dxfId="130" priority="74">
       <formula>IF(SUM(H13)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="75" operator="greaterThan">
       <formula>SUM(H13)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="76" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J13),I13,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="2" priority="77">
+    <cfRule type="expression" dxfId="127" priority="77">
       <formula>AND(ISBLANK(D14),ISBLANK(L14))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="78">
+    <cfRule type="expression" dxfId="126" priority="78">
       <formula>IF(SUM(H14)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="79" operator="greaterThan">
       <formula>SUM(H14)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="80" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J14),I14,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="2" priority="81">
+    <cfRule type="expression" dxfId="123" priority="81">
       <formula>AND(ISBLANK(D15),ISBLANK(L15))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="82">
+    <cfRule type="expression" dxfId="122" priority="82">
       <formula>IF(SUM(H15)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="83" operator="greaterThan">
       <formula>SUM(H15)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="84" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="84" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J15),I15,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="2" priority="85">
+    <cfRule type="expression" dxfId="119" priority="85">
       <formula>AND(ISBLANK(D16),ISBLANK(L16))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="86">
+    <cfRule type="expression" dxfId="118" priority="86">
       <formula>IF(SUM(H16)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="87" operator="greaterThan">
       <formula>SUM(H16)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="88" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="88" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J16),I16,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="2" priority="89">
+    <cfRule type="expression" dxfId="115" priority="89">
       <formula>AND(ISBLANK(D17),ISBLANK(L17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="90">
+    <cfRule type="expression" dxfId="114" priority="90">
       <formula>IF(SUM(H17)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="91" operator="greaterThan">
       <formula>SUM(H17)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="92" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J17),I17,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="2" priority="93">
+    <cfRule type="expression" dxfId="111" priority="93">
       <formula>AND(ISBLANK(D18),ISBLANK(L18))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="94">
+    <cfRule type="expression" dxfId="110" priority="94">
       <formula>IF(SUM(H18)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="95" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="95" operator="greaterThan">
       <formula>SUM(H18)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="96" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="96" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J18),I18,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="2" priority="97">
+    <cfRule type="expression" dxfId="107" priority="97">
       <formula>AND(ISBLANK(D19),ISBLANK(L19))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="98">
+    <cfRule type="expression" dxfId="106" priority="98">
       <formula>IF(SUM(H19)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="99" operator="greaterThan">
       <formula>SUM(H19)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="100" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="100" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J19),I19,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="2" priority="101">
+    <cfRule type="expression" dxfId="103" priority="101">
       <formula>AND(ISBLANK(D20),ISBLANK(L20))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="102">
+    <cfRule type="expression" dxfId="102" priority="102">
       <formula>IF(SUM(H20)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="greaterThan">
       <formula>SUM(H20)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J20),I20,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="2" priority="105">
+    <cfRule type="expression" dxfId="99" priority="105">
       <formula>AND(ISBLANK(D21),ISBLANK(L21))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="106">
+    <cfRule type="expression" dxfId="98" priority="106">
       <formula>IF(SUM(H21)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="107" operator="greaterThan">
       <formula>SUM(H21)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="108" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="108" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J21),I21,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="2" priority="109">
+    <cfRule type="expression" dxfId="95" priority="109">
       <formula>AND(ISBLANK(D22),ISBLANK(L22))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="110">
+    <cfRule type="expression" dxfId="94" priority="110">
       <formula>IF(SUM(H22)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="111" operator="greaterThan">
       <formula>SUM(H22)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="112" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J22),I22,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="expression" dxfId="2" priority="113">
+    <cfRule type="expression" dxfId="91" priority="113">
       <formula>AND(ISBLANK(D23),ISBLANK(L23))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="114">
+    <cfRule type="expression" dxfId="90" priority="114">
       <formula>IF(SUM(H23)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="115" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="115" operator="greaterThan">
       <formula>SUM(H23)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="116" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J23),I23,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="expression" dxfId="2" priority="117">
+    <cfRule type="expression" dxfId="87" priority="117">
       <formula>AND(ISBLANK(D24),ISBLANK(L24))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="118">
+    <cfRule type="expression" dxfId="86" priority="118">
       <formula>IF(SUM(H24)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="119" operator="greaterThan">
       <formula>SUM(H24)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="120" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J24),I24,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="expression" dxfId="2" priority="121">
+    <cfRule type="expression" dxfId="83" priority="121">
       <formula>AND(ISBLANK(D25),ISBLANK(L25))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="122">
+    <cfRule type="expression" dxfId="82" priority="122">
       <formula>IF(SUM(H25)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="123" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="123" operator="greaterThan">
       <formula>SUM(H25)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="124" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="124" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J25),I25,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="expression" dxfId="2" priority="125">
+    <cfRule type="expression" dxfId="79" priority="125">
       <formula>AND(ISBLANK(D26),ISBLANK(L26))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="126">
+    <cfRule type="expression" dxfId="78" priority="126">
       <formula>IF(SUM(H26)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="127" operator="greaterThan">
       <formula>SUM(H26)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="128" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="128" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J26),I26,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="2" priority="129">
+    <cfRule type="expression" dxfId="75" priority="129">
       <formula>AND(ISBLANK(D27),ISBLANK(L27))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="130">
+    <cfRule type="expression" dxfId="74" priority="130">
       <formula>IF(SUM(H27)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="131" operator="greaterThan">
       <formula>SUM(H27)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="132" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="132" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J27),I27,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="expression" dxfId="2" priority="133">
+    <cfRule type="expression" dxfId="71" priority="133">
       <formula>AND(ISBLANK(D28),ISBLANK(L28))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="134">
+    <cfRule type="expression" dxfId="70" priority="134">
       <formula>IF(SUM(H28)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="135" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="135" operator="greaterThan">
       <formula>SUM(H28)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="136" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="136" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J28),I28,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="expression" dxfId="2" priority="137">
+    <cfRule type="expression" dxfId="67" priority="137">
       <formula>AND(ISBLANK(D29),ISBLANK(L29))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="138">
+    <cfRule type="expression" dxfId="66" priority="138">
       <formula>IF(SUM(H29)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="139" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="139" operator="greaterThan">
       <formula>SUM(H29)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="140" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="140" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J29),I29,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="expression" dxfId="2" priority="141">
+    <cfRule type="expression" dxfId="63" priority="141">
       <formula>AND(ISBLANK(D30),ISBLANK(L30))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="142">
+    <cfRule type="expression" dxfId="62" priority="142">
       <formula>IF(SUM(H30)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="143" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="143" operator="greaterThan">
       <formula>SUM(H30)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="144" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="144" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J30),I30,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="59" priority="49">
       <formula>AND(ISBLANK(D7),ISBLANK(L7))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>IF(SUM(H7)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="greaterThan">
       <formula>SUM(H7)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J7),I7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>AND(ISBLANK(D8),ISBLANK(L8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="54">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>IF(SUM(H8)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="greaterThan">
       <formula>SUM(H8)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J8),I8,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="51" priority="57">
       <formula>AND(ISBLANK(D9),ISBLANK(L9))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="58">
+    <cfRule type="expression" dxfId="50" priority="58">
       <formula>IF(SUM(H9)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="greaterThan">
       <formula>SUM(H9)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J9),I9,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="lessThan">
       <formula>E10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="9" operator="lessThan">
       <formula>E11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="lessThan">
       <formula>E12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="13" operator="lessThan">
       <formula>E13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="lessThan">
       <formula>E14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="17" operator="lessThan">
       <formula>E15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="lessThan">
       <formula>E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="lessThan">
       <formula>E17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="23" operator="lessThan">
       <formula>E18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="lessThan">
       <formula>E19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="27" operator="lessThan">
       <formula>E20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="lessThan">
       <formula>E21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="lessThan">
       <formula>E22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="33" operator="lessThan">
       <formula>E23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="lessThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="lessThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="lessThan">
       <formula>E26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="41" operator="lessThan">
       <formula>E27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="lessThan">
       <formula>E28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="45" operator="lessThan">
       <formula>E29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="47" operator="lessThan">
       <formula>E30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
       <formula>E7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
       <formula>E8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThan">
       <formula>E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="23" priority="8">
       <formula>AND(NOT(ISBLANK(I10)),OR(H10="NonStk",I10&gt;H10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>AND(NOT(ISBLANK(I11)),OR(H11="NonStk",I11&gt;H11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>AND(NOT(ISBLANK(I12)),OR(H12="NonStk",I12&gt;H12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="20" priority="14">
       <formula>AND(NOT(ISBLANK(I13)),OR(H13="NonStk",I13&gt;H13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>AND(NOT(ISBLANK(I14)),OR(H14="NonStk",I14&gt;H14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>AND(NOT(ISBLANK(I15)),OR(H15="NonStk",I15&gt;H15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="1" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>AND(NOT(ISBLANK(I16)),OR(H16="NonStk",I16&gt;H16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="1" priority="22">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>AND(NOT(ISBLANK(I17)),OR(H17="NonStk",I17&gt;H17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>AND(NOT(ISBLANK(I18)),OR(H18="NonStk",I18&gt;H18))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="1" priority="26">
+    <cfRule type="expression" dxfId="14" priority="26">
       <formula>AND(NOT(ISBLANK(I19)),OR(H19="NonStk",I19&gt;H19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="1" priority="28">
+    <cfRule type="expression" dxfId="13" priority="28">
       <formula>AND(NOT(ISBLANK(I20)),OR(H20="NonStk",I20&gt;H20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="12" priority="30">
       <formula>AND(NOT(ISBLANK(I21)),OR(H21="NonStk",I21&gt;H21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="1" priority="32">
+    <cfRule type="expression" dxfId="11" priority="32">
       <formula>AND(NOT(ISBLANK(I22)),OR(H22="NonStk",I22&gt;H22))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="1" priority="34">
+    <cfRule type="expression" dxfId="10" priority="34">
       <formula>AND(NOT(ISBLANK(I23)),OR(H23="NonStk",I23&gt;H23))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="1" priority="36">
+    <cfRule type="expression" dxfId="9" priority="36">
       <formula>AND(NOT(ISBLANK(I24)),OR(H24="NonStk",I24&gt;H24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="expression" dxfId="1" priority="38">
+    <cfRule type="expression" dxfId="8" priority="38">
       <formula>AND(NOT(ISBLANK(I25)),OR(H25="NonStk",I25&gt;H25))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="1" priority="40">
+    <cfRule type="expression" dxfId="7" priority="40">
       <formula>AND(NOT(ISBLANK(I26)),OR(H26="NonStk",I26&gt;H26))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="1" priority="42">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>AND(NOT(ISBLANK(I27)),OR(H27="NonStk",I27&gt;H27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="1" priority="44">
+    <cfRule type="expression" dxfId="5" priority="44">
       <formula>AND(NOT(ISBLANK(I28)),OR(H28="NonStk",I28&gt;H28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="1" priority="46">
+    <cfRule type="expression" dxfId="4" priority="46">
       <formula>AND(NOT(ISBLANK(I29)),OR(H29="NonStk",I29&gt;H29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="1" priority="48">
+    <cfRule type="expression" dxfId="3" priority="48">
       <formula>AND(NOT(ISBLANK(I30)),OR(H30="NonStk",I30&gt;H30))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(NOT(ISBLANK(I7)),OR(H7="NonStk",I7&gt;H7))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4012,58 +5449,58 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>AND(NOT(ISBLANK(I9)),OR(H9="NonStk",I9&gt;H9))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="M7" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="M8" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
-    <hyperlink ref="M9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="M10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="M11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="M12" r:id="rId12"/>
-    <hyperlink ref="D13" r:id="rId13"/>
-    <hyperlink ref="M13" r:id="rId14"/>
-    <hyperlink ref="D14" r:id="rId15"/>
-    <hyperlink ref="M14" r:id="rId16"/>
-    <hyperlink ref="D15" r:id="rId17"/>
-    <hyperlink ref="M15" r:id="rId18"/>
-    <hyperlink ref="D16" r:id="rId19"/>
-    <hyperlink ref="M16" r:id="rId20"/>
-    <hyperlink ref="D17" r:id="rId21"/>
-    <hyperlink ref="M17" r:id="rId22"/>
-    <hyperlink ref="D18" r:id="rId23"/>
-    <hyperlink ref="M18" r:id="rId24"/>
-    <hyperlink ref="D19" r:id="rId25"/>
-    <hyperlink ref="M19" r:id="rId26"/>
-    <hyperlink ref="D20" r:id="rId27"/>
-    <hyperlink ref="M20" r:id="rId28"/>
-    <hyperlink ref="D21" r:id="rId29"/>
-    <hyperlink ref="M21" r:id="rId30"/>
-    <hyperlink ref="D22" r:id="rId31"/>
-    <hyperlink ref="M22" r:id="rId32"/>
-    <hyperlink ref="D23" r:id="rId33"/>
-    <hyperlink ref="M23" r:id="rId34"/>
-    <hyperlink ref="M24" r:id="rId35"/>
-    <hyperlink ref="M25" r:id="rId36"/>
-    <hyperlink ref="D26" r:id="rId37"/>
-    <hyperlink ref="M26" r:id="rId38"/>
-    <hyperlink ref="D27" r:id="rId39"/>
-    <hyperlink ref="M27" r:id="rId40"/>
-    <hyperlink ref="D28" r:id="rId41"/>
-    <hyperlink ref="M28" r:id="rId42"/>
-    <hyperlink ref="D29" r:id="rId43"/>
-    <hyperlink ref="M29" r:id="rId44"/>
-    <hyperlink ref="D30" r:id="rId45"/>
-    <hyperlink ref="M30" r:id="rId46"/>
-    <hyperlink ref="H32" r:id="rId47"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D17" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D18" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D20" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M20" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D21" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M21" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D22" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M22" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D23" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M23" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M24" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M25" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D26" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M26" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D27" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M27" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D28" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="M28" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D29" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M29" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D30" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="M30" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H32" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId48"/>
